--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_0_35.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_0_35.xlsx
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>803032.4123631631</v>
+        <v>1064921.710138573</v>
       </c>
     </row>
     <row r="8">
@@ -662,22 +662,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>254.5655501581016</v>
+        <v>23.59704391789208</v>
       </c>
       <c r="H2" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -704,7 +704,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481171</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -716,16 +716,16 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -756,7 +756,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I3" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,7 +783,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S3" t="n">
         <v>156.5912426325231</v>
@@ -859,19 +859,19 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>212.1455389500189</v>
+        <v>94.63926978363978</v>
       </c>
       <c r="T4" t="n">
-        <v>139.6528551206849</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -893,28 +893,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>178.530848221592</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>17.16700251682269</v>
       </c>
       <c r="G5" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -941,7 +941,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -956,13 +956,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1063,10 +1063,10 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>78.40333552909894</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1105,22 +1105,22 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>155.2114886365809</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1130,28 +1130,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1178,7 +1178,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481177</v>
+        <v>30.19289144460029</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -1187,10 +1187,10 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>179.9269603489835</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
@@ -1199,7 +1199,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1230,7 +1230,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.4222199825082</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229335</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1288,19 +1288,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>25.31590541686257</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1351,13 +1351,13 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>162.336490673523</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
@@ -1376,7 +1376,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722623</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
@@ -1388,7 +1388,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,10 +1418,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T11" t="n">
-        <v>208.4827883385019</v>
+        <v>208.482788338503</v>
       </c>
       <c r="U11" t="n">
         <v>251.078595249801</v>
@@ -1467,7 +1467,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1537,7 +1537,7 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -1546,7 +1546,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1576,25 +1576,25 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>197.9208099836032</v>
+        <v>183.1796758467</v>
       </c>
       <c r="T13" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>173.9985270550393</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1704,7 +1704,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1762,7 +1762,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>122.65197883716</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -1813,10 +1813,10 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
-        <v>221.5475610583892</v>
+        <v>139.153727875004</v>
       </c>
       <c r="U16" t="n">
         <v>286.2373523985773</v>
@@ -1828,10 +1828,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1856,10 +1856,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>411.9645167896909</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H17" t="n">
-        <v>305.2872491113176</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
         <v>81.77913505274074</v>
@@ -1895,10 +1895,10 @@
         <v>132.9503648051988</v>
       </c>
       <c r="T17" t="n">
-        <v>208.482788338503</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U17" t="n">
-        <v>251.0785952498008</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -1907,7 +1907,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784703</v>
       </c>
       <c r="Y17" t="n">
         <v>386.2379386560536</v>
@@ -1941,7 +1941,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1999,28 +1999,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2053,19 +2053,19 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
-        <v>3.828881406193013</v>
+        <v>169.7438101404427</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -2084,7 +2084,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206822</v>
       </c>
       <c r="E20" t="n">
         <v>381.9303700722618</v>
@@ -2132,7 +2132,7 @@
         <v>132.9503648051988</v>
       </c>
       <c r="T20" t="n">
-        <v>208.4827883385019</v>
+        <v>208.482788338502</v>
       </c>
       <c r="U20" t="n">
         <v>251.078595249801</v>
@@ -2178,7 +2178,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2236,19 +2236,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>162.3141940554264</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>105.6571329437499</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -2284,25 +2284,25 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -2333,7 +2333,7 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H23" t="n">
-        <v>305.2872491113192</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
         <v>81.77913505274074</v>
@@ -2473,25 +2473,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2527,19 +2527,19 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>66.14085215535448</v>
+        <v>118.4898845065123</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -2552,28 +2552,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634805</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>365.2728917710075</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
-        <v>354.6830416206829</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>381.9303700722617</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>411.9645167896914</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H26" t="n">
-        <v>305.2872491113176</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274068</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,16 +2603,16 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648052002</v>
       </c>
       <c r="T26" t="n">
-        <v>208.4827883385018</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U26" t="n">
-        <v>251.0785952498017</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701348</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
         <v>349.240968717413</v>
@@ -2621,7 +2621,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>386.2379386560535</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="27">
@@ -2722,7 +2722,7 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -2764,10 +2764,10 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>118.4898845065123</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2373523985773</v>
+        <v>256.3432811758641</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2779,7 +2779,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2792,13 +2792,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
-        <v>365.2728917710084</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
-        <v>381.9303700722617</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
         <v>406.8760457417114</v>
@@ -2858,7 +2858,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
-        <v>386.2379386560536</v>
+        <v>386.237938656055</v>
       </c>
     </row>
     <row r="30">
@@ -2998,13 +2998,13 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>115.526976800218</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T31" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2373523985773</v>
+        <v>203.8435192151921</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -3035,7 +3035,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
-        <v>381.9303700722634</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
         <v>406.8760457417114</v>
@@ -3044,7 +3044,7 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H32" t="n">
-        <v>305.2872491113177</v>
+        <v>305.2872491113192</v>
       </c>
       <c r="I32" t="n">
         <v>81.77913505274074</v>
@@ -3187,7 +3187,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>123.3771255379766</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -3199,7 +3199,7 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3238,16 +3238,16 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>224.8952567231534</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
@@ -3272,7 +3272,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
-        <v>381.9303700722634</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
         <v>406.8760457417114</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051995</v>
       </c>
       <c r="T35" t="n">
         <v>208.4827883385019</v>
@@ -3421,19 +3421,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>166.4935684633776</v>
@@ -3442,7 +3442,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3478,13 +3478,13 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>191.5936487911405</v>
+        <v>177.7034426439812</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
@@ -3515,13 +3515,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>411.9645167896915</v>
+        <v>411.964516789693</v>
       </c>
       <c r="H38" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I38" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274071</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3600,7 +3600,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014441</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3658,7 +3658,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>3.347695664763246</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -3715,13 +3715,13 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>183.4653217847143</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
@@ -3737,7 +3737,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634821</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
         <v>365.2728917710076</v>
@@ -3794,7 +3794,7 @@
         <v>208.4827883385019</v>
       </c>
       <c r="U41" t="n">
-        <v>251.078595249801</v>
+        <v>251.0785952498026</v>
       </c>
       <c r="V41" t="n">
         <v>327.7522584701349</v>
@@ -3895,13 +3895,13 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>57.64843562452447</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -3943,16 +3943,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -3964,7 +3964,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>5.562624396425339</v>
       </c>
     </row>
     <row r="44">
@@ -3977,7 +3977,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
-        <v>365.2728917710094</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
         <v>354.683041620683</v>
@@ -4034,7 +4034,7 @@
         <v>251.078595249801</v>
       </c>
       <c r="V44" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701382</v>
       </c>
       <c r="W44" t="n">
         <v>349.240968717413</v>
@@ -4132,7 +4132,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
@@ -4186,7 +4186,7 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>118.4898845065126</v>
       </c>
       <c r="U46" t="n">
         <v>286.2373523985773</v>
@@ -4195,7 +4195,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>225.1809026611662</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
@@ -4304,37 +4304,37 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1571.689018870909</v>
+        <v>1139.146815977588</v>
       </c>
       <c r="C2" t="n">
-        <v>1202.726501930497</v>
+        <v>770.1842990371763</v>
       </c>
       <c r="D2" t="n">
-        <v>1202.726501930497</v>
+        <v>411.9186004304258</v>
       </c>
       <c r="E2" t="n">
-        <v>1202.726501930497</v>
+        <v>411.9186004304258</v>
       </c>
       <c r="F2" t="n">
-        <v>791.7405971408898</v>
+        <v>404.9730996812223</v>
       </c>
       <c r="G2" t="n">
-        <v>534.603677789272</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H2" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224081</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4364,16 +4364,16 @@
         <v>2642.120401548716</v>
       </c>
       <c r="V2" t="n">
-        <v>2311.057514205145</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="W2" t="n">
-        <v>1958.288858935031</v>
+        <v>2289.351746278601</v>
       </c>
       <c r="X2" t="n">
-        <v>1958.288858935031</v>
+        <v>1915.885988017521</v>
       </c>
       <c r="Y2" t="n">
-        <v>1958.288858935031</v>
+        <v>1525.74665604171</v>
       </c>
     </row>
     <row r="3">
@@ -4383,25 +4383,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.4979752170825</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C3" t="n">
-        <v>814.0449459359555</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E3" t="n">
-        <v>505.8730812692486</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
         <v>221.4284102424003</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
@@ -4422,10 +4422,10 @@
         <v>1866.936832414847</v>
       </c>
       <c r="O3" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P3" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
@@ -4446,10 +4446,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y3" t="n">
         <v>1156.713312237151</v>
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>53.94298182036445</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="C4" t="n">
-        <v>53.94298182036445</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="D4" t="n">
-        <v>53.94298182036445</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="E4" t="n">
-        <v>53.94298182036445</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="F4" t="n">
-        <v>53.94298182036445</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="G4" t="n">
-        <v>53.94298182036445</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="H4" t="n">
-        <v>53.94298182036445</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="I4" t="n">
-        <v>53.94298182036445</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="J4" t="n">
-        <v>53.94298182036445</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="K4" t="n">
-        <v>110.2451748866326</v>
+        <v>2079.265281698421</v>
       </c>
       <c r="L4" t="n">
-        <v>237.819032447791</v>
+        <v>2206.839139259579</v>
       </c>
       <c r="M4" t="n">
-        <v>382.7169011658209</v>
+        <v>2351.737007977609</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502499</v>
+        <v>2498.624145662038</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594901</v>
+        <v>2618.281896171278</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064342</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="Q4" t="n">
-        <v>698.7120650600561</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R4" t="n">
-        <v>698.7120650600561</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S4" t="n">
-        <v>484.4236418782189</v>
+        <v>2601.553869014546</v>
       </c>
       <c r="T4" t="n">
-        <v>343.360151857325</v>
+        <v>2601.553869014546</v>
       </c>
       <c r="U4" t="n">
-        <v>343.360151857325</v>
+        <v>2312.380258669114</v>
       </c>
       <c r="V4" t="n">
-        <v>343.360151857325</v>
+        <v>2312.380258669114</v>
       </c>
       <c r="W4" t="n">
-        <v>53.94298182036445</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="X4" t="n">
-        <v>53.94298182036445</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="Y4" t="n">
-        <v>53.94298182036445</v>
+        <v>2022.963088632153</v>
       </c>
     </row>
     <row r="5">
@@ -4541,25 +4541,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1422.14692331494</v>
+        <v>1198.223260609829</v>
       </c>
       <c r="C5" t="n">
-        <v>1422.14692331494</v>
+        <v>829.2607436694175</v>
       </c>
       <c r="D5" t="n">
-        <v>1422.14692331494</v>
+        <v>470.995045062667</v>
       </c>
       <c r="E5" t="n">
-        <v>1036.358670716696</v>
+        <v>85.20679246442273</v>
       </c>
       <c r="F5" t="n">
-        <v>625.3727659270879</v>
+        <v>67.86638588177355</v>
       </c>
       <c r="G5" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H5" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
@@ -4568,10 +4568,10 @@
         <v>169.7108380533142</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4589,28 +4589,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T5" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U5" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="V5" t="n">
-        <v>2366.086203674652</v>
+        <v>2311.057514205145</v>
       </c>
       <c r="W5" t="n">
-        <v>2366.086203674652</v>
+        <v>1958.288858935031</v>
       </c>
       <c r="X5" t="n">
-        <v>1992.620445413572</v>
+        <v>1584.823100673951</v>
       </c>
       <c r="Y5" t="n">
-        <v>1602.48111343776</v>
+        <v>1584.823100673951</v>
       </c>
     </row>
     <row r="6">
@@ -4644,16 +4644,16 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>266.2060027641994</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L6" t="n">
-        <v>670.8219208598713</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M6" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N6" t="n">
         <v>1748.695370517453</v>
@@ -4699,19 +4699,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>53.94298182036445</v>
+        <v>280.0282177315061</v>
       </c>
       <c r="C7" t="n">
-        <v>53.94298182036445</v>
+        <v>280.0282177315061</v>
       </c>
       <c r="D7" t="n">
-        <v>53.94298182036445</v>
+        <v>280.0282177315061</v>
       </c>
       <c r="E7" t="n">
-        <v>53.94298182036445</v>
+        <v>280.0282177315061</v>
       </c>
       <c r="F7" t="n">
-        <v>53.94298182036445</v>
+        <v>133.1382702335957</v>
       </c>
       <c r="G7" t="n">
         <v>53.94298182036445</v>
@@ -4729,46 +4729,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M7" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T7" t="n">
-        <v>728.1289842064342</v>
+        <v>500.8207968750362</v>
       </c>
       <c r="U7" t="n">
-        <v>728.1289842064342</v>
+        <v>500.8207968750362</v>
       </c>
       <c r="V7" t="n">
-        <v>571.3497027553424</v>
+        <v>500.8207968750362</v>
       </c>
       <c r="W7" t="n">
-        <v>281.9325327183818</v>
+        <v>500.8207968750362</v>
       </c>
       <c r="X7" t="n">
-        <v>53.94298182036445</v>
+        <v>500.8207968750362</v>
       </c>
       <c r="Y7" t="n">
-        <v>53.94298182036445</v>
+        <v>280.0282177315061</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2107.607341885688</v>
+        <v>1206.080506218543</v>
       </c>
       <c r="C8" t="n">
-        <v>2107.607341885688</v>
+        <v>837.1179892781316</v>
       </c>
       <c r="D8" t="n">
-        <v>1749.341643278937</v>
+        <v>478.8522906713811</v>
       </c>
       <c r="E8" t="n">
-        <v>1363.553390680693</v>
+        <v>478.8522906713811</v>
       </c>
       <c r="F8" t="n">
-        <v>952.5674858910851</v>
+        <v>67.86638588177355</v>
       </c>
       <c r="G8" t="n">
-        <v>534.603677789272</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H8" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036443</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533143</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733126</v>
+        <v>463.961649073313</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791251</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018221</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R8" t="n">
-        <v>2642.120401548715</v>
+        <v>2666.651220872162</v>
       </c>
       <c r="S8" t="n">
-        <v>2642.120401548715</v>
+        <v>2666.651220872162</v>
       </c>
       <c r="T8" t="n">
-        <v>2642.120401548715</v>
+        <v>2666.651220872162</v>
       </c>
       <c r="U8" t="n">
-        <v>2460.375997155802</v>
+        <v>2666.651220872162</v>
       </c>
       <c r="V8" t="n">
-        <v>2460.375997155802</v>
+        <v>2335.588333528591</v>
       </c>
       <c r="W8" t="n">
-        <v>2107.607341885688</v>
+        <v>1982.819678258477</v>
       </c>
       <c r="X8" t="n">
-        <v>2107.607341885688</v>
+        <v>1982.819678258477</v>
       </c>
       <c r="Y8" t="n">
-        <v>2107.607341885688</v>
+        <v>1592.680346282665</v>
       </c>
     </row>
     <row r="9">
@@ -4878,16 +4878,16 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036443</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J9" t="n">
-        <v>129.2001442204942</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K9" t="n">
-        <v>266.2060027641996</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L9" t="n">
-        <v>670.8219208598714</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M9" t="n">
         <v>1194.968834417902</v>
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>53.94298182036443</v>
+        <v>546.4805193761947</v>
       </c>
       <c r="C10" t="n">
-        <v>53.94298182036443</v>
+        <v>377.5443364482878</v>
       </c>
       <c r="D10" t="n">
-        <v>53.94298182036443</v>
+        <v>227.4276970359521</v>
       </c>
       <c r="E10" t="n">
-        <v>53.94298182036443</v>
+        <v>79.51460345355898</v>
       </c>
       <c r="F10" t="n">
-        <v>53.94298182036443</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036443</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036443</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036443</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036443</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K10" t="n">
-        <v>110.2451748866325</v>
+        <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.8190324477909</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658208</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502498</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594899</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P10" t="n">
-        <v>728.128984206434</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.128984206434</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R10" t="n">
-        <v>728.128984206434</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S10" t="n">
-        <v>728.128984206434</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T10" t="n">
-        <v>728.128984206434</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U10" t="n">
-        <v>728.128984206434</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V10" t="n">
-        <v>728.128984206434</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="W10" t="n">
-        <v>438.7118141694734</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="X10" t="n">
-        <v>274.7355609638946</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Y10" t="n">
-        <v>53.94298182036443</v>
+        <v>728.1289842064344</v>
       </c>
     </row>
     <row r="11">
@@ -5018,7 +5018,7 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C11" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D11" t="n">
         <v>1701.093169003441</v>
@@ -5036,22 +5036,22 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J11" t="n">
         <v>365.881333182379</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514093</v>
       </c>
       <c r="L11" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M11" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N11" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O11" t="n">
         <v>3889.732883643323</v>
@@ -5063,28 +5063,28 @@
         <v>4801.62743720783</v>
       </c>
       <c r="R11" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T11" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U11" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W11" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y11" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="12">
@@ -5115,31 +5115,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I12" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J12" t="n">
-        <v>138.7081686256434</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K12" t="n">
-        <v>264.0657286834808</v>
+        <v>549.5984374701561</v>
       </c>
       <c r="L12" t="n">
-        <v>744.368461879264</v>
+        <v>796.3635653766202</v>
       </c>
       <c r="M12" t="n">
-        <v>744.368461879264</v>
+        <v>1564.731711769082</v>
       </c>
       <c r="N12" t="n">
-        <v>1548.780040143415</v>
+        <v>2169.797610509966</v>
       </c>
       <c r="O12" t="n">
-        <v>1797.533454227377</v>
+        <v>2418.551024593929</v>
       </c>
       <c r="P12" t="n">
-        <v>2317.834075963124</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="Q12" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R12" t="n">
         <v>2623.573505376138</v>
@@ -5173,28 +5173,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>355.6416303362487</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C13" t="n">
-        <v>355.6416303362487</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D13" t="n">
-        <v>355.6416303362487</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E13" t="n">
-        <v>355.6416303362487</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F13" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G13" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H13" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I13" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J13" t="n">
         <v>109.5997839241957</v>
@@ -5203,10 +5203,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M13" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N13" t="n">
         <v>1049.608084974667</v>
@@ -5224,25 +5224,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S13" t="n">
-        <v>1298.996260473455</v>
+        <v>1313.886294955175</v>
       </c>
       <c r="T13" t="n">
-        <v>1075.21084526296</v>
+        <v>1090.100879744681</v>
       </c>
       <c r="U13" t="n">
-        <v>786.0822064765186</v>
+        <v>1090.100879744681</v>
       </c>
       <c r="V13" t="n">
-        <v>531.3977182706318</v>
+        <v>835.416391538794</v>
       </c>
       <c r="W13" t="n">
-        <v>355.6416303362487</v>
+        <v>545.9992215018333</v>
       </c>
       <c r="X13" t="n">
-        <v>355.6416303362487</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="Y13" t="n">
-        <v>355.6416303362487</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="14">
@@ -5258,31 +5258,31 @@
         <v>2059.358867610192</v>
       </c>
       <c r="D14" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E14" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F14" t="n">
-        <v>904.3190116155899</v>
+        <v>904.3190116155895</v>
       </c>
       <c r="G14" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H14" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822461</v>
       </c>
       <c r="I14" t="n">
-        <v>97.21709146028584</v>
+        <v>97.2170914602857</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K14" t="n">
         <v>889.2841917514083</v>
       </c>
       <c r="L14" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M14" t="n">
         <v>2388.164701515097</v>
@@ -5294,10 +5294,10 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q14" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R14" t="n">
         <v>4860.854573014293</v>
@@ -5352,31 +5352,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I15" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J15" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K15" t="n">
-        <v>388.8958536704856</v>
+        <v>355.878836265775</v>
       </c>
       <c r="L15" t="n">
-        <v>1002.792923427374</v>
+        <v>969.7759060226638</v>
       </c>
       <c r="M15" t="n">
-        <v>1771.161069819836</v>
+        <v>1738.144052415125</v>
       </c>
       <c r="N15" t="n">
-        <v>2115.681725457454</v>
+        <v>2082.664708052743</v>
       </c>
       <c r="O15" t="n">
-        <v>2543.548934765509</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P15" t="n">
-        <v>2543.548934765509</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q15" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R15" t="n">
         <v>2623.573505376138</v>
@@ -5410,40 +5410,40 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C16" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D16" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E16" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F16" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G16" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H16" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I16" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J16" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K16" t="n">
         <v>259.7851881688072</v>
       </c>
       <c r="L16" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M16" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N16" t="n">
         <v>1049.608084974667</v>
@@ -5452,34 +5452,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P16" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q16" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R16" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S16" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T16" t="n">
-        <v>1275.130855347408</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U16" t="n">
-        <v>986.0022165609664</v>
+        <v>869.3083006011507</v>
       </c>
       <c r="V16" t="n">
-        <v>731.3177283550796</v>
+        <v>614.6238123952638</v>
       </c>
       <c r="W16" t="n">
-        <v>441.900558318119</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X16" t="n">
-        <v>441.900558318119</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="Y16" t="n">
-        <v>221.1079791745888</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="17">
@@ -5489,37 +5489,37 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C17" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D17" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E17" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F17" t="n">
-        <v>904.3190116155884</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G17" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H17" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L17" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M17" t="n">
         <v>2388.164701515097</v>
@@ -5528,37 +5528,37 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O17" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q17" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R17" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014294</v>
       </c>
       <c r="S17" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T17" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141869</v>
       </c>
       <c r="U17" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465303</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121732</v>
       </c>
       <c r="W17" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851618</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y17" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="18">
@@ -5589,25 +5589,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I18" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J18" t="n">
-        <v>263.5382936126482</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="K18" t="n">
-        <v>388.8958536704856</v>
+        <v>508.1073603047986</v>
       </c>
       <c r="L18" t="n">
-        <v>1002.792923427374</v>
+        <v>1122.004430061687</v>
       </c>
       <c r="M18" t="n">
-        <v>1771.161069819836</v>
+        <v>1749.767368598658</v>
       </c>
       <c r="N18" t="n">
-        <v>2122.782055165496</v>
+        <v>2554.178946862809</v>
       </c>
       <c r="O18" t="n">
-        <v>2371.535469249458</v>
+        <v>2554.178946862809</v>
       </c>
       <c r="P18" t="n">
         <v>2554.178946862809</v>
@@ -5647,40 +5647,40 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>824.3515998808206</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="C19" t="n">
-        <v>824.3515998808206</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="D19" t="n">
-        <v>674.2349604684848</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="E19" t="n">
-        <v>674.2349604684848</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="F19" t="n">
-        <v>527.3450129705744</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="G19" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="H19" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="I19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J19" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K19" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L19" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M19" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N19" t="n">
         <v>1049.608084974667</v>
@@ -5689,34 +5689,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P19" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q19" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R19" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S19" t="n">
         <v>1298.996260473455</v>
       </c>
       <c r="T19" t="n">
-        <v>1298.996260473455</v>
+        <v>1075.210845262961</v>
       </c>
       <c r="U19" t="n">
-        <v>1009.867621687013</v>
+        <v>786.0822064765191</v>
       </c>
       <c r="V19" t="n">
-        <v>1006.00006471106</v>
+        <v>614.6238123952638</v>
       </c>
       <c r="W19" t="n">
-        <v>1006.00006471106</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X19" t="n">
-        <v>1006.00006471106</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="Y19" t="n">
-        <v>1006.00006471106</v>
+        <v>97.21709146028589</v>
       </c>
     </row>
     <row r="20">
@@ -5729,34 +5729,34 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C20" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D20" t="n">
         <v>1701.093169003441</v>
       </c>
       <c r="E20" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F20" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G20" t="n">
         <v>488.1932370805469</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I20" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823781</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514078</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L20" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M20" t="n">
         <v>2388.164701515097</v>
@@ -5777,13 +5777,13 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S20" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T20" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U20" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V20" t="n">
         <v>3931.29497012173</v>
@@ -5817,13 +5817,13 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F21" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G21" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H21" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I21" t="n">
         <v>97.21709146028584</v>
@@ -5832,25 +5832,25 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K21" t="n">
-        <v>263.5382936126482</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L21" t="n">
-        <v>263.5382936126482</v>
+        <v>1288.32563221405</v>
       </c>
       <c r="M21" t="n">
-        <v>583.87361314235</v>
+        <v>1778.261399527878</v>
       </c>
       <c r="N21" t="n">
-        <v>1128.069692924718</v>
+        <v>2122.782055165496</v>
       </c>
       <c r="O21" t="n">
-        <v>1797.533454227377</v>
+        <v>2371.535469249458</v>
       </c>
       <c r="P21" t="n">
-        <v>2317.834075963124</v>
+        <v>2554.178946862809</v>
       </c>
       <c r="Q21" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R21" t="n">
         <v>2623.573505376138</v>
@@ -5884,16 +5884,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>563.1598612984388</v>
+        <v>203.9414681711444</v>
       </c>
       <c r="C22" t="n">
-        <v>394.223678370532</v>
+        <v>203.9414681711444</v>
       </c>
       <c r="D22" t="n">
-        <v>244.1070389581962</v>
+        <v>203.9414681711444</v>
       </c>
       <c r="E22" t="n">
-        <v>244.1070389581962</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F22" t="n">
         <v>97.21709146028584</v>
@@ -5914,10 +5914,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L22" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M22" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N22" t="n">
         <v>1049.608084974667</v>
@@ -5926,34 +5926,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P22" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q22" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R22" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S22" t="n">
-        <v>1498.916270557902</v>
+        <v>1187.921157035281</v>
       </c>
       <c r="T22" t="n">
-        <v>1498.916270557902</v>
+        <v>964.1357418247865</v>
       </c>
       <c r="U22" t="n">
-        <v>1209.787631771461</v>
+        <v>675.0071030383447</v>
       </c>
       <c r="V22" t="n">
-        <v>955.1031435655738</v>
+        <v>675.0071030383447</v>
       </c>
       <c r="W22" t="n">
-        <v>955.1031435655738</v>
+        <v>385.5899330013841</v>
       </c>
       <c r="X22" t="n">
-        <v>727.1135926675564</v>
+        <v>385.5899330013841</v>
       </c>
       <c r="Y22" t="n">
-        <v>727.1135926675564</v>
+        <v>385.5899330013841</v>
       </c>
     </row>
     <row r="23">
@@ -5963,10 +5963,10 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2428.321384550604</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.358867610193</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D23" t="n">
         <v>1701.093169003442</v>
@@ -5975,22 +5975,22 @@
         <v>1315.304916405198</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155904</v>
+        <v>904.3190116155899</v>
       </c>
       <c r="G23" t="n">
-        <v>488.1932370805485</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822466</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J23" t="n">
         <v>365.8813331823787</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L23" t="n">
         <v>1590.888347795207</v>
@@ -6008,31 +6008,31 @@
         <v>4454.632848899128</v>
       </c>
       <c r="Q23" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R23" t="n">
-        <v>4860.854573014294</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S23" t="n">
         <v>4726.561275231265</v>
       </c>
       <c r="T23" t="n">
-        <v>4515.972600141869</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.357857465303</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.294970121732</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851618</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590538</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y23" t="n">
-        <v>2814.921224614726</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="24">
@@ -6054,40 +6054,40 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F24" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G24" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H24" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I24" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J24" t="n">
-        <v>263.5382936126483</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K24" t="n">
-        <v>263.5382936126483</v>
+        <v>524.8026352651287</v>
       </c>
       <c r="L24" t="n">
-        <v>510.3034215191124</v>
+        <v>1138.699705022017</v>
       </c>
       <c r="M24" t="n">
-        <v>830.6387410488142</v>
+        <v>1138.699705022017</v>
       </c>
       <c r="N24" t="n">
-        <v>1635.050319312965</v>
+        <v>1138.699705022017</v>
       </c>
       <c r="O24" t="n">
-        <v>2092.642871543091</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P24" t="n">
-        <v>2612.943493278838</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q24" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R24" t="n">
         <v>2623.573505376138</v>
@@ -6121,34 +6121,34 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1029.666285013068</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C25" t="n">
-        <v>860.7301020851612</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D25" t="n">
-        <v>710.6134626728254</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E25" t="n">
-        <v>562.7003690904323</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F25" t="n">
-        <v>415.8104215925219</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G25" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H25" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I25" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J25" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K25" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L25" t="n">
         <v>507.4972331799365</v>
@@ -6175,22 +6175,22 @@
         <v>1498.916270557903</v>
       </c>
       <c r="T25" t="n">
-        <v>1432.107328986838</v>
+        <v>1379.229518531123</v>
       </c>
       <c r="U25" t="n">
-        <v>1432.107328986838</v>
+        <v>1090.100879744681</v>
       </c>
       <c r="V25" t="n">
-        <v>1432.107328986838</v>
+        <v>835.416391538794</v>
       </c>
       <c r="W25" t="n">
-        <v>1432.107328986838</v>
+        <v>545.9992215018333</v>
       </c>
       <c r="X25" t="n">
-        <v>1432.107328986838</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="Y25" t="n">
-        <v>1211.314749843308</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="26">
@@ -6200,13 +6200,13 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C26" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D26" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E26" t="n">
         <v>1315.304916405196</v>
@@ -6215,13 +6215,13 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G26" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H26" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J26" t="n">
         <v>365.8813331823785</v>
@@ -6236,22 +6236,22 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O26" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R26" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014294</v>
       </c>
       <c r="S26" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T26" t="n">
         <v>4515.972600141868</v>
@@ -6260,16 +6260,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W26" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y26" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="27">
@@ -6300,28 +6300,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I27" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J27" t="n">
-        <v>263.5382936126483</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K27" t="n">
-        <v>263.5382936126483</v>
+        <v>287.7778528277034</v>
       </c>
       <c r="L27" t="n">
-        <v>683.4165685308242</v>
+        <v>534.5429807341676</v>
       </c>
       <c r="M27" t="n">
-        <v>1003.751888060526</v>
+        <v>1302.911127126629</v>
       </c>
       <c r="N27" t="n">
-        <v>1808.163466324677</v>
+        <v>2107.32270539078</v>
       </c>
       <c r="O27" t="n">
-        <v>1808.163466324677</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P27" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q27" t="n">
         <v>2623.573505376138</v>
@@ -6358,34 +6358,34 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>97.21709146028587</v>
+        <v>244.1070389581963</v>
       </c>
       <c r="C28" t="n">
-        <v>97.21709146028587</v>
+        <v>244.1070389581963</v>
       </c>
       <c r="D28" t="n">
-        <v>97.21709146028587</v>
+        <v>244.1070389581963</v>
       </c>
       <c r="E28" t="n">
-        <v>97.21709146028587</v>
+        <v>244.1070389581963</v>
       </c>
       <c r="F28" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="G28" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="H28" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="I28" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J28" t="n">
         <v>109.5997839241958</v>
       </c>
       <c r="K28" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L28" t="n">
         <v>507.4972331799365</v>
@@ -6412,22 +6412,22 @@
         <v>1498.916270557903</v>
       </c>
       <c r="T28" t="n">
-        <v>1379.229518531123</v>
+        <v>1275.130855347409</v>
       </c>
       <c r="U28" t="n">
-        <v>1090.100879744681</v>
+        <v>1016.198248099061</v>
       </c>
       <c r="V28" t="n">
-        <v>835.416391538794</v>
+        <v>761.5137598931742</v>
       </c>
       <c r="W28" t="n">
-        <v>545.9992215018333</v>
+        <v>472.0965898562136</v>
       </c>
       <c r="X28" t="n">
-        <v>318.0096706038159</v>
+        <v>244.1070389581963</v>
       </c>
       <c r="Y28" t="n">
-        <v>97.21709146028587</v>
+        <v>244.1070389581963</v>
       </c>
     </row>
     <row r="29">
@@ -6443,7 +6443,7 @@
         <v>2059.358867610191</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E29" t="n">
         <v>1315.304916405196</v>
@@ -6458,13 +6458,13 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J29" t="n">
         <v>365.8813331823787</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L29" t="n">
         <v>1590.888347795207</v>
@@ -6482,28 +6482,28 @@
         <v>4454.632848899128</v>
       </c>
       <c r="Q29" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R29" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014294</v>
       </c>
       <c r="S29" t="n">
         <v>4726.561275231265</v>
       </c>
       <c r="T29" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141869</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465303</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121732</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851618</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590538</v>
       </c>
       <c r="Y29" t="n">
         <v>2814.921224614725</v>
@@ -6537,31 +6537,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I30" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J30" t="n">
         <v>263.5382936126483</v>
       </c>
       <c r="K30" t="n">
-        <v>388.8958536704857</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L30" t="n">
-        <v>618.8589595388348</v>
+        <v>1288.32563221405</v>
       </c>
       <c r="M30" t="n">
-        <v>1307.740464804045</v>
+        <v>1819.161927111987</v>
       </c>
       <c r="N30" t="n">
-        <v>2112.152043068196</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="O30" t="n">
-        <v>2360.905457152158</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="P30" t="n">
-        <v>2543.548934765509</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="Q30" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R30" t="n">
         <v>2623.573505376138</v>
@@ -6595,34 +6595,34 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="C31" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="D31" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="E31" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="F31" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="G31" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="H31" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="I31" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J31" t="n">
         <v>109.5997839241958</v>
       </c>
       <c r="K31" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L31" t="n">
         <v>507.4972331799365</v>
@@ -6646,10 +6646,10 @@
         <v>1498.916270557903</v>
       </c>
       <c r="S31" t="n">
-        <v>1382.222354598087</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T31" t="n">
-        <v>1158.436939387592</v>
+        <v>1075.210845262961</v>
       </c>
       <c r="U31" t="n">
         <v>869.3083006011507</v>
@@ -6661,10 +6661,10 @@
         <v>325.2066423583032</v>
       </c>
       <c r="X31" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="Y31" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
     </row>
     <row r="32">
@@ -6683,13 +6683,13 @@
         <v>1701.093169003442</v>
       </c>
       <c r="E32" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F32" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155904</v>
       </c>
       <c r="G32" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805485</v>
       </c>
       <c r="H32" t="n">
         <v>179.8222783822462</v>
@@ -6698,7 +6698,7 @@
         <v>97.21709146028589</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823794</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K32" t="n">
         <v>889.2841917514088</v>
@@ -6707,10 +6707,10 @@
         <v>1590.888347795207</v>
       </c>
       <c r="M32" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O32" t="n">
         <v>3889.732883643324</v>
@@ -6786,13 +6786,13 @@
         <v>618.8589595388348</v>
       </c>
       <c r="M33" t="n">
-        <v>939.1942790685366</v>
+        <v>1387.227105931296</v>
       </c>
       <c r="N33" t="n">
-        <v>1433.809122337731</v>
+        <v>2191.638684195447</v>
       </c>
       <c r="O33" t="n">
-        <v>2103.272883640391</v>
+        <v>2440.930027762787</v>
       </c>
       <c r="P33" t="n">
         <v>2623.573505376138</v>
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>390.0157722697346</v>
+        <v>3459.155393916677</v>
       </c>
       <c r="C34" t="n">
-        <v>265.3924131404653</v>
+        <v>3459.155393916677</v>
       </c>
       <c r="D34" t="n">
-        <v>265.3924131404653</v>
+        <v>3459.155393916677</v>
       </c>
       <c r="E34" t="n">
-        <v>265.3924131404653</v>
+        <v>3459.155393916677</v>
       </c>
       <c r="F34" t="n">
-        <v>265.3924131404653</v>
+        <v>3459.155393916677</v>
       </c>
       <c r="G34" t="n">
-        <v>97.21709146028589</v>
+        <v>3459.155393916677</v>
       </c>
       <c r="H34" t="n">
-        <v>97.21709146028589</v>
+        <v>3459.155393916677</v>
       </c>
       <c r="I34" t="n">
-        <v>97.21709146028589</v>
+        <v>3459.155393916677</v>
       </c>
       <c r="J34" t="n">
-        <v>109.5997839241958</v>
+        <v>3471.538086380586</v>
       </c>
       <c r="K34" t="n">
-        <v>259.7851881688073</v>
+        <v>3621.723490625198</v>
       </c>
       <c r="L34" t="n">
-        <v>507.4972331799365</v>
+        <v>3869.435535636327</v>
       </c>
       <c r="M34" t="n">
-        <v>779.0639759471194</v>
+        <v>4141.00227840351</v>
       </c>
       <c r="N34" t="n">
-        <v>1049.608084974667</v>
+        <v>4411.546387431058</v>
       </c>
       <c r="O34" t="n">
-        <v>1283.483062980064</v>
+        <v>4645.421365436455</v>
       </c>
       <c r="P34" t="n">
-        <v>1460.082827585747</v>
+        <v>4822.021130042138</v>
       </c>
       <c r="Q34" t="n">
-        <v>1498.916270557903</v>
+        <v>4860.854573014294</v>
       </c>
       <c r="R34" t="n">
-        <v>1498.916270557903</v>
+        <v>4860.854573014294</v>
       </c>
       <c r="S34" t="n">
-        <v>1498.916270557903</v>
+        <v>4860.854573014294</v>
       </c>
       <c r="T34" t="n">
-        <v>1275.130855347409</v>
+        <v>4860.854573014294</v>
       </c>
       <c r="U34" t="n">
-        <v>1275.130855347409</v>
+        <v>4633.687647031311</v>
       </c>
       <c r="V34" t="n">
-        <v>1020.446367141522</v>
+        <v>4379.003158825424</v>
       </c>
       <c r="W34" t="n">
-        <v>1020.446367141522</v>
+        <v>4089.585988788464</v>
       </c>
       <c r="X34" t="n">
-        <v>792.4568162435045</v>
+        <v>3861.596437890446</v>
       </c>
       <c r="Y34" t="n">
-        <v>571.6642370999743</v>
+        <v>3640.803858746916</v>
       </c>
     </row>
     <row r="35">
@@ -6911,34 +6911,34 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2428.321384550604</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C35" t="n">
-        <v>2059.358867610193</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D35" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E35" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F35" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G35" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H35" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823789</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514086</v>
       </c>
       <c r="L35" t="n">
         <v>1590.888347795207</v>
@@ -6956,31 +6956,31 @@
         <v>4454.632848899128</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R35" t="n">
-        <v>4860.854573014294</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S35" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T35" t="n">
-        <v>4515.972600141869</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.357857465303</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.294970121732</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851618</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590538</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y35" t="n">
-        <v>2814.921224614726</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="36">
@@ -7011,28 +7011,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I36" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J36" t="n">
         <v>263.5382936126483</v>
       </c>
       <c r="K36" t="n">
-        <v>388.8958536704857</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="L36" t="n">
-        <v>854.588748493614</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="M36" t="n">
-        <v>854.588748493614</v>
+        <v>1031.90644000511</v>
       </c>
       <c r="N36" t="n">
-        <v>1659.000326757765</v>
+        <v>1836.318018269261</v>
       </c>
       <c r="O36" t="n">
-        <v>2328.464088060424</v>
+        <v>1836.318018269261</v>
       </c>
       <c r="P36" t="n">
-        <v>2328.464088060424</v>
+        <v>2356.618640005008</v>
       </c>
       <c r="Q36" t="n">
         <v>2623.573505376138</v>
@@ -7069,34 +7069,34 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>674.9567375132466</v>
+        <v>581.2185435662825</v>
       </c>
       <c r="C37" t="n">
-        <v>674.9567375132466</v>
+        <v>412.2823606383756</v>
       </c>
       <c r="D37" t="n">
-        <v>524.8400981009108</v>
+        <v>412.2823606383756</v>
       </c>
       <c r="E37" t="n">
-        <v>376.9270045185178</v>
+        <v>412.2823606383756</v>
       </c>
       <c r="F37" t="n">
-        <v>376.9270045185178</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G37" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H37" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I37" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J37" t="n">
         <v>109.5997839241958</v>
       </c>
       <c r="K37" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L37" t="n">
         <v>507.4972331799365</v>
@@ -7126,19 +7126,19 @@
         <v>1498.916270557903</v>
       </c>
       <c r="U37" t="n">
-        <v>1305.387332385034</v>
+        <v>1319.417843644791</v>
       </c>
       <c r="V37" t="n">
-        <v>1305.387332385034</v>
+        <v>1319.417843644791</v>
       </c>
       <c r="W37" t="n">
-        <v>1305.387332385034</v>
+        <v>1030.00067360783</v>
       </c>
       <c r="X37" t="n">
-        <v>1077.397781487016</v>
+        <v>802.0111227098126</v>
       </c>
       <c r="Y37" t="n">
-        <v>856.6052023434863</v>
+        <v>581.2185435662825</v>
       </c>
     </row>
     <row r="38">
@@ -7148,10 +7148,10 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550604</v>
       </c>
       <c r="C38" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610193</v>
       </c>
       <c r="D38" t="n">
         <v>1701.093169003442</v>
@@ -7160,64 +7160,64 @@
         <v>1315.304916405198</v>
       </c>
       <c r="F38" t="n">
-        <v>904.3190116155899</v>
+        <v>904.3190116155904</v>
       </c>
       <c r="G38" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H38" t="n">
-        <v>179.8222783822459</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I38" t="n">
         <v>97.21709146028589</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823791</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514095</v>
+        <v>889.2841917514089</v>
       </c>
       <c r="L38" t="n">
         <v>1590.888347795207</v>
       </c>
       <c r="M38" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O38" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q38" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R38" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014294</v>
       </c>
       <c r="S38" t="n">
         <v>4726.561275231265</v>
       </c>
       <c r="T38" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141869</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465303</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121732</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851618</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590538</v>
       </c>
       <c r="Y38" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614726</v>
       </c>
     </row>
     <row r="39">
@@ -7251,28 +7251,28 @@
         <v>97.21709146028589</v>
       </c>
       <c r="J39" t="n">
-        <v>263.5382936126483</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="K39" t="n">
-        <v>388.8958536704857</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="L39" t="n">
-        <v>618.8589595388348</v>
+        <v>327.180197328635</v>
       </c>
       <c r="M39" t="n">
-        <v>939.1942790685366</v>
+        <v>647.5155168583368</v>
       </c>
       <c r="N39" t="n">
-        <v>1743.605857332687</v>
+        <v>1451.927095122488</v>
       </c>
       <c r="O39" t="n">
-        <v>2413.069618635347</v>
+        <v>2121.390856425147</v>
       </c>
       <c r="P39" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="Q39" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R39" t="n">
         <v>2623.573505376138</v>
@@ -7336,7 +7336,7 @@
         <v>259.7851881688073</v>
       </c>
       <c r="L40" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799366</v>
       </c>
       <c r="M40" t="n">
         <v>779.0639759471194</v>
@@ -7354,28 +7354,28 @@
         <v>1498.916270557903</v>
       </c>
       <c r="R40" t="n">
-        <v>1498.916270557903</v>
+        <v>1495.534759785415</v>
       </c>
       <c r="S40" t="n">
-        <v>1498.916270557903</v>
+        <v>1495.534759785415</v>
       </c>
       <c r="T40" t="n">
-        <v>1275.130855347409</v>
+        <v>1271.749344574921</v>
       </c>
       <c r="U40" t="n">
-        <v>986.0022165609669</v>
+        <v>1271.749344574921</v>
       </c>
       <c r="V40" t="n">
-        <v>731.31772835508</v>
+        <v>1017.064856369034</v>
       </c>
       <c r="W40" t="n">
-        <v>545.9992215018333</v>
+        <v>727.647686332073</v>
       </c>
       <c r="X40" t="n">
-        <v>318.009670603816</v>
+        <v>499.6581354340557</v>
       </c>
       <c r="Y40" t="n">
-        <v>97.21709146028589</v>
+        <v>278.8655562905256</v>
       </c>
     </row>
     <row r="41">
@@ -7409,7 +7409,7 @@
         <v>97.21709146028589</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823788</v>
+        <v>365.8813331823789</v>
       </c>
       <c r="K41" t="n">
         <v>889.2841917514086</v>
@@ -7442,19 +7442,19 @@
         <v>4515.972600141869</v>
       </c>
       <c r="U41" t="n">
-        <v>4262.357857465303</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.294970121732</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W41" t="n">
-        <v>3578.526314851618</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590538</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y41" t="n">
-        <v>2814.921224614726</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="42">
@@ -7488,28 +7488,28 @@
         <v>97.21709146028589</v>
       </c>
       <c r="J42" t="n">
-        <v>263.5382936126483</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="K42" t="n">
-        <v>263.5382936126483</v>
+        <v>508.1073603047986</v>
       </c>
       <c r="L42" t="n">
-        <v>263.5382936126483</v>
+        <v>508.1073603047986</v>
       </c>
       <c r="M42" t="n">
-        <v>843.958736396314</v>
+        <v>1003.751888060526</v>
       </c>
       <c r="N42" t="n">
-        <v>1648.370314660465</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="O42" t="n">
-        <v>2317.834075963124</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P42" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q42" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R42" t="n">
         <v>2623.573505376138</v>
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>324.384017443268</v>
+        <v>3459.155393916677</v>
       </c>
       <c r="C43" t="n">
-        <v>155.4478345153611</v>
+        <v>3459.155393916677</v>
       </c>
       <c r="D43" t="n">
-        <v>97.21709146028589</v>
+        <v>3459.155393916677</v>
       </c>
       <c r="E43" t="n">
-        <v>97.21709146028589</v>
+        <v>3459.155393916677</v>
       </c>
       <c r="F43" t="n">
-        <v>97.21709146028589</v>
+        <v>3459.155393916677</v>
       </c>
       <c r="G43" t="n">
-        <v>97.21709146028589</v>
+        <v>3459.155393916677</v>
       </c>
       <c r="H43" t="n">
-        <v>97.21709146028589</v>
+        <v>3459.155393916677</v>
       </c>
       <c r="I43" t="n">
-        <v>97.21709146028589</v>
+        <v>3459.155393916677</v>
       </c>
       <c r="J43" t="n">
-        <v>109.5997839241958</v>
+        <v>3471.538086380586</v>
       </c>
       <c r="K43" t="n">
-        <v>259.7851881688073</v>
+        <v>3621.723490625198</v>
       </c>
       <c r="L43" t="n">
-        <v>507.4972331799366</v>
+        <v>3869.435535636327</v>
       </c>
       <c r="M43" t="n">
-        <v>779.0639759471194</v>
+        <v>4141.00227840351</v>
       </c>
       <c r="N43" t="n">
-        <v>1049.608084974667</v>
+        <v>4411.546387431058</v>
       </c>
       <c r="O43" t="n">
-        <v>1283.483062980064</v>
+        <v>4645.421365436455</v>
       </c>
       <c r="P43" t="n">
-        <v>1460.082827585747</v>
+        <v>4822.021130042138</v>
       </c>
       <c r="Q43" t="n">
-        <v>1498.916270557903</v>
+        <v>4860.854573014294</v>
       </c>
       <c r="R43" t="n">
-        <v>1498.916270557903</v>
+        <v>4749.779469576119</v>
       </c>
       <c r="S43" t="n">
-        <v>1498.916270557903</v>
+        <v>4749.779469576119</v>
       </c>
       <c r="T43" t="n">
-        <v>1498.916270557903</v>
+        <v>4525.994054365625</v>
       </c>
       <c r="U43" t="n">
-        <v>1498.916270557903</v>
+        <v>4236.865415579183</v>
       </c>
       <c r="V43" t="n">
-        <v>1244.231782352016</v>
+        <v>3982.180927373296</v>
       </c>
       <c r="W43" t="n">
-        <v>954.8146123150552</v>
+        <v>3692.763757336335</v>
       </c>
       <c r="X43" t="n">
-        <v>726.8250614170379</v>
+        <v>3464.774206438318</v>
       </c>
       <c r="Y43" t="n">
-        <v>506.0324822735078</v>
+        <v>3459.155393916677</v>
       </c>
     </row>
     <row r="44">
@@ -7622,7 +7622,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2428.321384550604</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C44" t="n">
         <v>2059.358867610191</v>
@@ -7640,58 +7640,58 @@
         <v>488.193237080547</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028593</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823789</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514093</v>
+        <v>889.2841917514086</v>
       </c>
       <c r="L44" t="n">
-        <v>1590.888347795208</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M44" t="n">
-        <v>2388.164701515099</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.70982261913</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O44" t="n">
-        <v>3889.732883643326</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899129</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q44" t="n">
         <v>4801.627437207831</v>
       </c>
       <c r="R44" t="n">
-        <v>4860.854573014294</v>
+        <v>4860.854573014296</v>
       </c>
       <c r="S44" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231267</v>
       </c>
       <c r="T44" t="n">
-        <v>4515.972600141869</v>
+        <v>4515.972600141871</v>
       </c>
       <c r="U44" t="n">
-        <v>4262.357857465303</v>
+        <v>4262.357857465305</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.294970121732</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W44" t="n">
-        <v>3578.526314851618</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590538</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y44" t="n">
-        <v>2814.921224614726</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="45">
@@ -7701,49 +7701,49 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>987.4312590525782</v>
+        <v>987.4312590525784</v>
       </c>
       <c r="C45" t="n">
-        <v>812.9782297714512</v>
+        <v>812.9782297714514</v>
       </c>
       <c r="D45" t="n">
-        <v>664.0438201101999</v>
+        <v>664.0438201102002</v>
       </c>
       <c r="E45" t="n">
-        <v>504.8063651047445</v>
+        <v>504.8063651047446</v>
       </c>
       <c r="F45" t="n">
         <v>358.2718071316295</v>
       </c>
       <c r="G45" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358149</v>
       </c>
       <c r="H45" t="n">
         <v>125.4002551675025</v>
       </c>
       <c r="I45" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028593</v>
       </c>
       <c r="J45" t="n">
-        <v>138.7081686256436</v>
+        <v>97.21709146028593</v>
       </c>
       <c r="K45" t="n">
-        <v>287.7778528277036</v>
+        <v>508.1073603047987</v>
       </c>
       <c r="L45" t="n">
-        <v>534.5429807341677</v>
+        <v>1122.004430061688</v>
       </c>
       <c r="M45" t="n">
-        <v>1247.466478653857</v>
+        <v>1890.372576454149</v>
       </c>
       <c r="N45" t="n">
-        <v>2051.878056918008</v>
+        <v>1890.372576454149</v>
       </c>
       <c r="O45" t="n">
-        <v>2331.418122136705</v>
+        <v>2559.836337756808</v>
       </c>
       <c r="P45" t="n">
-        <v>2536.440602918915</v>
+        <v>2559.836337756808</v>
       </c>
       <c r="Q45" t="n">
         <v>2623.573505376138</v>
@@ -7761,7 +7761,7 @@
         <v>2060.647860003077</v>
       </c>
       <c r="V45" t="n">
-        <v>1825.495751771334</v>
+        <v>1825.495751771335</v>
       </c>
       <c r="W45" t="n">
         <v>1571.258395043133</v>
@@ -7780,28 +7780,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028593</v>
       </c>
       <c r="C46" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028593</v>
       </c>
       <c r="D46" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028593</v>
       </c>
       <c r="E46" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028593</v>
       </c>
       <c r="F46" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028593</v>
       </c>
       <c r="G46" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028593</v>
       </c>
       <c r="H46" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028593</v>
       </c>
       <c r="I46" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028593</v>
       </c>
       <c r="J46" t="n">
         <v>109.5997839241958</v>
@@ -7813,7 +7813,7 @@
         <v>507.4972331799366</v>
       </c>
       <c r="M46" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471195</v>
       </c>
       <c r="N46" t="n">
         <v>1049.608084974667</v>
@@ -7834,22 +7834,22 @@
         <v>1498.916270557903</v>
       </c>
       <c r="T46" t="n">
-        <v>1498.916270557903</v>
+        <v>1379.229518531123</v>
       </c>
       <c r="U46" t="n">
-        <v>1209.787631771461</v>
+        <v>1090.100879744681</v>
       </c>
       <c r="V46" t="n">
-        <v>955.1031435655742</v>
+        <v>835.416391538794</v>
       </c>
       <c r="W46" t="n">
-        <v>727.647686332073</v>
+        <v>545.9992215018334</v>
       </c>
       <c r="X46" t="n">
-        <v>499.6581354340557</v>
+        <v>318.0096706038161</v>
       </c>
       <c r="Y46" t="n">
-        <v>278.8655562905256</v>
+        <v>97.21709146028593</v>
       </c>
     </row>
   </sheetData>
@@ -8076,7 +8076,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>90.64146763747121</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8292,10 +8292,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>221.0467526719084</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
         <v>370.8403453034592</v>
@@ -8304,7 +8304,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N6" t="n">
-        <v>479.3423743435536</v>
+        <v>359.906554245176</v>
       </c>
       <c r="O6" t="n">
         <v>393.8623192767295</v>
@@ -8529,10 +8529,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K9" t="n">
-        <v>145.0294169142018</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
         <v>370.8403453034592</v>
@@ -8772,10 +8772,10 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>142.1340339220183</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N12" t="n">
         <v>479.3423743435536</v>
@@ -8784,10 +8784,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P12" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -9003,10 +9003,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>264.4652370125786</v>
+        <v>68.7888721596683</v>
       </c>
       <c r="L15" t="n">
         <v>370.8403453034592</v>
@@ -9024,10 +9024,10 @@
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9240,7 +9240,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
         <v>264.4652370125786</v>
@@ -9255,10 +9255,10 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O18" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>210.0772877358491</v>
@@ -9480,10 +9480,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M21" t="n">
         <v>465.7050637499999</v>
@@ -9717,28 +9717,28 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M24" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>179.8509969812409</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P24" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9951,13 +9951,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>174.8617646582947</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
         <v>465.7050637499999</v>
@@ -9969,10 +9969,10 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>45.52166981132082</v>
@@ -10203,16 +10203,16 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O30" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10449,7 +10449,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10665,28 +10665,28 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>142.1340339220183</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N36" t="n">
         <v>479.3423743435536</v>
       </c>
       <c r="O36" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10902,7 +10902,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L39" t="n">
         <v>370.8403453034592</v>
@@ -10920,7 +10920,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -11136,25 +11136,25 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>275.8588984885897</v>
+        <v>190.2266610866319</v>
       </c>
       <c r="N42" t="n">
         <v>479.3423743435536</v>
       </c>
       <c r="O42" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
         <v>210.0772877358491</v>
@@ -11318,7 +11318,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R44" t="n">
-        <v>65.71641987298243</v>
+        <v>65.7164198729847</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11376,28 +11376,28 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M45" t="n">
         <v>465.7050637499999</v>
       </c>
       <c r="N45" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>204.3627514792839</v>
       </c>
       <c r="R45" t="n">
-        <v>34.78428385445214</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23425,7 +23425,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>166.4935684633776</v>
@@ -23434,7 +23434,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23464,25 +23464,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>14.74113413690324</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>112.5244712815517</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23650,7 +23650,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>57.18000134477732</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
@@ -23701,10 +23701,10 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>82.39383318338525</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23716,10 +23716,10 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -23887,28 +23887,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23941,19 +23941,19 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>248.308761917635</v>
+        <v>82.39383318338528</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -24124,19 +24124,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>17.51778612651091</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>40.77682970281926</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>166.4935684633776</v>
@@ -24172,25 +24172,25 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -24361,25 +24361,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I25" t="n">
         <v>110.419245464272</v>
@@ -24415,19 +24415,19 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
-        <v>155.4067089030348</v>
+        <v>103.0576765518769</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24610,7 +24610,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>166.4935684633776</v>
@@ -24652,10 +24652,10 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
-        <v>103.0576765518769</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>29.89407122271325</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24667,7 +24667,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -24886,13 +24886,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S31" t="n">
+        <v>0</v>
+      </c>
+      <c r="T31" t="n">
+        <v>0</v>
+      </c>
+      <c r="U31" t="n">
         <v>82.39383318338523</v>
-      </c>
-      <c r="T31" t="n">
-        <v>0</v>
-      </c>
-      <c r="U31" t="n">
-        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -25075,7 +25075,7 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>43.86969556065122</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
@@ -25087,7 +25087,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H34" t="n">
         <v>148.9138283675361</v>
@@ -25126,16 +25126,16 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2373523985773</v>
+        <v>61.34209567542396</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -25309,19 +25309,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -25330,7 +25330,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25366,13 +25366,13 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U37" t="n">
-        <v>94.64370360743686</v>
+        <v>108.5339097545962</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -25546,7 +25546,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>167.2468210986278</v>
@@ -25594,7 +25594,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>109.9643524037928</v>
+        <v>106.6166567390295</v>
       </c>
       <c r="S40" t="n">
         <v>197.9208099836032</v>
@@ -25603,13 +25603,13 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>103.0576765518767</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -25783,13 +25783,13 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>90.96703739368789</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
@@ -25831,16 +25831,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T43" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -25852,7 +25852,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>213.0220289556694</v>
       </c>
     </row>
     <row r="44">
@@ -26020,7 +26020,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
@@ -26074,7 +26074,7 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T46" t="n">
-        <v>221.5475610583892</v>
+        <v>103.0576765518767</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -26083,7 +26083,7 @@
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>61.34209567542484</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>684300.8545409907</v>
+        <v>684300.8545409908</v>
       </c>
     </row>
     <row r="8">
@@ -26311,46 +26311,46 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>718411.5486312479</v>
+      </c>
+      <c r="C2" t="n">
         <v>718411.5486312477</v>
       </c>
-      <c r="C2" t="n">
+      <c r="D2" t="n">
         <v>718411.5486312479</v>
       </c>
-      <c r="D2" t="n">
-        <v>718411.5486312482</v>
-      </c>
       <c r="E2" t="n">
+        <v>684300.85454099</v>
+      </c>
+      <c r="F2" t="n">
+        <v>684300.8545409901</v>
+      </c>
+      <c r="G2" t="n">
+        <v>684300.8545409901</v>
+      </c>
+      <c r="H2" t="n">
+        <v>684300.8545409902</v>
+      </c>
+      <c r="I2" t="n">
+        <v>684300.8545409907</v>
+      </c>
+      <c r="J2" t="n">
         <v>684300.8545409903</v>
       </c>
-      <c r="F2" t="n">
-        <v>684300.8545409907</v>
-      </c>
-      <c r="G2" t="n">
+      <c r="K2" t="n">
         <v>684300.8545409902</v>
       </c>
-      <c r="H2" t="n">
+      <c r="L2" t="n">
+        <v>684300.8545409905</v>
+      </c>
+      <c r="M2" t="n">
         <v>684300.8545409904</v>
       </c>
-      <c r="I2" t="n">
-        <v>684300.8545409901</v>
-      </c>
-      <c r="J2" t="n">
-        <v>684300.8545409902</v>
-      </c>
-      <c r="K2" t="n">
+      <c r="N2" t="n">
         <v>684300.8545409905</v>
       </c>
-      <c r="L2" t="n">
-        <v>684300.8545409907</v>
-      </c>
-      <c r="M2" t="n">
-        <v>684300.8545409901</v>
-      </c>
-      <c r="N2" t="n">
-        <v>684300.8545409907</v>
-      </c>
       <c r="O2" t="n">
-        <v>684300.8545409902</v>
+        <v>684300.8545409904</v>
       </c>
       <c r="P2" t="n">
         <v>684300.8545409903</v>
@@ -26372,7 +26372,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768964</v>
+        <v>525160.0364768961</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26384,10 +26384,10 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>1.209268702950794e-10</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.219192593</v>
+        <v>176423.2191925931</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26396,7 +26396,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.0152338372</v>
+        <v>134801.0152338371</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26418,46 +26418,46 @@
         <v>139059.1391806191</v>
       </c>
       <c r="C4" t="n">
-        <v>139059.1391806191</v>
+        <v>139059.139180619</v>
       </c>
       <c r="D4" t="n">
         <v>139059.1391806191</v>
       </c>
       <c r="E4" t="n">
-        <v>787.7936905758695</v>
+        <v>787.7936905758461</v>
       </c>
       <c r="F4" t="n">
+        <v>787.7936905758696</v>
+      </c>
+      <c r="G4" t="n">
+        <v>787.7936905758102</v>
+      </c>
+      <c r="H4" t="n">
+        <v>787.7936905759034</v>
+      </c>
+      <c r="I4" t="n">
         <v>787.7936905758694</v>
       </c>
-      <c r="G4" t="n">
-        <v>787.7936905758695</v>
-      </c>
-      <c r="H4" t="n">
-        <v>787.7936905758695</v>
-      </c>
-      <c r="I4" t="n">
-        <v>787.7936905757997</v>
-      </c>
       <c r="J4" t="n">
-        <v>787.7936905759109</v>
+        <v>787.7936905758064</v>
       </c>
       <c r="K4" t="n">
-        <v>787.7936905758419</v>
+        <v>787.7936905758075</v>
       </c>
       <c r="L4" t="n">
-        <v>787.7936905757946</v>
+        <v>787.7936905757998</v>
       </c>
       <c r="M4" t="n">
-        <v>787.7936905757947</v>
+        <v>787.7936905758696</v>
       </c>
       <c r="N4" t="n">
-        <v>787.7936905758695</v>
+        <v>787.7936905757999</v>
       </c>
       <c r="O4" t="n">
-        <v>787.7936905758024</v>
+        <v>787.7936905757961</v>
       </c>
       <c r="P4" t="n">
-        <v>787.7936905757878</v>
+        <v>787.79369057572</v>
       </c>
     </row>
     <row r="5">
@@ -26473,34 +26473,34 @@
         <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340944</v>
+        <v>82859.07806340947</v>
       </c>
       <c r="E5" t="n">
         <v>91987.32594871664</v>
       </c>
       <c r="F5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871665</v>
       </c>
       <c r="G5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871667</v>
       </c>
       <c r="H5" t="n">
         <v>91987.32594871664</v>
       </c>
       <c r="I5" t="n">
+        <v>91987.32594871664</v>
+      </c>
+      <c r="J5" t="n">
         <v>91987.32594871667</v>
       </c>
-      <c r="J5" t="n">
-        <v>91987.32594871665</v>
-      </c>
       <c r="K5" t="n">
-        <v>91987.32594871665</v>
+        <v>91987.32594871667</v>
       </c>
       <c r="L5" t="n">
         <v>91987.32594871667</v>
       </c>
       <c r="M5" t="n">
-        <v>91987.32594871667</v>
+        <v>91987.32594871665</v>
       </c>
       <c r="N5" t="n">
         <v>91987.32594871667</v>
@@ -26509,7 +26509,7 @@
         <v>91987.32594871667</v>
       </c>
       <c r="P5" t="n">
-        <v>91987.32594871667</v>
+        <v>91987.32594871669</v>
       </c>
     </row>
     <row r="6">
@@ -26519,46 +26519,46 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-93474.54782732524</v>
+        <v>-93474.54782732495</v>
       </c>
       <c r="C6" t="n">
+        <v>496493.3313872193</v>
+      </c>
+      <c r="D6" t="n">
         <v>496493.3313872194</v>
       </c>
-      <c r="D6" t="n">
-        <v>496493.3313872198</v>
-      </c>
       <c r="E6" t="n">
-        <v>66365.69842480143</v>
+        <v>66365.69842480135</v>
       </c>
       <c r="F6" t="n">
+        <v>591525.7349016976</v>
+      </c>
+      <c r="G6" t="n">
+        <v>591525.7349016976</v>
+      </c>
+      <c r="H6" t="n">
+        <v>591525.7349016977</v>
+      </c>
+      <c r="I6" t="n">
         <v>591525.7349016982</v>
       </c>
-      <c r="G6" t="n">
-        <v>591525.7349016977</v>
-      </c>
-      <c r="H6" t="n">
-        <v>591525.734901698</v>
-      </c>
-      <c r="I6" t="n">
-        <v>591525.7349016976</v>
-      </c>
       <c r="J6" t="n">
-        <v>415102.5157091046</v>
+        <v>415102.5157091048</v>
       </c>
       <c r="K6" t="n">
+        <v>591525.7349016978</v>
+      </c>
+      <c r="L6" t="n">
         <v>591525.7349016981</v>
       </c>
-      <c r="L6" t="n">
-        <v>591525.7349016983</v>
-      </c>
       <c r="M6" t="n">
-        <v>456724.7196678605</v>
+        <v>456724.7196678608</v>
       </c>
       <c r="N6" t="n">
         <v>591525.7349016981</v>
       </c>
       <c r="O6" t="n">
-        <v>591525.7349016978</v>
+        <v>591525.7349016981</v>
       </c>
       <c r="P6" t="n">
         <v>591525.7349016978</v>
@@ -26692,34 +26692,34 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>3.620276492381828e-14</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>3.620276492381828e-14</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>3.620276492381828e-14</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>3.620276492381828e-14</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>3.620276492381828e-14</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>6.06329801181952e-14</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>6.06329801181952e-14</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>6.06329801181952e-14</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>6.06329801181952e-14</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>6.06329801181952e-14</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -26738,22 +26738,22 @@
         <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170864</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="E3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="F3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="G3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="H3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="I3" t="n">
         <v>830.3824054541004</v>
@@ -26771,7 +26771,7 @@
         <v>830.3824054541004</v>
       </c>
       <c r="N3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541005</v>
       </c>
       <c r="O3" t="n">
         <v>830.3824054541005</v>
@@ -26793,7 +26793,7 @@
         <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545554</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="E4" t="n">
         <v>1215.213643253573</v>
@@ -26802,25 +26802,25 @@
         <v>1215.213643253573</v>
       </c>
       <c r="G4" t="n">
-        <v>1215.213643253573</v>
+        <v>1215.213643253574</v>
       </c>
       <c r="H4" t="n">
         <v>1215.213643253573</v>
       </c>
       <c r="I4" t="n">
+        <v>1215.213643253573</v>
+      </c>
+      <c r="J4" t="n">
         <v>1215.213643253574</v>
       </c>
-      <c r="J4" t="n">
-        <v>1215.213643253573</v>
-      </c>
       <c r="K4" t="n">
-        <v>1215.213643253573</v>
+        <v>1215.213643253574</v>
       </c>
       <c r="L4" t="n">
         <v>1215.213643253574</v>
       </c>
       <c r="M4" t="n">
-        <v>1215.213643253574</v>
+        <v>1215.213643253573</v>
       </c>
       <c r="N4" t="n">
         <v>1215.213643253574</v>
@@ -26914,7 +26914,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>3.620276492381828e-14</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -26929,7 +26929,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>6.06329801181952e-14</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370138</v>
+        <v>452.6387412370136</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990177</v>
+        <v>540.9263704990176</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27030,10 +27030,10 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545561</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990177</v>
+        <v>540.9263704990174</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27151,7 +27151,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>3.620276492381828e-14</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27166,7 +27166,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>6.06329801181952e-14</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990177</v>
+        <v>540.9263704990176</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27382,22 +27382,22 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>159.2186198626933</v>
+        <v>390.1871261029029</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27436,16 +27436,16 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27555,10 +27555,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J4" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27579,19 +27579,19 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R4" t="n">
         <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>117.5062691663791</v>
       </c>
       <c r="T4" t="n">
-        <v>85.3822503373994</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -27613,28 +27613,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>204.2029934418885</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>389.7090432248888</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27661,7 +27661,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>174.4157128089715</v>
@@ -27676,13 +27676,13 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27783,10 +27783,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>167.3098022590509</v>
+        <v>88.90646672995197</v>
       </c>
       <c r="H7" t="n">
         <v>156.1708888417951</v>
@@ -27795,7 +27795,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27819,28 +27819,28 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
-        <v>96.92615468724711</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27850,28 +27850,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27898,7 +27898,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>24.2855111302114</v>
       </c>
       <c r="S8" t="n">
         <v>174.4157128089715</v>
@@ -27907,10 +27907,10 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>71.29720715930577</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -27919,7 +27919,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28008,19 +28008,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>120.1051426060687</v>
       </c>
       <c r="G10" t="n">
         <v>167.3098022590509</v>
@@ -28029,10 +28029,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853703</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28053,10 +28053,10 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.12274995491434</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
@@ -28071,13 +28071,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>63.37316471551415</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -29053,7 +29053,7 @@
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>-1.203190281650876e-12</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -29272,28 +29272,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>6.06329801181952e-14</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>6.06329801181952e-14</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>6.06329801181952e-14</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>6.06329801181952e-14</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>6.06329801181952e-14</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>6.06329801181952e-14</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>6.06329801181952e-14</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>6.06329801181952e-14</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -29323,25 +29323,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>6.06329801181952e-14</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>6.06329801181952e-14</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>6.06329801181952e-14</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>6.06329801181952e-14</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>6.06329801181952e-14</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>6.06329801181952e-14</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>6.06329801181952e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -29512,16 +29512,16 @@
         <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>-5.210692553211798e-13</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>6.06329801181952e-14</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>6.06329801181952e-14</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
         <v>0</v>
@@ -29572,10 +29572,10 @@
         <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>6.06329801181952e-14</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>6.06329801181952e-14</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
         <v>0</v>
@@ -29992,7 +29992,7 @@
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>-1.648459146963432e-12</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
         <v>0</v>
@@ -30457,7 +30457,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>-1.477928890381008e-12</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
@@ -30697,7 +30697,7 @@
         <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>-1.800799509510398e-12</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
         <v>0</v>
@@ -31039,13 +31039,13 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H2" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
@@ -31063,22 +31063,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O2" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P2" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q2" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S2" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31118,16 +31118,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I3" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31142,7 +31142,7 @@
         <v>211.31907117367</v>
       </c>
       <c r="O3" t="n">
-        <v>193.3156655923047</v>
+        <v>73.87984549392695</v>
       </c>
       <c r="P3" t="n">
         <v>155.1528646479577</v>
@@ -31151,16 +31151,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S3" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T3" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,19 +31197,19 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I4" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J4" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K4" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L4" t="n">
         <v>101.2724571246924</v>
@@ -31221,13 +31221,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P4" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R4" t="n">
         <v>30.62819939701163</v>
@@ -31236,7 +31236,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T4" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U4" t="n">
         <v>0.0371551145131561</v>
@@ -31282,19 +31282,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L5" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
@@ -31309,13 +31309,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31355,16 +31355,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I6" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31382,22 +31382,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S6" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,16 +31434,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I7" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K7" t="n">
         <v>79.14039391302239</v>
@@ -31458,16 +31458,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P7" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
@@ -31513,46 +31513,46 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554463</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J8" t="n">
-        <v>128.8865178727435</v>
+        <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081576</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L8" t="n">
-        <v>239.6413398630668</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405366</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N8" t="n">
-        <v>270.9617944338302</v>
+        <v>270.9617944338304</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119864</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954665</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q8" t="n">
-        <v>163.9882055044136</v>
+        <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633791</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S8" t="n">
-        <v>34.6043567772738</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473549</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31592,49 +31592,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141104</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188909</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I9" t="n">
-        <v>27.97441286890687</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396472</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K9" t="n">
-        <v>131.2017781649101</v>
+        <v>131.2017781649102</v>
       </c>
       <c r="L9" t="n">
-        <v>176.4169820478006</v>
+        <v>176.4169820478007</v>
       </c>
       <c r="M9" t="n">
-        <v>205.8702969983121</v>
+        <v>162.4518126576417</v>
       </c>
       <c r="N9" t="n">
-        <v>211.3190711736699</v>
+        <v>211.31907117367</v>
       </c>
       <c r="O9" t="n">
-        <v>193.3156655923046</v>
+        <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479576</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q9" t="n">
-        <v>103.7155811639064</v>
+        <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034978</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372663</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619149</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,49 +31671,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078606</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644438</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492003</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813575</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302234</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L10" t="n">
-        <v>101.2724571246923</v>
+        <v>101.2724571246924</v>
       </c>
       <c r="M10" t="n">
-        <v>106.7776065917249</v>
+        <v>106.777606591725</v>
       </c>
       <c r="N10" t="n">
-        <v>104.2386737666593</v>
+        <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175838</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383795</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678004</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701162</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S10" t="n">
-        <v>11.87105908695335</v>
+        <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197222</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U10" t="n">
-        <v>0.03715511451315608</v>
+        <v>0.0371551145131561</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31750,16 +31750,16 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I11" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K11" t="n">
         <v>424.6341946041488</v>
@@ -31768,7 +31768,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M11" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N11" t="n">
         <v>595.6470695927186</v>
@@ -31777,7 +31777,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q11" t="n">
         <v>360.4902833647496</v>
@@ -31786,7 +31786,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S11" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T11" t="n">
         <v>14.61306122562944</v>
@@ -31829,7 +31829,7 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H12" t="n">
         <v>17.25001940386726</v>
@@ -31838,19 +31838,19 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J12" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L12" t="n">
-        <v>252.8683104317516</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N12" t="n">
-        <v>464.5362854813461</v>
+        <v>263.1770132356229</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
@@ -31859,16 +31859,16 @@
         <v>341.0678223458549</v>
       </c>
       <c r="Q12" t="n">
-        <v>227.9948068710956</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
-        <v>110.8952201095118</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S12" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T12" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U12" t="n">
         <v>0.1175069441680331</v>
@@ -31929,7 +31929,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N13" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O13" t="n">
         <v>211.6522236065632</v>
@@ -31941,16 +31941,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R13" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S13" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31990,7 +31990,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H14" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I14" t="n">
         <v>128.6967545176652</v>
@@ -31999,31 +31999,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K14" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L14" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M14" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N14" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O14" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P14" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q14" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R14" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S14" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T14" t="n">
         <v>14.61306122562944</v>
@@ -32072,31 +32072,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I15" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J15" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L15" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M15" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N15" t="n">
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>180.9230254788815</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>133.9744074143302</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R15" t="n">
         <v>110.8952201095118</v>
@@ -32151,7 +32151,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I16" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J16" t="n">
         <v>105.8669502822383</v>
@@ -32163,7 +32163,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M16" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N16" t="n">
         <v>229.1447054263751</v>
@@ -32175,19 +32175,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q16" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R16" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S16" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32227,40 +32227,40 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I17" t="n">
         <v>128.6967545176652</v>
       </c>
       <c r="J17" t="n">
-        <v>283.3273112961203</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K17" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L17" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M17" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N17" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O17" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P17" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q17" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R17" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S17" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T17" t="n">
         <v>14.61306122562944</v>
@@ -32309,28 +32309,28 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I18" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J18" t="n">
-        <v>168.7478056215734</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L18" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M18" t="n">
-        <v>452.5584109724846</v>
+        <v>310.5329484921909</v>
       </c>
       <c r="N18" t="n">
-        <v>7.172050210143482</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -32388,7 +32388,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I19" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J19" t="n">
         <v>105.8669502822383</v>
@@ -32400,7 +32400,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M19" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N19" t="n">
         <v>229.1447054263751</v>
@@ -32412,19 +32412,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q19" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R19" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S19" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32464,7 +32464,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I20" t="n">
         <v>128.6967545176652</v>
@@ -32473,31 +32473,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K20" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L20" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M20" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N20" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O20" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P20" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q20" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R20" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S20" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T20" t="n">
         <v>14.61306122562944</v>
@@ -32546,34 +32546,34 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I21" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J21" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L21" t="n">
-        <v>138.5543797798742</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>171.3135836203299</v>
       </c>
       <c r="N21" t="n">
-        <v>201.6923476209593</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>424.9599466855526</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>341.0678223458549</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>227.9948068710956</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>110.8952201095118</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S21" t="n">
         <v>33.17612723677465</v>
@@ -32625,7 +32625,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I22" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J22" t="n">
         <v>105.8669502822383</v>
@@ -32637,7 +32637,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M22" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N22" t="n">
         <v>229.1447054263751</v>
@@ -32649,19 +32649,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q22" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R22" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S22" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32789,16 +32789,16 @@
         <v>168.7478056215734</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>137.2795773683264</v>
       </c>
       <c r="L24" t="n">
         <v>387.8120847358986</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813463</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O24" t="n">
         <v>424.9599466855527</v>
@@ -32807,7 +32807,7 @@
         <v>341.067822345855</v>
       </c>
       <c r="Q24" t="n">
-        <v>139.9817740860215</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R24" t="n">
         <v>110.8952201095118</v>
@@ -33026,19 +33026,19 @@
         <v>168.7478056215734</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L27" t="n">
         <v>387.8120847358986</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N27" t="n">
         <v>464.5362854813463</v>
       </c>
       <c r="O27" t="n">
-        <v>142.5962444444444</v>
+        <v>368.95525125851</v>
       </c>
       <c r="P27" t="n">
         <v>341.067822345855</v>
@@ -33263,25 +33263,25 @@
         <v>168.7478056215734</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M30" t="n">
-        <v>372.2688744803115</v>
+        <v>212.6272478467029</v>
       </c>
       <c r="N30" t="n">
         <v>464.5362854813463</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
         <v>110.8952201095118</v>
@@ -33506,22 +33506,22 @@
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N33" t="n">
-        <v>151.6102905369463</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O33" t="n">
-        <v>424.9599466855527</v>
+        <v>0.5433631145229469</v>
       </c>
       <c r="P33" t="n">
-        <v>341.067822345855</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S33" t="n">
         <v>33.17612723677465</v>
@@ -33679,7 +33679,7 @@
         <v>360.4902833647497</v>
       </c>
       <c r="R35" t="n">
-        <v>209.6945076446483</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S35" t="n">
         <v>76.06970478104651</v>
@@ -33737,28 +33737,28 @@
         <v>168.7478056215734</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
-        <v>238.1108979341204</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N36" t="n">
         <v>464.5362854813463</v>
       </c>
       <c r="O36" t="n">
-        <v>424.9599466855527</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P36" t="n">
-        <v>133.9744074143302</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q36" t="n">
-        <v>227.9948068710957</v>
+        <v>199.5558655129304</v>
       </c>
       <c r="R36" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S36" t="n">
         <v>33.17612723677465</v>
@@ -33883,7 +33883,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443618</v>
       </c>
       <c r="H38" t="n">
         <v>34.18755300444946</v>
@@ -33904,13 +33904,13 @@
         <v>586.162349956552</v>
       </c>
       <c r="N38" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927188</v>
       </c>
       <c r="O38" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540888</v>
       </c>
       <c r="P38" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946994</v>
       </c>
       <c r="Q38" t="n">
         <v>360.4902833647497</v>
@@ -33925,7 +33925,7 @@
         <v>14.61306122562944</v>
       </c>
       <c r="U38" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33971,7 +33971,7 @@
         <v>61.49530078127066</v>
       </c>
       <c r="J39" t="n">
-        <v>168.7478056215734</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -33989,19 +33989,19 @@
         <v>424.9599466855527</v>
       </c>
       <c r="P39" t="n">
-        <v>17.40444144458604</v>
+        <v>322.7668397349904</v>
       </c>
       <c r="Q39" t="n">
-        <v>139.9817740860215</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>110.8952201095118</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S39" t="n">
         <v>33.17612723677465</v>
       </c>
       <c r="T39" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361492</v>
       </c>
       <c r="U39" t="n">
         <v>0.1175069441680331</v>
@@ -34041,10 +34041,10 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H40" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I40" t="n">
         <v>45.03122946298631</v>
@@ -34053,10 +34053,10 @@
         <v>105.8669502822383</v>
       </c>
       <c r="K40" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L40" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196125</v>
       </c>
       <c r="M40" t="n">
         <v>234.725964217132</v>
@@ -34065,7 +34065,7 @@
         <v>229.1447054263751</v>
       </c>
       <c r="O40" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P40" t="n">
         <v>181.1050413469073</v>
@@ -34077,13 +34077,13 @@
         <v>67.32903897337671</v>
       </c>
       <c r="S40" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892248</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351817</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34129,7 +34129,7 @@
         <v>128.6967545176652</v>
       </c>
       <c r="J41" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961206</v>
       </c>
       <c r="K41" t="n">
         <v>424.6341946041489</v>
@@ -34153,7 +34153,7 @@
         <v>360.4902833647497</v>
       </c>
       <c r="R41" t="n">
-        <v>209.6945076446483</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S41" t="n">
         <v>76.06970478104651</v>
@@ -34208,10 +34208,10 @@
         <v>61.49530078127066</v>
       </c>
       <c r="J42" t="n">
-        <v>168.7478056215734</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L42" t="n">
         <v>138.5543797798742</v>
@@ -34223,16 +34223,16 @@
         <v>464.5362854813463</v>
       </c>
       <c r="O42" t="n">
-        <v>424.9599466855527</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P42" t="n">
-        <v>133.9744074143302</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q42" t="n">
         <v>227.9948068710957</v>
       </c>
       <c r="R42" t="n">
-        <v>110.8952201095118</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S42" t="n">
         <v>33.17612723677465</v>
@@ -34445,7 +34445,7 @@
         <v>61.49530078127066</v>
       </c>
       <c r="J45" t="n">
-        <v>168.7478056215734</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K45" t="n">
         <v>288.4168775622983</v>
@@ -34454,22 +34454,22 @@
         <v>387.8120847358986</v>
       </c>
       <c r="M45" t="n">
-        <v>396.5537155454421</v>
+        <v>452.5584109724848</v>
       </c>
       <c r="N45" t="n">
-        <v>464.5362854813463</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O45" t="n">
         <v>424.9599466855527</v>
       </c>
       <c r="P45" t="n">
-        <v>341.067822345855</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>227.9948068710957</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>110.8952201095118</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S45" t="n">
         <v>33.17612723677465</v>
@@ -34711,10 +34711,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O2" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P2" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q2" t="n">
         <v>153.9975062898689</v>
@@ -34775,7 +34775,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
@@ -34790,13 +34790,13 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O3" t="n">
-        <v>444.5817404245898</v>
+        <v>325.145920326212</v>
       </c>
       <c r="P3" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
-        <v>54.37527471535621</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34857,7 +34857,7 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L4" t="n">
         <v>128.8624823850085</v>
@@ -34872,7 +34872,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P4" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -34933,19 +34933,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K5" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O5" t="n">
         <v>406.5635087530452</v>
@@ -35012,10 +35012,10 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K6" t="n">
-        <v>214.4070918624596</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L6" t="n">
         <v>408.7029475713857</v>
@@ -35024,13 +35024,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338902</v>
+        <v>439.8839133355128</v>
       </c>
       <c r="O6" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q6" t="n">
         <v>173.8110948137341</v>
@@ -35170,28 +35170,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K8" t="n">
-        <v>297.2230414343418</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L8" t="n">
-        <v>421.53613944353</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060963</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492235</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O8" t="n">
-        <v>406.563508753045</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116796</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q8" t="n">
-        <v>153.9975062898688</v>
+        <v>153.9975062898689</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35249,28 +35249,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.01733575770686</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>138.3897561047529</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L9" t="n">
-        <v>408.7029475713856</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M9" t="n">
-        <v>529.4413268262937</v>
+        <v>486.0228424856233</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q9" t="n">
-        <v>173.811094813734</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35331,22 +35331,22 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713948</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
       </c>
       <c r="M10" t="n">
-        <v>146.3614835535655</v>
+        <v>146.3614835535656</v>
       </c>
       <c r="N10" t="n">
-        <v>148.3708461458879</v>
+        <v>148.370846145888</v>
       </c>
       <c r="O10" t="n">
         <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873144</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35410,13 +35410,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K11" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L11" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N11" t="n">
         <v>803.5809304081118</v>
@@ -35431,7 +35431,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R11" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,31 +35486,31 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>41.91017895490666</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K12" t="n">
-        <v>126.6237980382196</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L12" t="n">
-        <v>485.1542759553366</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N12" t="n">
-        <v>812.5369477415663</v>
+        <v>611.1776754958431</v>
       </c>
       <c r="O12" t="n">
         <v>251.2660748322851</v>
       </c>
       <c r="P12" t="n">
-        <v>525.5561835714618</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q12" t="n">
-        <v>298.0903205209232</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,10 +35565,10 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K13" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L13" t="n">
         <v>250.2141868799285</v>
@@ -35580,13 +35580,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O13" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P13" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35650,25 +35650,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L14" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N14" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O14" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P14" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q14" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R14" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,13 +35723,13 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490671</v>
       </c>
       <c r="K15" t="n">
-        <v>126.6237980382196</v>
+        <v>219.3643107476076</v>
       </c>
       <c r="L15" t="n">
-        <v>620.0980502594834</v>
+        <v>620.0980502594836</v>
       </c>
       <c r="M15" t="n">
         <v>776.1294408004662</v>
@@ -35738,16 +35738,16 @@
         <v>348.0006622602202</v>
       </c>
       <c r="O15" t="n">
-        <v>432.1891003111666</v>
+        <v>251.2660748322851</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>207.0934149315248</v>
       </c>
       <c r="Q15" t="n">
-        <v>70.09551364982758</v>
+        <v>88.01303278507416</v>
       </c>
       <c r="R15" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,19 +35802,19 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K16" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L16" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M16" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N16" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O16" t="n">
         <v>236.2373515206029</v>
@@ -35823,7 +35823,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35881,31 +35881,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>271.3780219415078</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K17" t="n">
         <v>528.6897561303331</v>
       </c>
       <c r="L17" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N17" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O17" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P17" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q17" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R17" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,25 +35960,25 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>168.0012142953155</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>126.6237980382196</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L18" t="n">
-        <v>620.0980502594834</v>
+        <v>620.0980502594836</v>
       </c>
       <c r="M18" t="n">
-        <v>776.1294408004662</v>
+        <v>634.1039783201725</v>
       </c>
       <c r="N18" t="n">
-        <v>355.1727124703637</v>
+        <v>812.5369477415666</v>
       </c>
       <c r="O18" t="n">
-        <v>251.2660748322851</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>70.09551364982758</v>
@@ -36039,19 +36039,19 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K19" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L19" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M19" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N19" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O19" t="n">
         <v>236.2373515206029</v>
@@ -36060,7 +36060,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36124,25 +36124,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L20" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N20" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O20" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P20" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q20" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R20" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36200,28 +36200,28 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>620.0980502594836</v>
       </c>
       <c r="M21" t="n">
-        <v>323.5710298279816</v>
+        <v>494.8846134483115</v>
       </c>
       <c r="N21" t="n">
-        <v>549.6930098811795</v>
+        <v>348.0006622602202</v>
       </c>
       <c r="O21" t="n">
-        <v>676.2260215178377</v>
+        <v>251.2660748322851</v>
       </c>
       <c r="P21" t="n">
-        <v>525.5561835714618</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q21" t="n">
-        <v>298.0903205209232</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R21" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,19 +36276,19 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K22" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L22" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M22" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N22" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O22" t="n">
         <v>236.2373515206029</v>
@@ -36297,7 +36297,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36437,28 +36437,28 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>263.903375406546</v>
       </c>
       <c r="L24" t="n">
-        <v>249.2577049560244</v>
+        <v>620.0980502594836</v>
       </c>
       <c r="M24" t="n">
-        <v>323.5710298279816</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>812.5369477415666</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>462.2146992223492</v>
+        <v>676.2260215178378</v>
       </c>
       <c r="P24" t="n">
         <v>525.5561835714619</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R24" t="n">
-        <v>10.73738595686866</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36671,28 +36671,28 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490671</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>150.5754385879393</v>
       </c>
       <c r="L27" t="n">
-        <v>424.1194696143191</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M27" t="n">
-        <v>323.5710298279816</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N27" t="n">
         <v>812.5369477415666</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>226.3590068140656</v>
       </c>
       <c r="P27" t="n">
-        <v>525.5561835714619</v>
+        <v>207.0934149315248</v>
       </c>
       <c r="Q27" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507416</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36911,28 +36911,28 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K30" t="n">
-        <v>126.6237980382196</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L30" t="n">
-        <v>232.285965523585</v>
+        <v>620.0980502594836</v>
       </c>
       <c r="M30" t="n">
-        <v>695.8399043082931</v>
+        <v>536.1982776746845</v>
       </c>
       <c r="N30" t="n">
         <v>812.5369477415666</v>
       </c>
       <c r="O30" t="n">
-        <v>251.2660748322851</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>10.73738595686866</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37154,16 +37154,16 @@
         <v>232.285965523585</v>
       </c>
       <c r="M33" t="n">
-        <v>323.5710298279816</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N33" t="n">
-        <v>499.6109527971665</v>
+        <v>812.5369477415666</v>
       </c>
       <c r="O33" t="n">
-        <v>676.2260215178378</v>
+        <v>251.809437946808</v>
       </c>
       <c r="P33" t="n">
-        <v>525.5561835714619</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -37327,7 +37327,7 @@
         <v>350.4995841502049</v>
       </c>
       <c r="R35" t="n">
-        <v>59.82538970349858</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37385,25 +37385,25 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K36" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>470.3968634577054</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N36" t="n">
         <v>812.5369477415666</v>
       </c>
       <c r="O36" t="n">
-        <v>676.2260215178378</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>525.5561835714619</v>
       </c>
       <c r="Q36" t="n">
-        <v>298.0903205209232</v>
+        <v>269.651379162758</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37540,7 +37540,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>271.3780219415079</v>
+        <v>271.378021941508</v>
       </c>
       <c r="K38" t="n">
         <v>528.6897561303331</v>
@@ -37552,19 +37552,19 @@
         <v>805.3296502221118</v>
       </c>
       <c r="N38" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081121</v>
       </c>
       <c r="O38" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951474</v>
       </c>
       <c r="P38" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109126</v>
       </c>
       <c r="Q38" t="n">
         <v>350.4995841502049</v>
       </c>
       <c r="R38" t="n">
-        <v>59.82538970349813</v>
+        <v>59.82538970349816</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,10 +37619,10 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>168.0012142953155</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
         <v>232.285965523585</v>
@@ -37637,13 +37637,13 @@
         <v>676.2260215178378</v>
       </c>
       <c r="P39" t="n">
-        <v>201.892802670193</v>
+        <v>507.2552009605973</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>10.73738595686866</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,7 +37698,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556556</v>
       </c>
       <c r="K40" t="n">
         <v>151.7024285299106</v>
@@ -37707,7 +37707,7 @@
         <v>250.2141868799286</v>
       </c>
       <c r="M40" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789726</v>
       </c>
       <c r="N40" t="n">
         <v>273.2768778056037</v>
@@ -37719,7 +37719,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q40" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187479</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37777,7 +37777,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>271.378021941508</v>
+        <v>271.3780219415081</v>
       </c>
       <c r="K41" t="n">
         <v>528.6897561303331</v>
@@ -37801,7 +37801,7 @@
         <v>350.4995841502049</v>
       </c>
       <c r="R41" t="n">
-        <v>59.82538970349858</v>
+        <v>59.82538970349816</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,31 +37856,31 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>168.0012142953156</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>586.2832755390561</v>
+        <v>500.6510381370983</v>
       </c>
       <c r="N42" t="n">
         <v>812.5369477415666</v>
       </c>
       <c r="O42" t="n">
-        <v>676.2260215178378</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>525.5561835714619</v>
       </c>
       <c r="Q42" t="n">
         <v>298.0903205209233</v>
       </c>
       <c r="R42" t="n">
-        <v>10.73738595686868</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38038,7 +38038,7 @@
         <v>350.4995841502049</v>
       </c>
       <c r="R44" t="n">
-        <v>59.82538970349816</v>
+        <v>59.82538970350042</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38093,28 +38093,28 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>41.91017895490674</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>150.5754385879393</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L45" t="n">
-        <v>249.2577049560244</v>
+        <v>620.0980502594837</v>
       </c>
       <c r="M45" t="n">
-        <v>720.1247453734237</v>
+        <v>776.1294408004663</v>
       </c>
       <c r="N45" t="n">
-        <v>812.5369477415666</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>282.3637022411083</v>
+        <v>676.2260215178378</v>
       </c>
       <c r="P45" t="n">
-        <v>207.0934149315248</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>88.01303278507419</v>
+        <v>64.38097739326237</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_0_35.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_0_35.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3656719.665516692</v>
+        <v>3649702.650624981</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>402116.6991613938</v>
+        <v>654627.9814908284</v>
       </c>
     </row>
     <row r="8">
@@ -658,7 +658,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -670,16 +670,16 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>89.90455351181951</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>314.6536463267108</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448612</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -706,19 +706,19 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.4784025748116</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
@@ -746,7 +746,7 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554025</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
         <v>145.0692123933839</v>
@@ -755,10 +755,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H3" t="n">
-        <v>104.3883541553075</v>
+        <v>104.3883541553076</v>
       </c>
       <c r="I3" t="n">
-        <v>61.42221998250815</v>
+        <v>61.42221998250796</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -785,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>49.71123688229326</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S3" t="n">
         <v>156.5912426325231</v>
@@ -816,10 +816,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>28.44734925172133</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -834,10 +834,10 @@
         <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>52.10844059186244</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -895,25 +895,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>92.94228711255126</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>13.784170020795</v>
+        <v>129.1901879642572</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -943,7 +943,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481161</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
         <v>174.4157128089715</v>
@@ -955,16 +955,16 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -992,10 +992,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H6" t="n">
-        <v>104.3883541553075</v>
+        <v>104.3883541553076</v>
       </c>
       <c r="I6" t="n">
-        <v>61.42221998250815</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1022,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>49.71123688229326</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S6" t="n">
         <v>156.5912426325231</v>
@@ -1059,7 +1059,7 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -1074,10 +1074,10 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1098,19 +1098,19 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.12274995491425</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>12.53317060717078</v>
+        <v>22.99537910748689</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -1132,16 +1132,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>146.5729054055631</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
@@ -1153,7 +1153,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1180,10 +1180,10 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>163.8950372953905</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -1192,7 +1192,7 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -1201,7 +1201,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1290,16 +1290,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -1335,10 +1335,10 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1347,7 +1347,7 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>273.0715470750424</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -1359,7 +1359,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>25.31590541686241</v>
       </c>
     </row>
     <row r="11">
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051984</v>
       </c>
       <c r="T11" t="n">
         <v>208.4827883385019</v>
@@ -1527,13 +1527,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>66.87635383915776</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -1575,28 +1575,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>197.9208099836032</v>
+        <v>115.5269768002178</v>
       </c>
       <c r="T13" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1612,7 +1612,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>354.6830416206827</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
         <v>381.9303700722618</v>
@@ -1627,7 +1627,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274074</v>
+        <v>81.7791350527408</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T14" t="n">
         <v>208.4827883385019</v>
@@ -1669,7 +1669,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174121</v>
       </c>
       <c r="X14" t="n">
         <v>369.731100678469</v>
@@ -1706,7 +1706,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014445</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1764,10 +1764,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
@@ -1776,16 +1776,16 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.4253228447364</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,28 +1812,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>106.2835578420357</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1864,7 +1864,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274049</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -2004,7 +2004,7 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>81.68913743188297</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -2013,7 +2013,7 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -2049,13 +2049,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
         <v>286.2373523985773</v>
@@ -2067,7 +2067,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>143.3158222056515</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -2098,7 +2098,7 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H20" t="n">
-        <v>305.2872491113177</v>
+        <v>305.2872491113174</v>
       </c>
       <c r="I20" t="n">
         <v>81.77913505274074</v>
@@ -2140,7 +2140,7 @@
         <v>251.078595249801</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701346</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
         <v>349.240968717413</v>
@@ -2238,7 +2238,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -2247,19 +2247,19 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>42.56264048586359</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,25 +2286,25 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>143.3158222056515</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -2335,7 +2335,7 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H23" t="n">
-        <v>305.2872491113177</v>
+        <v>305.2872491113174</v>
       </c>
       <c r="I23" t="n">
         <v>81.77913505274074</v>
@@ -2481,7 +2481,7 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>55.72442649149514</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -2490,7 +2490,7 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2523,13 +2523,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>286.2373523985773</v>
@@ -2538,13 +2538,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>47.27820527287692</v>
       </c>
     </row>
     <row r="26">
@@ -2608,13 +2608,13 @@
         <v>132.9503648051988</v>
       </c>
       <c r="T26" t="n">
-        <v>208.4827883385019</v>
+        <v>208.482788338502</v>
       </c>
       <c r="U26" t="n">
         <v>251.078595249801</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701337</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
         <v>349.240968717413</v>
@@ -2712,13 +2712,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -2727,13 +2727,13 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2763,25 +2763,25 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>149.4306974817984</v>
+        <v>67.08991894886655</v>
       </c>
     </row>
     <row r="29">
@@ -2812,7 +2812,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I29" t="n">
-        <v>81.7791350527408</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T29" t="n">
         <v>208.4827883385019</v>
@@ -2851,7 +2851,7 @@
         <v>251.078595249801</v>
       </c>
       <c r="V29" t="n">
-        <v>327.7522584701337</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
         <v>349.240968717413</v>
@@ -2891,7 +2891,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014445</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2964,10 +2964,10 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2997,25 +2997,25 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>51.66115081227322</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>31.13654107019678</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -3049,7 +3049,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I32" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T32" t="n">
         <v>208.4827883385019</v>
@@ -3128,7 +3128,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3189,7 +3189,7 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -3201,7 +3201,7 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3234,10 +3234,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T34" t="n">
         <v>221.5475610583892</v>
@@ -3246,16 +3246,16 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>204.1291651532053</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>210.4828764948383</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3265,7 +3265,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
         <v>365.2728917710076</v>
@@ -3286,7 +3286,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T35" t="n">
         <v>208.4827883385019</v>
@@ -3365,7 +3365,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3429,22 +3429,22 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,19 +3471,19 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U37" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
@@ -3492,7 +3492,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>134.0081491988859</v>
+        <v>143.3158222056515</v>
       </c>
     </row>
     <row r="38">
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T38" t="n">
         <v>208.4827883385019</v>
@@ -3602,7 +3602,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3663,16 +3663,16 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -3681,7 +3681,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3711,25 +3711,25 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U40" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>143.3158222056515</v>
       </c>
       <c r="Y40" t="n">
-        <v>157.598629268413</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3903,13 +3903,13 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -3918,7 +3918,7 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>103.7527823691311</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3948,7 +3948,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T43" t="n">
         <v>221.5475610583892</v>
@@ -3957,13 +3957,13 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>33.35146980185879</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -4134,7 +4134,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
@@ -4182,13 +4182,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U46" t="n">
         <v>286.2373523985773</v>
@@ -4197,10 +4197,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>135.8803936258646</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>143.3158222056515</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -4306,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>709.2075429298516</v>
+        <v>546.109828622464</v>
       </c>
       <c r="C2" t="n">
-        <v>709.2075429298516</v>
+        <v>546.109828622464</v>
       </c>
       <c r="D2" t="n">
-        <v>709.2075429298516</v>
+        <v>546.109828622464</v>
       </c>
       <c r="E2" t="n">
-        <v>709.2075429298516</v>
+        <v>546.109828622464</v>
       </c>
       <c r="F2" t="n">
-        <v>298.221638140244</v>
+        <v>539.1643278732605</v>
       </c>
       <c r="G2" t="n">
-        <v>207.4089578252748</v>
+        <v>525.2409238118514</v>
       </c>
       <c r="H2" t="n">
         <v>207.4089578252748</v>
       </c>
       <c r="I2" t="n">
-        <v>53.94298182036449</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533144</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733131</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224081</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M2" t="n">
-        <v>1362.238747280444</v>
+        <v>1362.238747280443</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977176</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O2" t="n">
-        <v>2238.843319642691</v>
+        <v>2238.843319642689</v>
       </c>
       <c r="P2" t="n">
-        <v>2544.691559791254</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q2" t="n">
-        <v>2697.149091018224</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2642.120401548717</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2465.942913862888</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T2" t="n">
-        <v>2465.942913862888</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U2" t="n">
-        <v>2212.181128500979</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V2" t="n">
-        <v>2212.181128500979</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="W2" t="n">
-        <v>1859.412473230865</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="X2" t="n">
-        <v>1485.946714969785</v>
+        <v>936.2491605982757</v>
       </c>
       <c r="Y2" t="n">
-        <v>1095.807382993973</v>
+        <v>546.109828622464</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.4979752170848</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C3" t="n">
-        <v>814.0449459359578</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747065</v>
+        <v>665.1105362747047</v>
       </c>
       <c r="E3" t="n">
-        <v>505.8730812692495</v>
+        <v>505.8730812692492</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I3" t="n">
-        <v>53.94298182036449</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>129.2001442204944</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K3" t="n">
-        <v>384.447464661593</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L3" t="n">
-        <v>670.8219208598713</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M3" t="n">
         <v>1194.968834417902</v>
       </c>
       <c r="N3" t="n">
-        <v>1748.695370517454</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O3" t="n">
-        <v>2188.831293537798</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P3" t="n">
-        <v>2525.076107152627</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q3" t="n">
-        <v>2697.149091018224</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R3" t="n">
-        <v>2646.935720430049</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S3" t="n">
-        <v>2488.762748073965</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T3" t="n">
-        <v>2289.884200196744</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U3" t="n">
-        <v>2061.714576167584</v>
+        <v>2061.714576167582</v>
       </c>
       <c r="V3" t="n">
-        <v>1826.562467935841</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.32511120764</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.473611002107</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y3" t="n">
-        <v>1156.713312237153</v>
+        <v>1156.713312237151</v>
       </c>
     </row>
     <row r="4">
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>546.4805193761954</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="C4" t="n">
-        <v>517.7458231623355</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="D4" t="n">
-        <v>517.7458231623355</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="E4" t="n">
-        <v>369.8327295799424</v>
+        <v>2549.235997435829</v>
       </c>
       <c r="F4" t="n">
-        <v>222.942782082032</v>
+        <v>2402.346049937919</v>
       </c>
       <c r="G4" t="n">
-        <v>53.94298182036449</v>
+        <v>2233.346249676251</v>
       </c>
       <c r="H4" t="n">
-        <v>53.94298182036449</v>
+        <v>2075.597877108782</v>
       </c>
       <c r="I4" t="n">
-        <v>53.94298182036449</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="J4" t="n">
-        <v>53.94298182036449</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="K4" t="n">
-        <v>110.2451748866327</v>
+        <v>2079.265281698421</v>
       </c>
       <c r="L4" t="n">
-        <v>237.8190324477913</v>
+        <v>2206.839139259579</v>
       </c>
       <c r="M4" t="n">
-        <v>382.7169011658214</v>
+        <v>2351.737007977609</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502506</v>
+        <v>2498.624145662038</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594909</v>
+        <v>2618.281896171278</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064351</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064351</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064351</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064351</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T4" t="n">
-        <v>728.1289842064351</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U4" t="n">
-        <v>728.1289842064351</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V4" t="n">
-        <v>728.1289842064351</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="W4" t="n">
-        <v>728.1289842064351</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="X4" t="n">
-        <v>728.1289842064351</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="Y4" t="n">
-        <v>728.1289842064351</v>
+        <v>2697.149091018222</v>
       </c>
     </row>
     <row r="5">
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1250.638474227116</v>
+        <v>549.649320534154</v>
       </c>
       <c r="C5" t="n">
-        <v>881.6759572867045</v>
+        <v>549.649320534154</v>
       </c>
       <c r="D5" t="n">
-        <v>787.7948591932184</v>
+        <v>191.3836219274035</v>
       </c>
       <c r="E5" t="n">
-        <v>402.0066065949742</v>
+        <v>191.3836219274035</v>
       </c>
       <c r="F5" t="n">
-        <v>395.0611058457707</v>
+        <v>184.4381211782</v>
       </c>
       <c r="G5" t="n">
-        <v>381.1377017843616</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H5" t="n">
-        <v>53.94298182036449</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I5" t="n">
-        <v>53.94298182036449</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533143</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733131</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224082</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M5" t="n">
-        <v>1362.238747280444</v>
+        <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977176</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O5" t="n">
-        <v>2238.843319642691</v>
+        <v>2238.843319642689</v>
       </c>
       <c r="P5" t="n">
-        <v>2544.691559791254</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q5" t="n">
-        <v>2697.149091018224</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2642.120401548717</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2465.942913862888</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T5" t="n">
-        <v>2247.30824683495</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U5" t="n">
-        <v>1993.546461473042</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V5" t="n">
-        <v>1993.546461473042</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="W5" t="n">
-        <v>1640.777806202928</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="X5" t="n">
-        <v>1640.777806202928</v>
+        <v>936.2491605982757</v>
       </c>
       <c r="Y5" t="n">
-        <v>1250.638474227116</v>
+        <v>936.2491605982757</v>
       </c>
     </row>
     <row r="6">
@@ -4622,43 +4622,43 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.4979752170833</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C6" t="n">
-        <v>814.0449459359563</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E6" t="n">
-        <v>505.8730812692495</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H6" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I6" t="n">
-        <v>53.94298182036449</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>129.2001442204944</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>384.447464661593</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L6" t="n">
-        <v>670.8219208598701</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M6" t="n">
-        <v>1194.968834417901</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N6" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O6" t="n">
         <v>2188.831293537797</v>
@@ -4667,28 +4667,28 @@
         <v>2525.076107152626</v>
       </c>
       <c r="Q6" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R6" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S6" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U6" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W6" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X6" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y6" t="n">
         <v>1156.713312237151</v>
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>204.0596212327002</v>
+        <v>235.9284171545819</v>
       </c>
       <c r="C7" t="n">
-        <v>204.0596212327002</v>
+        <v>235.9284171545819</v>
       </c>
       <c r="D7" t="n">
-        <v>53.94298182036449</v>
+        <v>235.9284171545819</v>
       </c>
       <c r="E7" t="n">
-        <v>53.94298182036449</v>
+        <v>235.9284171545819</v>
       </c>
       <c r="F7" t="n">
-        <v>53.94298182036449</v>
+        <v>235.9284171545819</v>
       </c>
       <c r="G7" t="n">
-        <v>53.94298182036449</v>
+        <v>235.9284171545819</v>
       </c>
       <c r="H7" t="n">
-        <v>53.94298182036449</v>
+        <v>235.9284171545819</v>
       </c>
       <c r="I7" t="n">
-        <v>53.94298182036449</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="J7" t="n">
-        <v>53.94298182036449</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K7" t="n">
-        <v>110.2451748866327</v>
+        <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.8190324477912</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M7" t="n">
-        <v>382.7169011658212</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502504</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594906</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064349</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>698.7120650600568</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R7" t="n">
-        <v>698.7120650600568</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S7" t="n">
-        <v>698.7120650600568</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="T7" t="n">
-        <v>471.4038777286586</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="U7" t="n">
-        <v>458.7441094385871</v>
+        <v>490.6129053604687</v>
       </c>
       <c r="V7" t="n">
-        <v>204.0596212327002</v>
+        <v>235.9284171545819</v>
       </c>
       <c r="W7" t="n">
-        <v>204.0596212327002</v>
+        <v>235.9284171545819</v>
       </c>
       <c r="X7" t="n">
-        <v>204.0596212327002</v>
+        <v>235.9284171545819</v>
       </c>
       <c r="Y7" t="n">
-        <v>204.0596212327002</v>
+        <v>235.9284171545819</v>
       </c>
     </row>
     <row r="8">
@@ -4780,37 +4780,37 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1358.140854479381</v>
+        <v>2476.569858826099</v>
       </c>
       <c r="C8" t="n">
-        <v>1358.140854479381</v>
+        <v>2107.607341885688</v>
       </c>
       <c r="D8" t="n">
-        <v>1210.087414675782</v>
+        <v>1749.341643278937</v>
       </c>
       <c r="E8" t="n">
-        <v>1210.087414675782</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="F8" t="n">
-        <v>799.1015098861748</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G8" t="n">
-        <v>381.1377017843616</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533143</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224077</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
@@ -4822,34 +4822,34 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R8" t="n">
         <v>2642.120401548716</v>
       </c>
       <c r="S8" t="n">
-        <v>2465.942913862886</v>
+        <v>2476.569858826099</v>
       </c>
       <c r="T8" t="n">
-        <v>2465.942913862886</v>
+        <v>2476.569858826099</v>
       </c>
       <c r="U8" t="n">
-        <v>2465.942913862886</v>
+        <v>2476.569858826099</v>
       </c>
       <c r="V8" t="n">
-        <v>2134.880026519315</v>
+        <v>2476.569858826099</v>
       </c>
       <c r="W8" t="n">
-        <v>2134.880026519315</v>
+        <v>2476.569858826099</v>
       </c>
       <c r="X8" t="n">
-        <v>2134.880026519315</v>
+        <v>2476.569858826099</v>
       </c>
       <c r="Y8" t="n">
-        <v>1744.740694543503</v>
+        <v>2476.569858826099</v>
       </c>
     </row>
     <row r="9">
@@ -4859,19 +4859,19 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C9" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D9" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E9" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F9" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G9" t="n">
         <v>221.4284102424006</v>
@@ -4880,7 +4880,7 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J9" t="n">
         <v>129.2001442204943</v>
@@ -4895,7 +4895,7 @@
         <v>1313.210296315296</v>
       </c>
       <c r="N9" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O9" t="n">
         <v>2188.831293537797</v>
@@ -4904,22 +4904,22 @@
         <v>2525.076107152626</v>
       </c>
       <c r="Q9" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R9" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S9" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T9" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U9" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V9" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W9" t="n">
         <v>1572.325111207638</v>
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>53.94298182036445</v>
+        <v>520.9088977430002</v>
       </c>
       <c r="C10" t="n">
-        <v>53.94298182036445</v>
+        <v>351.9727148150933</v>
       </c>
       <c r="D10" t="n">
-        <v>53.94298182036445</v>
+        <v>201.8560754027576</v>
       </c>
       <c r="E10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="F10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M10" t="n">
         <v>382.716901165821</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502502</v>
+        <v>529.60403885025</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594902</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="Q10" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="R10" t="n">
-        <v>550.5654064942404</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="S10" t="n">
-        <v>550.5654064942404</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="T10" t="n">
-        <v>550.5654064942404</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="U10" t="n">
-        <v>274.7355609638946</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="V10" t="n">
-        <v>274.7355609638946</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="W10" t="n">
-        <v>274.7355609638946</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="X10" t="n">
-        <v>274.7355609638946</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="Y10" t="n">
-        <v>53.94298182036445</v>
+        <v>702.55736257324</v>
       </c>
     </row>
     <row r="11">
@@ -5017,7 +5017,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C11" t="n">
         <v>2059.358867610191</v>
@@ -5026,40 +5026,40 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E11" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F11" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G11" t="n">
-        <v>488.1932370805465</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H11" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J11" t="n">
         <v>365.8813331823785</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L11" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M11" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N11" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O11" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q11" t="n">
         <v>4801.62743720783</v>
@@ -5083,10 +5083,10 @@
         <v>3578.526314851616</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y11" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="12">
@@ -5120,28 +5120,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J12" t="n">
-        <v>138.7081686256434</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="K12" t="n">
-        <v>549.5984374701561</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="L12" t="n">
-        <v>779.5615433385053</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="M12" t="n">
-        <v>1099.896862868207</v>
+        <v>417.5524109899876</v>
       </c>
       <c r="N12" t="n">
-        <v>1444.417518505825</v>
+        <v>1138.699705022018</v>
       </c>
       <c r="O12" t="n">
-        <v>1797.533454227377</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P12" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q12" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R12" t="n">
         <v>2623.573505376138</v>
@@ -5175,10 +5175,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>333.7051469529986</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C13" t="n">
-        <v>164.7689640250917</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D13" t="n">
         <v>97.21709146028584</v>
@@ -5223,28 +5223,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R13" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S13" t="n">
-        <v>1187.92115703528</v>
+        <v>1382.222354598086</v>
       </c>
       <c r="T13" t="n">
-        <v>964.1357418247858</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U13" t="n">
-        <v>964.1357418247858</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V13" t="n">
-        <v>964.1357418247858</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W13" t="n">
-        <v>964.1357418247858</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X13" t="n">
-        <v>736.1461909267684</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y13" t="n">
-        <v>515.3536117832383</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="14">
@@ -5272,31 +5272,31 @@
         <v>488.193237080547</v>
       </c>
       <c r="H14" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I14" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823781</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L14" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M14" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O14" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q14" t="n">
         <v>4801.62743720783</v>
@@ -5305,16 +5305,16 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S14" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T14" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U14" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W14" t="n">
         <v>3578.526314851616</v>
@@ -5357,19 +5357,19 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J15" t="n">
-        <v>138.7081686256435</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="K15" t="n">
-        <v>549.5984374701561</v>
+        <v>508.1073603047985</v>
       </c>
       <c r="L15" t="n">
-        <v>894.5540770733951</v>
+        <v>1003.751888060526</v>
       </c>
       <c r="M15" t="n">
-        <v>1214.889396603097</v>
+        <v>1003.751888060526</v>
       </c>
       <c r="N15" t="n">
-        <v>1559.410052240715</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="O15" t="n">
         <v>1808.163466324677</v>
@@ -5412,25 +5412,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>247.3337308726216</v>
+        <v>841.7907383782454</v>
       </c>
       <c r="C16" t="n">
-        <v>247.3337308726216</v>
+        <v>672.8545554503385</v>
       </c>
       <c r="D16" t="n">
-        <v>97.21709146028584</v>
+        <v>522.7379160380027</v>
       </c>
       <c r="E16" t="n">
-        <v>97.21709146028584</v>
+        <v>522.7379160380027</v>
       </c>
       <c r="F16" t="n">
-        <v>97.21709146028584</v>
+        <v>375.8479685400923</v>
       </c>
       <c r="G16" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="H16" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I16" t="n">
         <v>97.21709146028584</v>
@@ -5439,19 +5439,19 @@
         <v>109.5997839241957</v>
       </c>
       <c r="K16" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688071</v>
       </c>
       <c r="L16" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799363</v>
       </c>
       <c r="M16" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471189</v>
       </c>
       <c r="N16" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O16" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980063</v>
       </c>
       <c r="P16" t="n">
         <v>1460.082827585746</v>
@@ -5460,28 +5460,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R16" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S16" t="n">
-        <v>1187.92115703528</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T16" t="n">
-        <v>1080.564027901911</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U16" t="n">
-        <v>791.4353891154691</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="V16" t="n">
-        <v>536.7509009095822</v>
+        <v>1244.231782352015</v>
       </c>
       <c r="W16" t="n">
-        <v>247.3337308726216</v>
+        <v>1244.231782352015</v>
       </c>
       <c r="X16" t="n">
-        <v>247.3337308726216</v>
+        <v>1244.231782352015</v>
       </c>
       <c r="Y16" t="n">
-        <v>247.3337308726216</v>
+        <v>1023.439203208485</v>
       </c>
     </row>
     <row r="17">
@@ -5494,7 +5494,7 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C17" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D17" t="n">
         <v>1701.09316900344</v>
@@ -5503,22 +5503,22 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F17" t="n">
-        <v>904.3190116155887</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G17" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H17" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822459</v>
       </c>
       <c r="I17" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L17" t="n">
         <v>1590.888347795206</v>
@@ -5527,7 +5527,7 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O17" t="n">
         <v>3889.732883643323</v>
@@ -5548,16 +5548,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U17" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W17" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y17" t="n">
         <v>2814.921224614724</v>
@@ -5600,19 +5600,19 @@
         <v>508.1073603047985</v>
       </c>
       <c r="L18" t="n">
-        <v>738.0704661731477</v>
+        <v>1122.004430061687</v>
       </c>
       <c r="M18" t="n">
-        <v>1058.405785702849</v>
+        <v>1890.372576454149</v>
       </c>
       <c r="N18" t="n">
-        <v>1388.268413366882</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="O18" t="n">
-        <v>1808.163466324677</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="P18" t="n">
-        <v>2328.464088060424</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="Q18" t="n">
         <v>2623.573505376138</v>
@@ -5649,16 +5649,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>326.6213191924214</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C19" t="n">
-        <v>244.1070389581962</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D19" t="n">
-        <v>244.1070389581962</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E19" t="n">
-        <v>244.1070389581962</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F19" t="n">
         <v>97.21709146028584</v>
@@ -5697,28 +5697,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R19" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S19" t="n">
-        <v>1387.841167119728</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T19" t="n">
-        <v>1387.841167119728</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U19" t="n">
-        <v>1098.712528333286</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V19" t="n">
-        <v>844.0280401273993</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="W19" t="n">
-        <v>554.6108700904388</v>
+        <v>241.9805482336712</v>
       </c>
       <c r="X19" t="n">
-        <v>326.6213191924214</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y19" t="n">
-        <v>326.6213191924214</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="20">
@@ -5728,22 +5728,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C20" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D20" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E20" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F20" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G20" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H20" t="n">
         <v>179.8222783822462</v>
@@ -5755,7 +5755,7 @@
         <v>365.8813331823787</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L20" t="n">
         <v>1590.888347795207</v>
@@ -5788,16 +5788,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W20" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y20" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="21">
@@ -5831,25 +5831,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J21" t="n">
-        <v>97.21709146028584</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K21" t="n">
-        <v>508.1073603047985</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L21" t="n">
-        <v>1122.004430061687</v>
+        <v>1288.32563221405</v>
       </c>
       <c r="M21" t="n">
-        <v>1890.372576454149</v>
+        <v>2056.693778606511</v>
       </c>
       <c r="N21" t="n">
-        <v>2123.441607278215</v>
+        <v>2056.693778606511</v>
       </c>
       <c r="O21" t="n">
-        <v>2123.441607278215</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="P21" t="n">
-        <v>2328.464088060424</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="Q21" t="n">
         <v>2623.573505376138</v>
@@ -5886,25 +5886,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>399.6573425680684</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C22" t="n">
-        <v>399.6573425680684</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D22" t="n">
-        <v>399.6573425680684</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E22" t="n">
-        <v>251.7442489856753</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F22" t="n">
-        <v>251.7442489856753</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G22" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H22" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I22" t="n">
         <v>97.21709146028584</v>
@@ -5934,28 +5934,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R22" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S22" t="n">
-        <v>1387.841167119728</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T22" t="n">
-        <v>1387.841167119728</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U22" t="n">
-        <v>1098.712528333286</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V22" t="n">
-        <v>1098.712528333286</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="W22" t="n">
-        <v>809.2953582963255</v>
+        <v>241.9805482336712</v>
       </c>
       <c r="X22" t="n">
-        <v>581.3058073983082</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y22" t="n">
-        <v>581.3058073983082</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="23">
@@ -5968,7 +5968,7 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D23" t="n">
         <v>1701.09316900344</v>
@@ -5977,10 +5977,10 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155879</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G23" t="n">
-        <v>488.1932370805462</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H23" t="n">
         <v>179.8222783822462</v>
@@ -5989,13 +5989,13 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L23" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M23" t="n">
         <v>2388.164701515097</v>
@@ -6016,22 +6016,22 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S23" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T23" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y23" t="n">
         <v>2814.921224614724</v>
@@ -6044,76 +6044,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>3224.712326690733</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C24" t="n">
-        <v>3050.259297409606</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D24" t="n">
-        <v>2901.324887748355</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E24" t="n">
-        <v>2742.087432742899</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F24" t="n">
-        <v>2595.552874769784</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G24" t="n">
-        <v>2458.626196373969</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H24" t="n">
-        <v>2362.681322805657</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I24" t="n">
-        <v>2334.498159098441</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J24" t="n">
-        <v>2500.819361250803</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K24" t="n">
-        <v>2813.047492270375</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L24" t="n">
-        <v>3426.944562027264</v>
+        <v>1288.32563221405</v>
       </c>
       <c r="M24" t="n">
-        <v>3747.279881556965</v>
+        <v>2056.693778606511</v>
       </c>
       <c r="N24" t="n">
-        <v>4091.800537194583</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="O24" t="n">
-        <v>4340.553951278545</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="P24" t="n">
-        <v>4860.854573014292</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="Q24" t="n">
-        <v>4860.854573014292</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R24" t="n">
-        <v>4860.854573014292</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="S24" t="n">
-        <v>4720.948468098067</v>
+        <v>2483.667400459913</v>
       </c>
       <c r="T24" t="n">
-        <v>4526.033852021845</v>
+        <v>2288.75278438369</v>
       </c>
       <c r="U24" t="n">
-        <v>4297.928927641232</v>
+        <v>2060.647860003077</v>
       </c>
       <c r="V24" t="n">
-        <v>4062.776819409489</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W24" t="n">
-        <v>3808.539462681288</v>
+        <v>1571.258395043133</v>
       </c>
       <c r="X24" t="n">
-        <v>3600.687962475755</v>
+        <v>1363.4068948376</v>
       </c>
       <c r="Y24" t="n">
-        <v>3392.927663710801</v>
+        <v>1155.646596072646</v>
       </c>
     </row>
     <row r="25">
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>3683.618015083213</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C25" t="n">
-        <v>3683.618015083213</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D25" t="n">
-        <v>3627.330715596854</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E25" t="n">
-        <v>3627.330715596854</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F25" t="n">
-        <v>3627.330715596854</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G25" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H25" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I25" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J25" t="n">
-        <v>3471.538086380584</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K25" t="n">
-        <v>3621.723490625196</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L25" t="n">
-        <v>3869.435535636325</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M25" t="n">
-        <v>4141.002278403508</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N25" t="n">
-        <v>4411.546387431056</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O25" t="n">
-        <v>4645.421365436453</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P25" t="n">
-        <v>4822.021130042136</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q25" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R25" t="n">
-        <v>4860.854573014292</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S25" t="n">
-        <v>4860.854573014292</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T25" t="n">
-        <v>4637.069157803799</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="U25" t="n">
-        <v>4347.940519017357</v>
+        <v>1098.712528333286</v>
       </c>
       <c r="V25" t="n">
-        <v>4093.25603081147</v>
+        <v>844.0280401273993</v>
       </c>
       <c r="W25" t="n">
-        <v>4093.25603081147</v>
+        <v>554.6108700904388</v>
       </c>
       <c r="X25" t="n">
-        <v>3865.266479913453</v>
+        <v>326.6213191924214</v>
       </c>
       <c r="Y25" t="n">
-        <v>3865.266479913453</v>
+        <v>278.8655562905255</v>
       </c>
     </row>
     <row r="26">
@@ -6217,25 +6217,25 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G26" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H26" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823776</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514073</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L26" t="n">
-        <v>1590.888347795205</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M26" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N26" t="n">
         <v>3183.709822619127</v>
@@ -6244,22 +6244,22 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R26" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S26" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T26" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V26" t="n">
         <v>3931.294970121731</v>
@@ -6293,37 +6293,37 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F27" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G27" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H27" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I27" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J27" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K27" t="n">
-        <v>549.5984374701561</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L27" t="n">
-        <v>894.5540770733951</v>
+        <v>1288.32563221405</v>
       </c>
       <c r="M27" t="n">
-        <v>1214.889396603097</v>
+        <v>2056.693778606511</v>
       </c>
       <c r="N27" t="n">
-        <v>1559.410052240715</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="O27" t="n">
-        <v>1808.163466324677</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="P27" t="n">
-        <v>2328.464088060424</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="Q27" t="n">
         <v>2623.573505376138</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>4058.21949835487</v>
+        <v>416.2699138005285</v>
       </c>
       <c r="C28" t="n">
-        <v>3889.283315426963</v>
+        <v>247.3337308726216</v>
       </c>
       <c r="D28" t="n">
-        <v>3889.283315426963</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E28" t="n">
-        <v>3889.283315426963</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F28" t="n">
-        <v>3889.283315426963</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G28" t="n">
-        <v>3721.107993746784</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H28" t="n">
-        <v>3570.689985294727</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I28" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J28" t="n">
-        <v>3471.538086380584</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K28" t="n">
-        <v>3621.723490625196</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L28" t="n">
-        <v>3869.435535636325</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M28" t="n">
-        <v>4141.002278403508</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N28" t="n">
-        <v>4411.546387431055</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O28" t="n">
-        <v>4645.421365436452</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P28" t="n">
-        <v>4822.021130042135</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q28" t="n">
-        <v>4860.854573014291</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R28" t="n">
-        <v>4860.854573014291</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S28" t="n">
-        <v>4660.934562929844</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T28" t="n">
-        <v>4437.14914771935</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U28" t="n">
-        <v>4437.14914771935</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="V28" t="n">
-        <v>4437.14914771935</v>
+        <v>955.1031435655738</v>
       </c>
       <c r="W28" t="n">
-        <v>4437.14914771935</v>
+        <v>665.6859735286132</v>
       </c>
       <c r="X28" t="n">
-        <v>4209.159596821333</v>
+        <v>665.6859735286132</v>
       </c>
       <c r="Y28" t="n">
-        <v>4058.21949835487</v>
+        <v>597.9183786307682</v>
       </c>
     </row>
     <row r="29">
@@ -6439,13 +6439,13 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C29" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E29" t="n">
         <v>1315.304916405196</v>
@@ -6457,58 +6457,58 @@
         <v>488.193237080547</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514081</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L29" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M29" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O29" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q29" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R29" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S29" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T29" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U29" t="n">
         <v>4262.3578574653</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y29" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="30">
@@ -6539,31 +6539,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I30" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J30" t="n">
-        <v>97.21709146028583</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K30" t="n">
-        <v>508.1073603047984</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L30" t="n">
-        <v>738.0704661731476</v>
+        <v>1288.32563221405</v>
       </c>
       <c r="M30" t="n">
-        <v>1058.405785702849</v>
+        <v>2056.693778606511</v>
       </c>
       <c r="N30" t="n">
-        <v>1423.179110240432</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="O30" t="n">
-        <v>2092.642871543091</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="P30" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="Q30" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R30" t="n">
         <v>2623.573505376138</v>
@@ -6597,46 +6597,46 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>415.8104215925219</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C31" t="n">
-        <v>415.8104215925219</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D31" t="n">
-        <v>415.8104215925219</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E31" t="n">
-        <v>415.8104215925219</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F31" t="n">
-        <v>415.8104215925219</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G31" t="n">
-        <v>247.6350999123425</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H31" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I31" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J31" t="n">
         <v>109.5997839241957</v>
       </c>
       <c r="K31" t="n">
-        <v>259.7851881688071</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L31" t="n">
-        <v>507.4972331799363</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M31" t="n">
-        <v>779.0639759471189</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N31" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O31" t="n">
-        <v>1283.483062980063</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P31" t="n">
         <v>1460.082827585746</v>
@@ -6645,28 +6645,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R31" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S31" t="n">
-        <v>1335.65818650127</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T31" t="n">
-        <v>1335.65818650127</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U31" t="n">
-        <v>1335.65818650127</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="V31" t="n">
-        <v>1335.65818650127</v>
+        <v>820.5263570570736</v>
       </c>
       <c r="W31" t="n">
-        <v>1046.241016464309</v>
+        <v>531.109187020113</v>
       </c>
       <c r="X31" t="n">
-        <v>818.2514655662918</v>
+        <v>499.6581354340557</v>
       </c>
       <c r="Y31" t="n">
-        <v>597.4588864227617</v>
+        <v>278.8655562905255</v>
       </c>
     </row>
     <row r="32">
@@ -6676,22 +6676,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C32" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E32" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F32" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155899</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805471</v>
+        <v>488.1932370805474</v>
       </c>
       <c r="H32" t="n">
         <v>179.8222783822466</v>
@@ -6700,52 +6700,52 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823798</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514094</v>
+        <v>889.2841917514079</v>
       </c>
       <c r="L32" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M32" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O32" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P32" t="n">
         <v>4454.632848899128</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R32" t="n">
         <v>4860.854573014293</v>
       </c>
       <c r="S32" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T32" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W32" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y32" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="33">
@@ -6779,22 +6779,22 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J33" t="n">
-        <v>97.21709146028587</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K33" t="n">
-        <v>508.1073603047985</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L33" t="n">
-        <v>768.9531471704122</v>
+        <v>1288.32563221405</v>
       </c>
       <c r="M33" t="n">
-        <v>1089.288466700114</v>
+        <v>2056.693778606511</v>
       </c>
       <c r="N33" t="n">
-        <v>1433.809122337732</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="O33" t="n">
-        <v>2103.272883640391</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="P33" t="n">
         <v>2623.573505376138</v>
@@ -6834,19 +6834,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>434.3285960683721</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C34" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D34" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E34" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F34" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G34" t="n">
         <v>97.21709146028587</v>
@@ -6864,10 +6864,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L34" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M34" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N34" t="n">
         <v>1049.608084974667</v>
@@ -6882,28 +6882,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R34" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S34" t="n">
-        <v>1387.841167119728</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T34" t="n">
-        <v>1164.055751909234</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U34" t="n">
-        <v>874.9271131227918</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V34" t="n">
-        <v>874.9271131227918</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="W34" t="n">
-        <v>874.9271131227918</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X34" t="n">
-        <v>646.9375622247744</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="Y34" t="n">
-        <v>434.3285960683721</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="35">
@@ -6913,22 +6913,22 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C35" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D35" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E35" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F35" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155887</v>
       </c>
       <c r="G35" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H35" t="n">
         <v>179.8222783822462</v>
@@ -6937,13 +6937,13 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L35" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M35" t="n">
         <v>2388.164701515097</v>
@@ -6970,16 +6970,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y35" t="n">
         <v>2814.921224614724</v>
@@ -7022,16 +7022,16 @@
         <v>508.1073603047985</v>
       </c>
       <c r="L36" t="n">
-        <v>738.0704661731477</v>
+        <v>1122.004430061687</v>
       </c>
       <c r="M36" t="n">
-        <v>1433.809122337732</v>
+        <v>1890.372576454149</v>
       </c>
       <c r="N36" t="n">
-        <v>1433.809122337732</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="O36" t="n">
-        <v>2103.272883640391</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="P36" t="n">
         <v>2623.573505376138</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>4035.871893885153</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C37" t="n">
-        <v>4035.871893885153</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D37" t="n">
-        <v>3885.755254472818</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E37" t="n">
-        <v>3885.755254472818</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F37" t="n">
-        <v>3738.865306974908</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G37" t="n">
-        <v>3570.689985294728</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H37" t="n">
-        <v>3570.689985294728</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I37" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J37" t="n">
-        <v>3471.538086380585</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K37" t="n">
-        <v>3621.723490625197</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L37" t="n">
-        <v>3869.435535636326</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M37" t="n">
-        <v>4141.002278403509</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N37" t="n">
-        <v>4411.546387431056</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O37" t="n">
-        <v>4645.421365436453</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P37" t="n">
-        <v>4822.021130042136</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q37" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R37" t="n">
-        <v>4749.779469576118</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S37" t="n">
-        <v>4749.779469576118</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T37" t="n">
-        <v>4749.779469576118</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U37" t="n">
-        <v>4460.650830789676</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V37" t="n">
-        <v>4460.650830789676</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="W37" t="n">
-        <v>4171.233660752715</v>
+        <v>241.9805482336712</v>
       </c>
       <c r="X37" t="n">
-        <v>4171.233660752715</v>
+        <v>241.9805482336712</v>
       </c>
       <c r="Y37" t="n">
-        <v>4035.871893885153</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="38">
@@ -7153,46 +7153,46 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C38" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D38" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E38" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F38" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G38" t="n">
-        <v>488.1932370805466</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H38" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L38" t="n">
         <v>1590.888347795207</v>
       </c>
       <c r="M38" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O38" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q38" t="n">
         <v>4801.62743720783</v>
@@ -7207,16 +7207,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y38" t="n">
         <v>2814.921224614724</v>
@@ -7256,22 +7256,22 @@
         <v>97.21709146028584</v>
       </c>
       <c r="K39" t="n">
-        <v>97.21709146028584</v>
+        <v>508.1073603047985</v>
       </c>
       <c r="L39" t="n">
-        <v>97.21709146028584</v>
+        <v>1122.004430061687</v>
       </c>
       <c r="M39" t="n">
-        <v>865.5852378527472</v>
+        <v>1890.372576454149</v>
       </c>
       <c r="N39" t="n">
-        <v>1210.105893490365</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="O39" t="n">
-        <v>1808.163466324677</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="P39" t="n">
-        <v>2328.464088060424</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="Q39" t="n">
         <v>2623.573505376138</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>4184.545848715275</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C40" t="n">
-        <v>4015.609665787367</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D40" t="n">
-        <v>3865.493026375032</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E40" t="n">
-        <v>3717.579932792638</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F40" t="n">
-        <v>3570.689985294728</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G40" t="n">
-        <v>3570.689985294728</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H40" t="n">
-        <v>3570.689985294728</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I40" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J40" t="n">
-        <v>3471.538086380585</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K40" t="n">
-        <v>3621.723490625197</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L40" t="n">
-        <v>3869.435535636326</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M40" t="n">
-        <v>4141.002278403509</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N40" t="n">
-        <v>4411.546387431056</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O40" t="n">
-        <v>4645.421365436453</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P40" t="n">
-        <v>4822.021130042136</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q40" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R40" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S40" t="n">
-        <v>4860.854573014292</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T40" t="n">
-        <v>4860.854573014292</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U40" t="n">
-        <v>4571.72593422785</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V40" t="n">
-        <v>4571.72593422785</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="W40" t="n">
-        <v>4571.72593422785</v>
+        <v>241.9805482336712</v>
       </c>
       <c r="X40" t="n">
-        <v>4343.736383329833</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y40" t="n">
-        <v>4184.545848715275</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="41">
@@ -7387,7 +7387,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C41" t="n">
         <v>2059.358867610191</v>
@@ -7396,28 +7396,28 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E41" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F41" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G41" t="n">
-        <v>488.1932370805466</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I41" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823783</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514079</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L41" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M41" t="n">
         <v>2388.164701515097</v>
@@ -7447,16 +7447,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W41" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y41" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="42">
@@ -7499,16 +7499,16 @@
         <v>1122.004430061687</v>
       </c>
       <c r="M42" t="n">
-        <v>1122.004430061687</v>
+        <v>1890.372576454149</v>
       </c>
       <c r="N42" t="n">
-        <v>1466.525085699305</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="O42" t="n">
-        <v>2135.988847001965</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="P42" t="n">
-        <v>2328.464088060424</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="Q42" t="n">
         <v>2623.573505376138</v>
@@ -7545,25 +7545,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>646.9375622247746</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C43" t="n">
-        <v>646.9375622247746</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D43" t="n">
-        <v>496.8209228124389</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E43" t="n">
-        <v>348.9078292300458</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F43" t="n">
-        <v>202.0178817321354</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G43" t="n">
-        <v>202.0178817321354</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H43" t="n">
-        <v>202.0178817321354</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I43" t="n">
         <v>97.21709146028584</v>
@@ -7596,25 +7596,25 @@
         <v>1387.841167119728</v>
       </c>
       <c r="S43" t="n">
-        <v>1387.841167119728</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T43" t="n">
-        <v>1164.055751909234</v>
+        <v>964.135741824786</v>
       </c>
       <c r="U43" t="n">
-        <v>874.927113122792</v>
+        <v>675.0071030383442</v>
       </c>
       <c r="V43" t="n">
-        <v>874.927113122792</v>
+        <v>420.3226148324574</v>
       </c>
       <c r="W43" t="n">
-        <v>874.927113122792</v>
+        <v>130.9054447954967</v>
       </c>
       <c r="X43" t="n">
-        <v>646.9375622247746</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y43" t="n">
-        <v>646.9375622247746</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="44">
@@ -7636,25 +7636,25 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F44" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155879</v>
       </c>
       <c r="G44" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805462</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822457</v>
       </c>
       <c r="I44" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L44" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M44" t="n">
         <v>2388.164701515097</v>
@@ -7675,10 +7675,10 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S44" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T44" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U44" t="n">
         <v>4262.3578574653</v>
@@ -7727,28 +7727,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J45" t="n">
-        <v>263.5382936126482</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="K45" t="n">
-        <v>388.8958536704856</v>
+        <v>508.1073603047985</v>
       </c>
       <c r="L45" t="n">
-        <v>618.8589595388348</v>
+        <v>1122.004430061687</v>
       </c>
       <c r="M45" t="n">
-        <v>1387.227105931296</v>
+        <v>1890.372576454149</v>
       </c>
       <c r="N45" t="n">
-        <v>1731.747761568914</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="O45" t="n">
-        <v>1980.501175652877</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="P45" t="n">
-        <v>2317.834075963124</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="Q45" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R45" t="n">
         <v>2623.573505376138</v>
@@ -7830,28 +7830,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R46" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S46" t="n">
-        <v>1187.92115703528</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T46" t="n">
-        <v>1187.92115703528</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U46" t="n">
-        <v>898.7925182488384</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V46" t="n">
-        <v>644.1080300429516</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="W46" t="n">
-        <v>506.8551071885429</v>
+        <v>241.9805482336712</v>
       </c>
       <c r="X46" t="n">
-        <v>278.8655562905255</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y46" t="n">
-        <v>278.8655562905255</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
   </sheetData>
@@ -8057,7 +8057,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K3" t="n">
         <v>264.4652370125786</v>
@@ -8300,7 +8300,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
-        <v>251.4045252050805</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
         <v>465.7050637499999</v>
@@ -8768,13 +8768,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L12" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M12" t="n">
         <v>465.7050637499999</v>
@@ -9005,7 +9005,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
         <v>264.4652370125786</v>
@@ -9014,13 +9014,13 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M15" t="n">
-        <v>465.7050637499999</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N15" t="n">
         <v>479.3423743435536</v>
       </c>
       <c r="O15" t="n">
-        <v>393.8623192767295</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P15" t="n">
         <v>318.4627686399372</v>
@@ -9254,19 +9254,19 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O18" t="n">
-        <v>393.8623192767295</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P18" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9491,19 +9491,19 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N21" t="n">
-        <v>366.7649755419858</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O21" t="n">
-        <v>142.5962444444444</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9719,7 +9719,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>164.8065119368811</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
         <v>370.8403453034592</v>
@@ -9731,10 +9731,10 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O24" t="n">
-        <v>393.8623192767295</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P24" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
         <v>139.9817740860215</v>
@@ -9874,7 +9874,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>169.0966151720727</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K26" t="n">
         <v>324.1454125711647</v>
@@ -9953,7 +9953,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
         <v>264.4652370125786</v>
@@ -9968,13 +9968,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O27" t="n">
-        <v>393.8623192767295</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P27" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
         <v>45.52166981132082</v>
@@ -10190,7 +10190,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
         <v>264.4652370125786</v>
@@ -10205,13 +10205,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O30" t="n">
-        <v>393.8623192767295</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P30" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10442,16 +10442,16 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O33" t="n">
-        <v>393.8623192767295</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P33" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10609,7 +10609,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
-        <v>65.71641987298243</v>
+        <v>65.716419872982</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10664,7 +10664,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
         <v>264.4652370125786</v>
@@ -10676,16 +10676,16 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N36" t="n">
-        <v>131.3417120833333</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O36" t="n">
-        <v>393.8623192767295</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P36" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10904,10 +10904,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M39" t="n">
         <v>465.7050637499999</v>
@@ -10916,16 +10916,16 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O39" t="n">
-        <v>393.8623192767295</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P39" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11147,22 +11147,22 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M42" t="n">
-        <v>142.1340339220183</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N42" t="n">
         <v>479.3423743435536</v>
       </c>
       <c r="O42" t="n">
-        <v>393.8623192767295</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P42" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11390,13 +11390,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O45" t="n">
-        <v>393.8623192767295</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P45" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -23415,13 +23415,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>81.7391191790546</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
@@ -23463,28 +23463,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>82.39383318338545</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23652,10 +23652,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -23664,16 +23664,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>166.4935684633776</v>
+        <v>1.068245618641157</v>
       </c>
       <c r="H16" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I16" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,28 +23700,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
-        <v>115.2640032163535</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23892,7 +23892,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>85.55768366674486</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
@@ -23901,7 +23901,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>166.4935684633776</v>
@@ -23937,13 +23937,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -23955,7 +23955,7 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>82.39383318338568</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -24126,7 +24126,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
@@ -24135,19 +24135,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>123.930927977514</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H22" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,25 +24174,25 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>82.39383318338568</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -24369,7 +24369,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>92.89104652671722</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
@@ -24378,7 +24378,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H25" t="n">
         <v>148.9138283675361</v>
@@ -24411,13 +24411,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24426,13 +24426,13 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>171.3064480792179</v>
       </c>
     </row>
     <row r="26">
@@ -24600,13 +24600,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
@@ -24615,13 +24615,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24651,25 +24651,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>69.15395587029639</v>
+        <v>151.4947344032282</v>
       </c>
     </row>
     <row r="29">
@@ -24852,10 +24852,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I31" t="n">
         <v>110.419245464272</v>
@@ -24885,25 +24885,25 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S31" t="n">
-        <v>146.25965917133</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>194.5731143188404</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -25077,7 +25077,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
@@ -25089,7 +25089,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H34" t="n">
         <v>148.9138283675361</v>
@@ -25122,10 +25122,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S34" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25134,16 +25134,16 @@
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>82.39383318338571</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>8.101776857256539</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -25317,22 +25317,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H37" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,19 +25359,19 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S37" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -25380,7 +25380,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>84.57650415320887</v>
+        <v>75.26883114644332</v>
       </c>
     </row>
     <row r="38">
@@ -25551,16 +25551,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>166.4935684633776</v>
@@ -25569,7 +25569,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25599,25 +25599,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S40" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>82.39383318338568</v>
       </c>
       <c r="Y40" t="n">
-        <v>60.9860240836818</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -25791,13 +25791,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>166.4935684633776</v>
@@ -25806,7 +25806,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I43" t="n">
-        <v>6.666463095140912</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25836,7 +25836,7 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -25845,13 +25845,13 @@
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>192.3581855871784</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -26022,7 +26022,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
@@ -26070,13 +26070,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -26085,10 +26085,10 @@
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>150.6426047107264</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>82.39383318338568</v>
       </c>
       <c r="Y46" t="n">
         <v>218.5846533520948</v>
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>684300.8545409909</v>
+        <v>684300.8545409908</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>684300.8545409909</v>
+        <v>684300.8545409908</v>
       </c>
     </row>
     <row r="14">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>684300.8545409909</v>
+        <v>684300.8545409908</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>684300.8545409907</v>
+        <v>684300.8545409908</v>
       </c>
     </row>
   </sheetData>
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>718411.5486312476</v>
+        <v>718411.5486312477</v>
       </c>
       <c r="C2" t="n">
         <v>718411.5486312477</v>
       </c>
       <c r="D2" t="n">
-        <v>718411.5486312478</v>
+        <v>718411.5486312477</v>
       </c>
       <c r="E2" t="n">
+        <v>684300.8545409905</v>
+      </c>
+      <c r="F2" t="n">
+        <v>684300.8545409901</v>
+      </c>
+      <c r="G2" t="n">
         <v>684300.8545409904</v>
       </c>
-      <c r="F2" t="n">
-        <v>684300.854540991</v>
-      </c>
-      <c r="G2" t="n">
+      <c r="H2" t="n">
         <v>684300.8545409905</v>
-      </c>
-      <c r="H2" t="n">
-        <v>684300.8545409904</v>
       </c>
       <c r="I2" t="n">
         <v>684300.8545409908</v>
       </c>
       <c r="J2" t="n">
-        <v>684300.8545409903</v>
+        <v>684300.8545409905</v>
       </c>
       <c r="K2" t="n">
-        <v>684300.8545409904</v>
+        <v>684300.8545409905</v>
       </c>
       <c r="L2" t="n">
         <v>684300.8545409907</v>
       </c>
       <c r="M2" t="n">
-        <v>684300.8545409903</v>
+        <v>684300.8545409907</v>
       </c>
       <c r="N2" t="n">
-        <v>684300.8545409902</v>
+        <v>684300.8545409904</v>
       </c>
       <c r="O2" t="n">
+        <v>684300.8545409908</v>
+      </c>
+      <c r="P2" t="n">
         <v>684300.8545409904</v>
-      </c>
-      <c r="P2" t="n">
-        <v>684300.8545409907</v>
       </c>
     </row>
     <row r="3">
@@ -26365,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.879214545</v>
+        <v>589967.8792145444</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26380,7 +26380,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>1.767800767993322e-10</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.219192593</v>
+        <v>176423.2191925929</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26417,34 +26417,34 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>139059.1391806189</v>
+        <v>139059.1391806191</v>
       </c>
       <c r="C4" t="n">
+        <v>139059.1391806191</v>
+      </c>
+      <c r="D4" t="n">
         <v>139059.139180619</v>
       </c>
-      <c r="D4" t="n">
-        <v>139059.1391806191</v>
-      </c>
       <c r="E4" t="n">
-        <v>787.7936905758694</v>
+        <v>787.7936905758695</v>
       </c>
       <c r="F4" t="n">
-        <v>787.7936905758695</v>
+        <v>787.7936905759103</v>
       </c>
       <c r="G4" t="n">
         <v>787.7936905758695</v>
       </c>
       <c r="H4" t="n">
+        <v>787.7936905758694</v>
+      </c>
+      <c r="I4" t="n">
         <v>787.7936905758695</v>
       </c>
-      <c r="I4" t="n">
-        <v>787.7936905758694</v>
-      </c>
       <c r="J4" t="n">
-        <v>787.7936905759236</v>
+        <v>787.7936905758695</v>
       </c>
       <c r="K4" t="n">
-        <v>787.7936905759236</v>
+        <v>787.7936905758695</v>
       </c>
       <c r="L4" t="n">
         <v>787.7936905758695</v>
@@ -26453,10 +26453,10 @@
         <v>787.7936905758694</v>
       </c>
       <c r="N4" t="n">
+        <v>787.7936905758695</v>
+      </c>
+      <c r="O4" t="n">
         <v>787.7936905758694</v>
-      </c>
-      <c r="O4" t="n">
-        <v>787.7936905758695</v>
       </c>
       <c r="P4" t="n">
         <v>787.7936905758695</v>
@@ -26469,19 +26469,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>82859.0780634095</v>
+        <v>82859.07806340946</v>
       </c>
       <c r="C5" t="n">
-        <v>82859.0780634095</v>
+        <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340946</v>
+        <v>82859.07806340947</v>
       </c>
       <c r="E5" t="n">
         <v>91987.32594871662</v>
       </c>
       <c r="F5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="G5" t="n">
         <v>91987.32594871664</v>
@@ -26493,19 +26493,19 @@
         <v>91987.32594871664</v>
       </c>
       <c r="J5" t="n">
-        <v>91987.32594871661</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="K5" t="n">
-        <v>91987.32594871661</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="L5" t="n">
         <v>91987.32594871664</v>
       </c>
       <c r="M5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="N5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="O5" t="n">
         <v>91987.32594871664</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-93474.54782732583</v>
+        <v>-93474.54782732524</v>
       </c>
       <c r="C6" t="n">
         <v>496493.3313872193</v>
       </c>
       <c r="D6" t="n">
-        <v>496493.3313872198</v>
+        <v>496493.3313872192</v>
       </c>
       <c r="E6" t="n">
-        <v>66365.69842480191</v>
+        <v>65391.10716508039</v>
       </c>
       <c r="F6" t="n">
-        <v>591525.7349016985</v>
+        <v>590551.1436419759</v>
       </c>
       <c r="G6" t="n">
-        <v>591525.7349016981</v>
+        <v>590551.1436419761</v>
       </c>
       <c r="H6" t="n">
-        <v>591525.734901698</v>
+        <v>590551.1436419764</v>
       </c>
       <c r="I6" t="n">
-        <v>591525.7349016983</v>
+        <v>590551.1436419766</v>
       </c>
       <c r="J6" t="n">
-        <v>415102.5157091048</v>
+        <v>414127.9244493835</v>
       </c>
       <c r="K6" t="n">
-        <v>591525.7349016981</v>
+        <v>590551.1436419764</v>
       </c>
       <c r="L6" t="n">
-        <v>591525.7349016982</v>
+        <v>590551.1436419765</v>
       </c>
       <c r="M6" t="n">
-        <v>456724.7196678608</v>
+        <v>455750.1284081395</v>
       </c>
       <c r="N6" t="n">
-        <v>591525.7349016977</v>
+        <v>590551.1436419763</v>
       </c>
       <c r="O6" t="n">
-        <v>591525.734901698</v>
+        <v>590551.1436419766</v>
       </c>
       <c r="P6" t="n">
-        <v>591525.7349016982</v>
+        <v>590551.1436419763</v>
       </c>
     </row>
   </sheetData>
@@ -26737,19 +26737,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170871</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
-        <v>377.743664217087</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
         <v>830.3824054541002</v>
       </c>
       <c r="F3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541001</v>
       </c>
       <c r="G3" t="n">
         <v>830.3824054541003</v>
@@ -26764,16 +26764,16 @@
         <v>830.3824054541003</v>
       </c>
       <c r="K3" t="n">
-        <v>830.3824054541001</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="L3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="M3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="N3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="O3" t="n">
         <v>830.3824054541003</v>
@@ -26789,13 +26789,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>674.2872727545561</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="C4" t="n">
-        <v>674.2872727545561</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="E4" t="n">
         <v>1215.213643253573</v>
@@ -26959,7 +26959,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170871</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26968,13 +26968,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370135</v>
+        <v>452.6387412370136</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>674.2872727545561</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990174</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545558</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990173</v>
+        <v>540.9263704990171</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545561</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990174</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,7 +27378,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -27390,13 +27390,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>323.8796165089755</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>9.269126437646321</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27432,13 +27432,13 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -27466,7 +27466,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>-8.838522649944581e-13</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27536,10 +27536,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>138.7994718469065</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
@@ -27554,13 +27554,13 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923382</v>
+        <v>82.85718120047579</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853694</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27581,10 +27581,10 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.12274995491423</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
@@ -27615,28 +27615,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>261.7407545081317</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>284.5939820565378</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448612</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27675,16 +27675,16 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27779,7 +27779,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
@@ -27794,10 +27794,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853695</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27818,19 +27818,19 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
-        <v>273.7487036348069</v>
+        <v>263.2864951344908</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -27852,16 +27852,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>208.1101362151199</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
@@ -27873,7 +27873,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27903,7 +27903,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>10.52067551358104</v>
       </c>
       <c r="T8" t="n">
         <v>216.4483203576578</v>
@@ -27912,7 +27912,7 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
@@ -27921,7 +27921,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28010,16 +28010,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
@@ -28034,7 +28034,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28055,10 +28055,10 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
@@ -28067,7 +28067,7 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
-        <v>13.21032716693537</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -28079,7 +28079,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>193.2687479352324</v>
       </c>
     </row>
     <row r="11">
@@ -28389,7 +28389,7 @@
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>9.003997547551989e-13</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -29334,7 +29334,7 @@
         <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>1.193711796076968e-12</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
         <v>0</v>
@@ -29571,7 +29571,7 @@
         <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>1.193711796076968e-12</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
         <v>0</v>
@@ -31041,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>1.518567494340047</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H2" t="n">
-        <v>15.55202935141001</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554473</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J2" t="n">
-        <v>128.8865178727437</v>
+        <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.167479908158</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L2" t="n">
-        <v>239.6413398630672</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405371</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N2" t="n">
-        <v>270.9617944338307</v>
+        <v>270.9617944338304</v>
       </c>
       <c r="O2" t="n">
-        <v>255.8615389119869</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P2" t="n">
-        <v>218.3719038954669</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q2" t="n">
-        <v>163.9882055044139</v>
+        <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633809</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727386</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473561</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U2" t="n">
-        <v>0.1214853995472038</v>
+        <v>0.1214853995472036</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31120,49 +31120,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8125052400141118</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188924</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I3" t="n">
-        <v>27.97441286890692</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396486</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K3" t="n">
-        <v>131.2017781649103</v>
+        <v>131.2017781649102</v>
       </c>
       <c r="L3" t="n">
-        <v>56.98116194942338</v>
+        <v>176.4169820478007</v>
       </c>
       <c r="M3" t="n">
-        <v>205.8702969983124</v>
+        <v>162.4518126576415</v>
       </c>
       <c r="N3" t="n">
-        <v>211.3190711736703</v>
+        <v>211.31907117367</v>
       </c>
       <c r="O3" t="n">
-        <v>193.3156655923049</v>
+        <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479579</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q3" t="n">
-        <v>103.7155811639066</v>
+        <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034988</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S3" t="n">
-        <v>15.09192847131474</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372669</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619159</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,49 +31199,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078619</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644449</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I4" t="n">
-        <v>20.48485313492007</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813583</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K4" t="n">
-        <v>79.14039391302248</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L4" t="n">
-        <v>101.2724571246925</v>
+        <v>101.2724571246924</v>
       </c>
       <c r="M4" t="n">
-        <v>106.7776065917251</v>
+        <v>106.777606591725</v>
       </c>
       <c r="N4" t="n">
-        <v>104.2386737666595</v>
+        <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175855</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P4" t="n">
-        <v>82.38527391383811</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678015</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701167</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S4" t="n">
-        <v>11.87105908695337</v>
+        <v>11.87105908695336</v>
       </c>
       <c r="T4" t="n">
-        <v>2.910483970197227</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U4" t="n">
-        <v>0.03715511451315615</v>
+        <v>0.0371551145131561</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31278,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1.518567494340047</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H5" t="n">
-        <v>15.55202935141001</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554473</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J5" t="n">
-        <v>128.8865178727437</v>
+        <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081579</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L5" t="n">
-        <v>239.6413398630672</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M5" t="n">
-        <v>266.647164540537</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N5" t="n">
-        <v>270.9617944338307</v>
+        <v>270.9617944338304</v>
       </c>
       <c r="O5" t="n">
-        <v>255.8615389119868</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P5" t="n">
-        <v>218.3719038954669</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q5" t="n">
-        <v>163.9882055044139</v>
+        <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633807</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727386</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.64752920647356</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U5" t="n">
-        <v>0.1214853995472037</v>
+        <v>0.1214853995472036</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31357,49 +31357,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141117</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188923</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I6" t="n">
-        <v>27.97441286890692</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396484</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K6" t="n">
-        <v>131.2017781649103</v>
+        <v>131.2017781649102</v>
       </c>
       <c r="L6" t="n">
-        <v>176.4169820478009</v>
+        <v>176.4169820478007</v>
       </c>
       <c r="M6" t="n">
-        <v>205.8702969983124</v>
+        <v>205.8702969983122</v>
       </c>
       <c r="N6" t="n">
-        <v>211.3190711736702</v>
+        <v>211.31907117367</v>
       </c>
       <c r="O6" t="n">
-        <v>193.3156655923049</v>
+        <v>73.87984549392695</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479579</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q6" t="n">
-        <v>103.7155811639066</v>
+        <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034987</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S6" t="n">
-        <v>15.09192847131474</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372669</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619158</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,49 +31436,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078618</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644449</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I7" t="n">
-        <v>20.48485313492007</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813582</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
-        <v>79.14039391302246</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L7" t="n">
-        <v>101.2724571246925</v>
+        <v>101.2724571246924</v>
       </c>
       <c r="M7" t="n">
-        <v>106.7776065917251</v>
+        <v>106.777606591725</v>
       </c>
       <c r="N7" t="n">
-        <v>104.2386737666595</v>
+        <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175854</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P7" t="n">
-        <v>82.38527391383809</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678014</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701167</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S7" t="n">
-        <v>11.87105908695337</v>
+        <v>11.87105908695336</v>
       </c>
       <c r="T7" t="n">
-        <v>2.910483970197227</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U7" t="n">
-        <v>0.03715511451315614</v>
+        <v>0.0371551145131561</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31521,19 +31521,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L8" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N8" t="n">
         <v>270.9617944338304</v>
@@ -31548,13 +31548,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31594,16 +31594,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I9" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31615,28 +31615,28 @@
         <v>205.8702969983122</v>
       </c>
       <c r="N9" t="n">
-        <v>91.88325107529209</v>
+        <v>211.31907117367</v>
       </c>
       <c r="O9" t="n">
-        <v>193.3156655923047</v>
+        <v>73.87984549392741</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q9" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S9" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,16 +31673,16 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I10" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
         <v>79.14039391302239</v>
@@ -31697,16 +31697,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P10" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
@@ -31840,10 +31840,10 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J12" t="n">
-        <v>168.7478056215733</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K12" t="n">
-        <v>288.4168775622982</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -31852,10 +31852,10 @@
         <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>380.4309478731437</v>
       </c>
       <c r="O12" t="n">
-        <v>105.4166885228177</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P12" t="n">
         <v>341.0678223458549</v>
@@ -31864,7 +31864,7 @@
         <v>227.9948068710956</v>
       </c>
       <c r="R12" t="n">
-        <v>110.8952201095118</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S12" t="n">
         <v>33.17612723677464</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H14" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I14" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J14" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961203</v>
       </c>
       <c r="K14" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041487</v>
       </c>
       <c r="L14" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304439</v>
       </c>
       <c r="M14" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N14" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927185</v>
       </c>
       <c r="O14" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540885</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946991</v>
       </c>
       <c r="Q14" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647495</v>
       </c>
       <c r="R14" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446477</v>
       </c>
       <c r="S14" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104647</v>
       </c>
       <c r="T14" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U14" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354892</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,34 +32068,34 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H15" t="n">
-        <v>17.25001940386726</v>
+        <v>17.25001940386725</v>
       </c>
       <c r="I15" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127063</v>
       </c>
       <c r="J15" t="n">
-        <v>168.7478056215734</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K15" t="n">
         <v>288.4168775622982</v>
       </c>
       <c r="L15" t="n">
-        <v>116.1540744796867</v>
+        <v>268.365072613514</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>341.0678223458549</v>
+        <v>341.0678223458548</v>
       </c>
       <c r="Q15" t="n">
         <v>227.9948068710956</v>
@@ -32104,10 +32104,10 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S15" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T15" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361488</v>
       </c>
       <c r="U15" t="n">
         <v>0.1175069441680331</v>
@@ -32153,7 +32153,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I16" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298629</v>
       </c>
       <c r="J16" t="n">
         <v>105.8669502822383</v>
@@ -32168,10 +32168,10 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N16" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O16" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065631</v>
       </c>
       <c r="P16" t="n">
         <v>181.1050413469073</v>
@@ -32180,16 +32180,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R16" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S16" t="n">
-        <v>26.09578805336901</v>
+        <v>26.095788053369</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892244</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32235,7 +32235,7 @@
         <v>128.6967545176652</v>
       </c>
       <c r="J17" t="n">
-        <v>283.3273112961203</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K17" t="n">
         <v>424.6341946041488</v>
@@ -32320,25 +32320,25 @@
         <v>288.4168775622982</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N18" t="n">
-        <v>464.5362854813462</v>
+        <v>392.6063366508803</v>
       </c>
       <c r="O18" t="n">
-        <v>172.8703422968006</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>341.0678223458549</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>227.9948068710956</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>110.8952201095118</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S18" t="n">
         <v>33.17612723677465</v>
@@ -32496,7 +32496,7 @@
         <v>360.4902833647496</v>
       </c>
       <c r="R20" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446473</v>
       </c>
       <c r="S20" t="n">
         <v>76.0697047810465</v>
@@ -32551,7 +32551,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J21" t="n">
-        <v>0.7465913262578567</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K21" t="n">
         <v>288.4168775622982</v>
@@ -32566,16 +32566,16 @@
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>321.3397097835</v>
       </c>
       <c r="P21" t="n">
-        <v>341.0678223458549</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>227.9948068710956</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>110.8952201095118</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S21" t="n">
         <v>33.17612723677465</v>
@@ -32709,7 +32709,7 @@
         <v>128.6967545176652</v>
       </c>
       <c r="J23" t="n">
-        <v>283.3273112961203</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K23" t="n">
         <v>424.6341946041488</v>
@@ -32797,16 +32797,16 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>224.6051223555648</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>341.0678223458549</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -33031,22 +33031,22 @@
         <v>288.4168775622982</v>
       </c>
       <c r="L27" t="n">
-        <v>116.1540744796867</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>224.6051223555648</v>
       </c>
       <c r="O27" t="n">
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>341.0678223458549</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>227.9948068710956</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>100.1578341526431</v>
@@ -33174,49 +33174,49 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H29" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I29" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J29" t="n">
-        <v>283.3273112961203</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K29" t="n">
-        <v>424.6341946041487</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L29" t="n">
-        <v>526.7962671304439</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M29" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N29" t="n">
-        <v>595.6470695927185</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O29" t="n">
-        <v>562.4526372540885</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P29" t="n">
-        <v>480.0403130946991</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q29" t="n">
-        <v>360.4902833647495</v>
+        <v>360.4902833647499</v>
       </c>
       <c r="R29" t="n">
-        <v>209.6945076446477</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S29" t="n">
-        <v>76.06970478104647</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T29" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U29" t="n">
-        <v>0.2670576580354892</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33253,46 +33253,46 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H30" t="n">
-        <v>17.25001940386725</v>
+        <v>17.25001940386726</v>
       </c>
       <c r="I30" t="n">
-        <v>61.49530078127063</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K30" t="n">
         <v>288.4168775622982</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N30" t="n">
-        <v>20.45724131309549</v>
+        <v>224.6051223555648</v>
       </c>
       <c r="O30" t="n">
-        <v>424.9599466855525</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>341.0678223458548</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>139.9817740860215</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>110.8952201095118</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S30" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T30" t="n">
-        <v>7.199258779361488</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U30" t="n">
         <v>0.1175069441680331</v>
@@ -33338,7 +33338,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I31" t="n">
-        <v>45.03122946298629</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J31" t="n">
         <v>105.8669502822383</v>
@@ -33353,10 +33353,10 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N31" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O31" t="n">
-        <v>211.6522236065631</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P31" t="n">
         <v>181.1050413469073</v>
@@ -33365,16 +33365,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R31" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S31" t="n">
-        <v>26.095788053369</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892244</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,16 +33411,16 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H32" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I32" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J32" t="n">
-        <v>283.3273112961215</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K32" t="n">
         <v>424.6341946041488</v>
@@ -33429,7 +33429,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M32" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N32" t="n">
         <v>595.6470695927186</v>
@@ -33438,7 +33438,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P32" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q32" t="n">
         <v>360.4902833647496</v>
@@ -33447,7 +33447,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S32" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T32" t="n">
         <v>14.61306122562944</v>
@@ -33490,7 +33490,7 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H33" t="n">
         <v>17.25001940386726</v>
@@ -33499,37 +33499,37 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J33" t="n">
-        <v>0.7465913262578567</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K33" t="n">
         <v>288.4168775622982</v>
       </c>
       <c r="L33" t="n">
-        <v>31.19462726996414</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>224.6051223555648</v>
       </c>
       <c r="O33" t="n">
-        <v>424.9599466855526</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>341.0678223458549</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>110.8952201095118</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S33" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T33" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U33" t="n">
         <v>0.1175069441680331</v>
@@ -33590,7 +33590,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N34" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O34" t="n">
         <v>211.6522236065632</v>
@@ -33602,16 +33602,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R34" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S34" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,16 +33648,16 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H35" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I35" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J35" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K35" t="n">
         <v>424.6341946041488</v>
@@ -33666,7 +33666,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M35" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N35" t="n">
         <v>595.6470695927186</v>
@@ -33675,7 +33675,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P35" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q35" t="n">
         <v>360.4902833647496</v>
@@ -33684,7 +33684,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S35" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T35" t="n">
         <v>14.61306122562944</v>
@@ -33727,7 +33727,7 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H36" t="n">
         <v>17.25001940386726</v>
@@ -33736,37 +33736,37 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K36" t="n">
         <v>288.4168775622982</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M36" t="n">
-        <v>379.1952895301843</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>392.6063366508803</v>
       </c>
       <c r="O36" t="n">
-        <v>424.9599466855526</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>341.0678223458549</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>139.9817740860215</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>100.1578341526431</v>
       </c>
       <c r="S36" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T36" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U36" t="n">
         <v>0.1175069441680331</v>
@@ -33827,7 +33827,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N37" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O37" t="n">
         <v>211.6522236065632</v>
@@ -33839,16 +33839,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R37" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S37" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,16 +33885,16 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H38" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I38" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J38" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K38" t="n">
         <v>424.6341946041488</v>
@@ -33903,7 +33903,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M38" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N38" t="n">
         <v>595.6470695927186</v>
@@ -33921,7 +33921,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S38" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T38" t="n">
         <v>14.61306122562944</v>
@@ -33964,7 +33964,7 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H39" t="n">
         <v>17.25001940386726</v>
@@ -33976,34 +33976,34 @@
         <v>0.7465913262578567</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M39" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>392.6063366508803</v>
       </c>
       <c r="O39" t="n">
-        <v>352.8324835862117</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>341.0678223458549</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>227.9948068710956</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S39" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T39" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U39" t="n">
         <v>0.1175069441680331</v>
@@ -34064,7 +34064,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N40" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O40" t="n">
         <v>211.6522236065632</v>
@@ -34076,16 +34076,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R40" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S40" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34155,7 +34155,7 @@
         <v>360.4902833647496</v>
       </c>
       <c r="R41" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446473</v>
       </c>
       <c r="S41" t="n">
         <v>76.0697047810465</v>
@@ -34219,22 +34219,22 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>392.6063366508803</v>
       </c>
       <c r="O42" t="n">
-        <v>424.9599466855526</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>9.931074186978634</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>227.9948068710956</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>110.8952201095118</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S42" t="n">
         <v>33.17612723677465</v>
@@ -34368,7 +34368,7 @@
         <v>128.6967545176652</v>
       </c>
       <c r="J44" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961203</v>
       </c>
       <c r="K44" t="n">
         <v>424.6341946041488</v>
@@ -34389,7 +34389,7 @@
         <v>480.0403130946993</v>
       </c>
       <c r="Q44" t="n">
-        <v>360.4902833647499</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R44" t="n">
         <v>209.6945076446478</v>
@@ -34447,31 +34447,31 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J45" t="n">
-        <v>168.7478056215734</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M45" t="n">
         <v>452.5584109724846</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>392.6063366508803</v>
       </c>
       <c r="O45" t="n">
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>156.2519421180773</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>227.9948068710956</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>110.8952201095118</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S45" t="n">
         <v>33.17612723677465</v>
@@ -34698,28 +34698,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.9372285181312</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K2" t="n">
-        <v>297.2230414343421</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435304</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060968</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N2" t="n">
-        <v>478.895655249224</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O2" t="n">
-        <v>406.5635087530455</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P2" t="n">
-        <v>308.93761631168</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q2" t="n">
-        <v>153.9975062898691</v>
+        <v>153.9975062898689</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34777,28 +34777,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.017335757707</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>257.8255762031299</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L3" t="n">
-        <v>289.2671274730084</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M3" t="n">
-        <v>529.441326826294</v>
+        <v>486.0228424856231</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338905</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O3" t="n">
-        <v>444.58174042459</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735648</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
-        <v>173.8110948137342</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34859,22 +34859,22 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>56.87090208713963</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L4" t="n">
-        <v>128.8624823850087</v>
+        <v>128.8624823850085</v>
       </c>
       <c r="M4" t="n">
-        <v>146.3614835535657</v>
+        <v>146.3614835535656</v>
       </c>
       <c r="N4" t="n">
-        <v>148.3708461458881</v>
+        <v>148.370846145888</v>
       </c>
       <c r="O4" t="n">
-        <v>120.8664146557982</v>
+        <v>120.8664146557981</v>
       </c>
       <c r="P4" t="n">
-        <v>79.66383317873159</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -34935,28 +34935,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.9372285181312</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K5" t="n">
-        <v>297.2230414343421</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435304</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060968</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492239</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
-        <v>406.5635087530454</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P5" t="n">
-        <v>308.93761631168</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q5" t="n">
-        <v>153.9975062898691</v>
+        <v>153.9975062898689</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35014,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.01733575770699</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K6" t="n">
-        <v>257.8255762031299</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L6" t="n">
-        <v>289.2671274730072</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M6" t="n">
-        <v>529.441326826294</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338904</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
-        <v>444.58174042459</v>
+        <v>325.145920326212</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735648</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
-        <v>173.8110948137342</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35096,22 +35096,22 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>56.87090208713961</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L7" t="n">
-        <v>128.8624823850086</v>
+        <v>128.8624823850085</v>
       </c>
       <c r="M7" t="n">
-        <v>146.3614835535657</v>
+        <v>146.3614835535656</v>
       </c>
       <c r="N7" t="n">
-        <v>148.3708461458881</v>
+        <v>148.370846145888</v>
       </c>
       <c r="O7" t="n">
-        <v>120.8664146557982</v>
+        <v>120.8664146557981</v>
       </c>
       <c r="P7" t="n">
-        <v>79.66383317873158</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35172,19 +35172,19 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K8" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
         <v>406.5635087530452</v>
@@ -35251,7 +35251,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.01733575770692</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
@@ -35263,13 +35263,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>439.8839133355123</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245898</v>
+        <v>325.1459203262125</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
         <v>173.8110948137341</v>
@@ -35488,22 +35488,22 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>41.91017895490666</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>415.0406756005178</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
         <v>323.5710298279816</v>
       </c>
       <c r="N12" t="n">
-        <v>348.0006622602202</v>
+        <v>728.431610133364</v>
       </c>
       <c r="O12" t="n">
-        <v>356.6827633551028</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P12" t="n">
         <v>525.5561835714618</v>
@@ -35512,7 +35512,7 @@
         <v>298.0903205209232</v>
       </c>
       <c r="R12" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35646,31 +35646,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K14" t="n">
-        <v>528.6897561303331</v>
+        <v>528.6897561303329</v>
       </c>
       <c r="L14" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109071</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N14" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081117</v>
       </c>
       <c r="O14" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951471</v>
       </c>
       <c r="P14" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109122</v>
       </c>
       <c r="Q14" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502047</v>
       </c>
       <c r="R14" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349805</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,22 +35725,22 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>41.91017895490668</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>415.0406756005178</v>
       </c>
       <c r="L15" t="n">
-        <v>348.4400400032717</v>
+        <v>500.651038137099</v>
       </c>
       <c r="M15" t="n">
-        <v>323.5710298279816</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>348.0006622602202</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O15" t="n">
-        <v>251.2660748322851</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
         <v>525.5561835714618</v>
@@ -35804,28 +35804,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556553</v>
+        <v>12.5077701655655</v>
       </c>
       <c r="K16" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L16" t="n">
         <v>250.2141868799285</v>
       </c>
       <c r="M16" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789724</v>
       </c>
       <c r="N16" t="n">
         <v>273.2768778056036</v>
       </c>
       <c r="O16" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P16" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187472</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35883,7 +35883,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>271.3780219415078</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K17" t="n">
         <v>528.6897561303331</v>
@@ -35968,22 +35968,22 @@
         <v>415.0406756005178</v>
       </c>
       <c r="L18" t="n">
-        <v>232.285965523585</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M18" t="n">
-        <v>323.5710298279816</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N18" t="n">
-        <v>333.1945733980129</v>
+        <v>740.6069989111005</v>
       </c>
       <c r="O18" t="n">
-        <v>424.1364171290857</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>525.5561835714618</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>298.0903205209232</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36144,7 +36144,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R20" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36199,7 +36199,7 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K21" t="n">
         <v>415.0406756005178</v>
@@ -36211,16 +36211,16 @@
         <v>776.1294408004662</v>
       </c>
       <c r="N21" t="n">
-        <v>235.4232634586525</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>572.6057846157851</v>
       </c>
       <c r="P21" t="n">
-        <v>207.0934149315247</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>298.0903205209232</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36357,7 +36357,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>271.3780219415078</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K23" t="n">
         <v>528.6897561303331</v>
@@ -36439,22 +36439,22 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K24" t="n">
-        <v>315.3819505248204</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L24" t="n">
         <v>620.0980502594834</v>
       </c>
       <c r="M24" t="n">
-        <v>323.5710298279816</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N24" t="n">
-        <v>348.0006622602202</v>
+        <v>572.6057846157851</v>
       </c>
       <c r="O24" t="n">
-        <v>251.2660748322851</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>525.5561835714618</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -36594,7 +36594,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>271.3780219415069</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K26" t="n">
         <v>528.6897561303331</v>
@@ -36673,28 +36673,28 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K27" t="n">
         <v>415.0406756005178</v>
       </c>
       <c r="L27" t="n">
-        <v>348.4400400032717</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M27" t="n">
-        <v>323.5710298279816</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N27" t="n">
-        <v>348.0006622602202</v>
+        <v>572.6057846157851</v>
       </c>
       <c r="O27" t="n">
-        <v>251.2660748322851</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>525.5561835714618</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>298.0903205209232</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36831,31 +36831,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>271.3780219415078</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K29" t="n">
-        <v>528.6897561303329</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L29" t="n">
-        <v>708.6910667109071</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N29" t="n">
-        <v>803.5809304081117</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O29" t="n">
-        <v>713.1546070951471</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P29" t="n">
-        <v>570.6060255109122</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q29" t="n">
-        <v>350.4995841502047</v>
+        <v>350.4995841502051</v>
       </c>
       <c r="R29" t="n">
-        <v>59.82538970349805</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36910,31 +36910,31 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K30" t="n">
         <v>415.0406756005178</v>
       </c>
       <c r="L30" t="n">
-        <v>232.285965523585</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M30" t="n">
-        <v>323.5710298279816</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N30" t="n">
-        <v>368.4579035733157</v>
+        <v>572.6057846157851</v>
       </c>
       <c r="O30" t="n">
-        <v>676.2260215178376</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>525.5561835714618</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>10.73738595686862</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36989,28 +36989,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>12.5077701655655</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K31" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L31" t="n">
         <v>250.2141868799285</v>
       </c>
       <c r="M31" t="n">
-        <v>274.3098411789724</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N31" t="n">
         <v>273.2768778056036</v>
       </c>
       <c r="O31" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P31" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q31" t="n">
-        <v>39.22569997187472</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37068,16 +37068,16 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>271.378021941509</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K32" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L32" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M32" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N32" t="n">
         <v>803.5809304081118</v>
@@ -37092,7 +37092,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R32" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37147,25 +37147,25 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K33" t="n">
         <v>415.0406756005178</v>
       </c>
       <c r="L33" t="n">
-        <v>263.4805927935491</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M33" t="n">
-        <v>323.5710298279816</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N33" t="n">
-        <v>348.0006622602202</v>
+        <v>572.6057846157851</v>
       </c>
       <c r="O33" t="n">
-        <v>676.2260215178376</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>525.5561835714618</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -37226,10 +37226,10 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K34" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L34" t="n">
         <v>250.2141868799285</v>
@@ -37241,13 +37241,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O34" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P34" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q34" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37308,13 +37308,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K35" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L35" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N35" t="n">
         <v>803.5809304081118</v>
@@ -37329,7 +37329,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37390,19 +37390,19 @@
         <v>415.0406756005178</v>
       </c>
       <c r="L36" t="n">
-        <v>232.285965523585</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M36" t="n">
-        <v>702.7663193581659</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>740.6069989111005</v>
       </c>
       <c r="O36" t="n">
-        <v>676.2260215178376</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>525.5561835714618</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
@@ -37463,10 +37463,10 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K37" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L37" t="n">
         <v>250.2141868799285</v>
@@ -37478,13 +37478,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O37" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P37" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q37" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37545,13 +37545,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K38" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L38" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N38" t="n">
         <v>803.5809304081118</v>
@@ -37566,7 +37566,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37624,25 +37624,25 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M39" t="n">
-        <v>776.1294408004661</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N39" t="n">
-        <v>348.0006622602202</v>
+        <v>740.6069989111005</v>
       </c>
       <c r="O39" t="n">
-        <v>604.0985584184967</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>525.5561835714618</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>298.0903205209232</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37700,10 +37700,10 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K40" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L40" t="n">
         <v>250.2141868799285</v>
@@ -37715,13 +37715,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O40" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P40" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q40" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37803,7 +37803,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37867,19 +37867,19 @@
         <v>620.0980502594834</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N42" t="n">
-        <v>348.0006622602202</v>
+        <v>740.6069989111005</v>
       </c>
       <c r="O42" t="n">
-        <v>676.2260215178377</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>194.4194354125856</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>298.0903205209232</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38016,7 +38016,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K44" t="n">
         <v>528.6897561303331</v>
@@ -38037,7 +38037,7 @@
         <v>570.6060255109123</v>
       </c>
       <c r="Q44" t="n">
-        <v>350.4995841502051</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R44" t="n">
         <v>59.8253897034981</v>
@@ -38095,31 +38095,31 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>168.0012142953155</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>126.6237980382196</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L45" t="n">
-        <v>232.285965523585</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M45" t="n">
         <v>776.1294408004662</v>
       </c>
       <c r="N45" t="n">
-        <v>348.0006622602202</v>
+        <v>740.6069989111005</v>
       </c>
       <c r="O45" t="n">
-        <v>251.2660748322851</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>340.7403033436842</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>298.0903205209232</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_0_35.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_0_35.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3649702.650624981</v>
+        <v>3654641.913474013</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>654627.9814908284</v>
+        <v>690211.5867132556</v>
       </c>
     </row>
     <row r="8">
@@ -673,13 +673,13 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>13.784170020795</v>
+        <v>255.7392110914381</v>
       </c>
       <c r="H2" t="n">
-        <v>314.6536463267108</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>151.9313162448612</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -706,7 +706,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481171</v>
+        <v>54.47840257481167</v>
       </c>
       <c r="S2" t="n">
         <v>174.4157128089715</v>
@@ -715,7 +715,7 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -755,10 +755,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H3" t="n">
-        <v>104.3883541553076</v>
+        <v>104.3883541553075</v>
       </c>
       <c r="I3" t="n">
-        <v>61.42221998250796</v>
+        <v>61.42221998250817</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -785,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229329</v>
       </c>
       <c r="S3" t="n">
         <v>156.5912426325231</v>
@@ -819,10 +819,10 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
@@ -831,16 +831,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>52.10844059186244</v>
+        <v>14.52687838733176</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>45.19995918853698</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -898,7 +898,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
@@ -910,7 +910,7 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>129.1901879642572</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -946,13 +946,13 @@
         <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>175.7730064897154</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -1074,10 +1074,10 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1104,25 +1104,25 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>22.99537910748689</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>43.31785343913981</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1132,28 +1132,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>109.7425532763978</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1180,28 +1180,28 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>163.8950372953905</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1290,7 +1290,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
@@ -1302,7 +1302,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1356,10 +1356,10 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>59.72683757586846</v>
       </c>
       <c r="Y10" t="n">
-        <v>25.31590541686241</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1372,7 +1372,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710066</v>
       </c>
       <c r="D11" t="n">
         <v>354.683041620683</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>132.9503648051984</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T11" t="n">
         <v>208.4827883385019</v>
@@ -1578,7 +1578,7 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>115.5269768002178</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
         <v>221.5475610583892</v>
@@ -1587,7 +1587,7 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>169.7438101404424</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
@@ -1627,7 +1627,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.7791350527408</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1669,13 +1669,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>349.2409687174121</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560531</v>
       </c>
     </row>
     <row r="15">
@@ -1706,7 +1706,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014445</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1767,25 +1767,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>165.4253228447364</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1821,16 +1821,16 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>164.3675597136119</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -1864,7 +1864,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274049</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T17" t="n">
         <v>208.4827883385019</v>
@@ -1943,7 +1943,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -2061,16 +2061,16 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>143.3158222056515</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>169.7438101404423</v>
       </c>
     </row>
     <row r="20">
@@ -2098,10 +2098,10 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H20" t="n">
-        <v>305.2872491113174</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274074</v>
+        <v>81.7791350527396</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T20" t="n">
         <v>208.4827883385019</v>
@@ -2180,7 +2180,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2295,7 +2295,7 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2373523985773</v>
+        <v>203.8435192151918</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2304,7 +2304,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>143.3158222056515</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -2332,13 +2332,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896903</v>
       </c>
       <c r="H23" t="n">
-        <v>305.2872491113174</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T23" t="n">
         <v>208.4827883385019</v>
@@ -2417,7 +2417,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2490,7 +2490,7 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2523,19 +2523,19 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>88.99177052521325</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
@@ -2544,7 +2544,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>47.27820527287692</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2563,7 +2563,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722626</v>
       </c>
       <c r="F26" t="n">
         <v>406.8760457417114</v>
@@ -2575,7 +2575,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2605,10 +2605,10 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T26" t="n">
-        <v>208.482788338502</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U26" t="n">
         <v>251.078595249801</v>
@@ -2654,7 +2654,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2712,16 +2712,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -2766,10 +2766,10 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2373523985773</v>
+        <v>255.3303665522258</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2778,10 +2778,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>67.08991894886655</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2812,7 +2812,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I29" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T29" t="n">
         <v>208.4827883385019</v>
@@ -2891,7 +2891,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2949,7 +2949,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -3006,7 +3006,7 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -3015,10 +3015,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>31.13654107019678</v>
+        <v>143.3158222056514</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3049,7 +3049,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I32" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T32" t="n">
         <v>208.4827883385019</v>
@@ -3128,7 +3128,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3237,7 +3237,7 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>197.9208099836032</v>
+        <v>115.5269768002176</v>
       </c>
       <c r="T34" t="n">
         <v>221.5475610583892</v>
@@ -3249,7 +3249,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>204.1291651532053</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
@@ -3277,7 +3277,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417123</v>
       </c>
       <c r="G35" t="n">
         <v>411.9645167896915</v>
@@ -3286,7 +3286,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T35" t="n">
         <v>208.4827883385019</v>
@@ -3365,7 +3365,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3480,7 +3480,7 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2373523985773</v>
+        <v>203.8435192151917</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -3489,10 +3489,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>143.3158222056515</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3523,7 +3523,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I38" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274071</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648052002</v>
       </c>
       <c r="T38" t="n">
         <v>208.4827883385019</v>
@@ -3602,7 +3602,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014441</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3720,13 +3720,13 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>169.7438101404427</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>143.3158222056515</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -3760,7 +3760,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274068</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3839,7 +3839,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014441</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3869,7 +3869,7 @@
         <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>138.5070438670632</v>
+        <v>138.5070438670631</v>
       </c>
       <c r="T42" t="n">
         <v>192.9654699154601</v>
@@ -3945,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>197.9208099836032</v>
@@ -3954,7 +3954,7 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2373523985773</v>
+        <v>203.8435192151923</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -3963,7 +3963,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>33.35146980185879</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -4188,10 +4188,10 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T46" t="n">
-        <v>221.5475610583892</v>
+        <v>206.806426921486</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4200,10 +4200,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>143.3158222056515</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -4306,52 +4306,52 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>546.109828622464</v>
+        <v>799.8716139843725</v>
       </c>
       <c r="C2" t="n">
-        <v>546.109828622464</v>
+        <v>799.8716139843725</v>
       </c>
       <c r="D2" t="n">
-        <v>546.109828622464</v>
+        <v>799.8716139843725</v>
       </c>
       <c r="E2" t="n">
-        <v>546.109828622464</v>
+        <v>799.8716139843725</v>
       </c>
       <c r="F2" t="n">
-        <v>539.1643278732605</v>
+        <v>792.9261132351691</v>
       </c>
       <c r="G2" t="n">
-        <v>525.2409238118514</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H2" t="n">
         <v>207.4089578252748</v>
       </c>
       <c r="I2" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533143</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O2" t="n">
-        <v>2238.843319642689</v>
+        <v>2238.84331964269</v>
       </c>
       <c r="P2" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q2" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R2" t="n">
         <v>2642.120401548716</v>
@@ -4360,22 +4360,22 @@
         <v>2465.942913862886</v>
       </c>
       <c r="T2" t="n">
-        <v>2247.308246834948</v>
+        <v>2247.308246834949</v>
       </c>
       <c r="U2" t="n">
-        <v>1993.54646147304</v>
+        <v>2247.308246834949</v>
       </c>
       <c r="V2" t="n">
-        <v>1662.48357412947</v>
+        <v>1916.245359491378</v>
       </c>
       <c r="W2" t="n">
-        <v>1309.714918859356</v>
+        <v>1563.476704221264</v>
       </c>
       <c r="X2" t="n">
-        <v>936.2491605982757</v>
+        <v>1190.010945960184</v>
       </c>
       <c r="Y2" t="n">
-        <v>546.109828622464</v>
+        <v>799.8716139843725</v>
       </c>
     </row>
     <row r="3">
@@ -4385,37 +4385,37 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C3" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747047</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E3" t="n">
-        <v>505.8730812692492</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424005</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I3" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J3" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K3" t="n">
-        <v>309.190302261463</v>
+        <v>266.206002764199</v>
       </c>
       <c r="L3" t="n">
-        <v>713.8062203571349</v>
+        <v>670.8219208598709</v>
       </c>
       <c r="M3" t="n">
         <v>1194.968834417902</v>
@@ -4430,22 +4430,22 @@
         <v>2525.076107152626</v>
       </c>
       <c r="Q3" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R3" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S3" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T3" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U3" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V3" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W3" t="n">
         <v>1572.325111207638</v>
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="C4" t="n">
-        <v>2697.149091018222</v>
+        <v>559.1928012785277</v>
       </c>
       <c r="D4" t="n">
-        <v>2697.149091018222</v>
+        <v>409.0761618661919</v>
       </c>
       <c r="E4" t="n">
-        <v>2549.235997435829</v>
+        <v>261.1630682837988</v>
       </c>
       <c r="F4" t="n">
-        <v>2402.346049937919</v>
+        <v>114.2731207858884</v>
       </c>
       <c r="G4" t="n">
-        <v>2233.346249676251</v>
+        <v>114.2731207858884</v>
       </c>
       <c r="H4" t="n">
-        <v>2075.597877108782</v>
+        <v>114.2731207858884</v>
       </c>
       <c r="I4" t="n">
-        <v>2022.963088632153</v>
+        <v>99.59950625323009</v>
       </c>
       <c r="J4" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K4" t="n">
-        <v>2079.265281698421</v>
+        <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>2206.839139259579</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M4" t="n">
-        <v>2351.737007977609</v>
+        <v>382.7169011658211</v>
       </c>
       <c r="N4" t="n">
-        <v>2498.624145662038</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O4" t="n">
-        <v>2618.281896171278</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P4" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="Q4" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="R4" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="S4" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="T4" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="U4" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="V4" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="W4" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="X4" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="Y4" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064346</v>
       </c>
     </row>
     <row r="5">
@@ -4543,19 +4543,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>549.649320534154</v>
+        <v>802.0401021781393</v>
       </c>
       <c r="C5" t="n">
-        <v>549.649320534154</v>
+        <v>433.0775852377275</v>
       </c>
       <c r="D5" t="n">
-        <v>191.3836219274035</v>
+        <v>74.81188663097703</v>
       </c>
       <c r="E5" t="n">
-        <v>191.3836219274035</v>
+        <v>74.81188663097703</v>
       </c>
       <c r="F5" t="n">
-        <v>184.4381211782</v>
+        <v>67.86638588177355</v>
       </c>
       <c r="G5" t="n">
         <v>53.94298182036445</v>
@@ -4567,19 +4567,19 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
@@ -4594,25 +4594,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2465.942913862886</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T5" t="n">
-        <v>2247.308246834948</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="U5" t="n">
-        <v>1993.54646147304</v>
+        <v>2245.937243117025</v>
       </c>
       <c r="V5" t="n">
-        <v>1662.48357412947</v>
+        <v>1914.874355773455</v>
       </c>
       <c r="W5" t="n">
-        <v>1309.714918859356</v>
+        <v>1562.105700503341</v>
       </c>
       <c r="X5" t="n">
-        <v>936.2491605982757</v>
+        <v>1188.639942242261</v>
       </c>
       <c r="Y5" t="n">
-        <v>936.2491605982757</v>
+        <v>1188.639942242261</v>
       </c>
     </row>
     <row r="6">
@@ -4622,19 +4622,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.4979752170825</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C6" t="n">
-        <v>814.0449459359555</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747047</v>
       </c>
       <c r="E6" t="n">
-        <v>505.8730812692486</v>
+        <v>505.8730812692492</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G6" t="n">
         <v>221.4284102424003</v>
@@ -4643,28 +4643,28 @@
         <v>115.9856282673422</v>
       </c>
       <c r="I6" t="n">
+        <v>53.94298182036423</v>
+      </c>
+      <c r="J6" t="n">
         <v>53.94298182036445</v>
       </c>
-      <c r="J6" t="n">
-        <v>129.2001442204943</v>
-      </c>
       <c r="K6" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L6" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M6" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N6" t="n">
-        <v>1866.936832414847</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O6" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P6" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q6" t="n">
         <v>2697.149091018222</v>
@@ -4685,10 +4685,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W6" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X6" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y6" t="n">
         <v>1156.713312237151</v>
@@ -4701,28 +4701,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>235.9284171545819</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C7" t="n">
-        <v>235.9284171545819</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D7" t="n">
-        <v>235.9284171545819</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E7" t="n">
-        <v>235.9284171545819</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F7" t="n">
-        <v>235.9284171545819</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G7" t="n">
-        <v>235.9284171545819</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H7" t="n">
-        <v>235.9284171545819</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I7" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J7" t="n">
         <v>53.94298182036445</v>
@@ -4752,25 +4752,25 @@
         <v>728.1289842064342</v>
       </c>
       <c r="S7" t="n">
-        <v>513.8405610245969</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T7" t="n">
-        <v>513.8405610245969</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U7" t="n">
-        <v>490.6129053604687</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V7" t="n">
-        <v>235.9284171545819</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W7" t="n">
-        <v>235.9284171545819</v>
+        <v>684.3735766921516</v>
       </c>
       <c r="X7" t="n">
-        <v>235.9284171545819</v>
+        <v>456.3840257941342</v>
       </c>
       <c r="Y7" t="n">
-        <v>235.9284171545819</v>
+        <v>235.5914466506042</v>
       </c>
     </row>
     <row r="8">
@@ -4780,37 +4780,37 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2476.569858826099</v>
+        <v>940.4137200851862</v>
       </c>
       <c r="C8" t="n">
-        <v>2107.607341885688</v>
+        <v>571.4512031447746</v>
       </c>
       <c r="D8" t="n">
-        <v>1749.341643278937</v>
+        <v>460.6001392292213</v>
       </c>
       <c r="E8" t="n">
-        <v>1363.553390680693</v>
+        <v>74.81188663097703</v>
       </c>
       <c r="F8" t="n">
-        <v>952.5674858910851</v>
+        <v>67.86638588177355</v>
       </c>
       <c r="G8" t="n">
-        <v>534.603677789272</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H8" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533143</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733124</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224077</v>
+        <v>881.2824271224073</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
@@ -4822,34 +4822,34 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S8" t="n">
-        <v>2476.569858826099</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T8" t="n">
-        <v>2476.569858826099</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U8" t="n">
-        <v>2476.569858826099</v>
+        <v>2443.387305656314</v>
       </c>
       <c r="V8" t="n">
-        <v>2476.569858826099</v>
+        <v>2443.387305656314</v>
       </c>
       <c r="W8" t="n">
-        <v>2476.569858826099</v>
+        <v>2090.6186503862</v>
       </c>
       <c r="X8" t="n">
-        <v>2476.569858826099</v>
+        <v>1717.15289212512</v>
       </c>
       <c r="Y8" t="n">
-        <v>2476.569858826099</v>
+        <v>1327.013560149308</v>
       </c>
     </row>
     <row r="9">
@@ -4859,43 +4859,43 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>988.4979752170833</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C9" t="n">
-        <v>814.0449459359563</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D9" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E9" t="n">
-        <v>505.8730812692495</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F9" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H9" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
         <v>129.2001442204943</v>
       </c>
       <c r="K9" t="n">
-        <v>384.4474646615928</v>
+        <v>266.206002764199</v>
       </c>
       <c r="L9" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598708</v>
       </c>
       <c r="M9" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N9" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O9" t="n">
         <v>2188.831293537797</v>
@@ -4904,28 +4904,28 @@
         <v>2525.076107152626</v>
       </c>
       <c r="Q9" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R9" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S9" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T9" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U9" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V9" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W9" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X9" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y9" t="n">
         <v>1156.713312237151</v>
@@ -4938,31 +4938,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>520.9088977430002</v>
+        <v>667.7988452409105</v>
       </c>
       <c r="C10" t="n">
-        <v>351.9727148150933</v>
+        <v>498.8626623130036</v>
       </c>
       <c r="D10" t="n">
-        <v>201.8560754027576</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="E10" t="n">
-        <v>53.94298182036446</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="F10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
@@ -4971,43 +4971,43 @@
         <v>237.819032447791</v>
       </c>
       <c r="M10" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N10" t="n">
-        <v>529.60403885025</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594902</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U10" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V10" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W10" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X10" t="n">
-        <v>728.1289842064343</v>
+        <v>667.7988452409105</v>
       </c>
       <c r="Y10" t="n">
-        <v>702.55736257324</v>
+        <v>667.7988452409105</v>
       </c>
     </row>
     <row r="11">
@@ -5017,7 +5017,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C11" t="n">
         <v>2059.358867610191</v>
@@ -5044,7 +5044,7 @@
         <v>365.8813331823785</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L11" t="n">
         <v>1590.888347795206</v>
@@ -5059,7 +5059,7 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q11" t="n">
         <v>4801.62743720783</v>
@@ -5068,25 +5068,25 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T11" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U11" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W11" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y11" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="12">
@@ -5132,16 +5132,16 @@
         <v>417.5524109899876</v>
       </c>
       <c r="N12" t="n">
-        <v>1138.699705022018</v>
+        <v>1221.963989254138</v>
       </c>
       <c r="O12" t="n">
-        <v>1808.163466324677</v>
+        <v>1797.533454227377</v>
       </c>
       <c r="P12" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q12" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R12" t="n">
         <v>2623.573505376138</v>
@@ -5226,13 +5226,13 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S13" t="n">
-        <v>1382.222354598086</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T13" t="n">
-        <v>1158.436939387592</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U13" t="n">
-        <v>869.3083006011506</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V13" t="n">
         <v>614.6238123952637</v>
@@ -5254,7 +5254,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C14" t="n">
         <v>2059.358867610191</v>
@@ -5272,22 +5272,22 @@
         <v>488.193237080547</v>
       </c>
       <c r="H14" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I14" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823781</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L14" t="n">
         <v>1590.888347795206</v>
       </c>
       <c r="M14" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N14" t="n">
         <v>3183.709822619127</v>
@@ -5305,16 +5305,16 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S14" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T14" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U14" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W14" t="n">
         <v>3578.526314851616</v>
@@ -5323,7 +5323,7 @@
         <v>3205.060556590536</v>
       </c>
       <c r="Y14" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="15">
@@ -5412,25 +5412,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>841.7907383782454</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C16" t="n">
-        <v>672.8545554503385</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D16" t="n">
-        <v>522.7379160380027</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E16" t="n">
-        <v>522.7379160380027</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F16" t="n">
-        <v>375.8479685400923</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G16" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H16" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I16" t="n">
         <v>97.21709146028584</v>
@@ -5439,19 +5439,19 @@
         <v>109.5997839241957</v>
       </c>
       <c r="K16" t="n">
-        <v>259.7851881688071</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L16" t="n">
-        <v>507.4972331799363</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M16" t="n">
-        <v>779.0639759471189</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N16" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O16" t="n">
-        <v>1283.483062980063</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P16" t="n">
         <v>1460.082827585746</v>
@@ -5469,19 +5469,19 @@
         <v>1498.916270557902</v>
       </c>
       <c r="U16" t="n">
-        <v>1498.916270557902</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="V16" t="n">
-        <v>1244.231782352015</v>
+        <v>955.1031435655738</v>
       </c>
       <c r="W16" t="n">
-        <v>1244.231782352015</v>
+        <v>665.6859735286132</v>
       </c>
       <c r="X16" t="n">
-        <v>1244.231782352015</v>
+        <v>499.6581354340557</v>
       </c>
       <c r="Y16" t="n">
-        <v>1023.439203208485</v>
+        <v>278.8655562905255</v>
       </c>
     </row>
     <row r="17">
@@ -5497,28 +5497,28 @@
         <v>2059.358867610191</v>
       </c>
       <c r="D17" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E17" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F17" t="n">
-        <v>904.3190116155886</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G17" t="n">
-        <v>488.1932370805467</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H17" t="n">
-        <v>179.8222783822459</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L17" t="n">
         <v>1590.888347795206</v>
@@ -5533,7 +5533,7 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q17" t="n">
         <v>4801.62743720783</v>
@@ -5709,13 +5709,13 @@
         <v>786.0822064765186</v>
       </c>
       <c r="V19" t="n">
-        <v>531.3977182706318</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="W19" t="n">
-        <v>241.9805482336712</v>
+        <v>496.665036439558</v>
       </c>
       <c r="X19" t="n">
-        <v>97.21709146028584</v>
+        <v>268.6754855415407</v>
       </c>
       <c r="Y19" t="n">
         <v>97.21709146028584</v>
@@ -5731,70 +5731,70 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C20" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D20" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003439</v>
       </c>
       <c r="E20" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405195</v>
       </c>
       <c r="F20" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155877</v>
       </c>
       <c r="G20" t="n">
-        <v>488.1932370805467</v>
+        <v>488.1932370805458</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822462</v>
+        <v>179.822278382245</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L20" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M20" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N20" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O20" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q20" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R20" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S20" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T20" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U20" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W20" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y20" t="n">
         <v>2814.921224614724</v>
@@ -5819,31 +5819,31 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F21" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G21" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H21" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I21" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J21" t="n">
-        <v>263.5382936126482</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="K21" t="n">
-        <v>674.4285624571609</v>
+        <v>508.1073603047985</v>
       </c>
       <c r="L21" t="n">
-        <v>1288.32563221405</v>
+        <v>1122.004430061687</v>
       </c>
       <c r="M21" t="n">
-        <v>2056.693778606511</v>
+        <v>1890.372576454149</v>
       </c>
       <c r="N21" t="n">
-        <v>2056.693778606511</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="O21" t="n">
         <v>2623.573505376138</v>
@@ -5886,28 +5886,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="C22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="D22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="E22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="F22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="G22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="H22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="I22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J22" t="n">
         <v>109.5997839241957</v>
@@ -5943,19 +5943,19 @@
         <v>1075.21084526296</v>
       </c>
       <c r="U22" t="n">
-        <v>786.0822064765186</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V22" t="n">
-        <v>531.3977182706318</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W22" t="n">
-        <v>241.9805482336712</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="Y22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
     </row>
     <row r="23">
@@ -5968,31 +5968,31 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003439</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405195</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155877</v>
       </c>
       <c r="G23" t="n">
-        <v>488.1932370805467</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H23" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823787</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514087</v>
       </c>
       <c r="L23" t="n">
         <v>1590.888347795207</v>
@@ -6001,37 +6001,37 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O23" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q23" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R23" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S23" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T23" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y23" t="n">
         <v>2814.921224614724</v>
@@ -6056,28 +6056,28 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F24" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G24" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H24" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I24" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J24" t="n">
-        <v>263.5382936126482</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="K24" t="n">
-        <v>674.4285624571609</v>
+        <v>508.1073603047985</v>
       </c>
       <c r="L24" t="n">
-        <v>1288.32563221405</v>
+        <v>1122.004430061687</v>
       </c>
       <c r="M24" t="n">
-        <v>2056.693778606511</v>
+        <v>1890.372576454149</v>
       </c>
       <c r="N24" t="n">
         <v>2623.573505376138</v>
@@ -6123,28 +6123,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>97.21709146028584</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="C25" t="n">
-        <v>97.21709146028584</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="D25" t="n">
-        <v>97.21709146028584</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="E25" t="n">
-        <v>97.21709146028584</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="F25" t="n">
-        <v>97.21709146028584</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="H25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="I25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J25" t="n">
         <v>109.5997839241957</v>
@@ -6171,28 +6171,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R25" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S25" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T25" t="n">
-        <v>1387.841167119728</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U25" t="n">
-        <v>1098.712528333286</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="V25" t="n">
-        <v>844.0280401273993</v>
+        <v>1185.240178049213</v>
       </c>
       <c r="W25" t="n">
-        <v>554.6108700904388</v>
+        <v>895.8230080122524</v>
       </c>
       <c r="X25" t="n">
-        <v>326.6213191924214</v>
+        <v>667.8334571142351</v>
       </c>
       <c r="Y25" t="n">
-        <v>278.8655562905255</v>
+        <v>447.040877970705</v>
       </c>
     </row>
     <row r="26">
@@ -6202,34 +6202,34 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550604</v>
       </c>
       <c r="C26" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610193</v>
       </c>
       <c r="D26" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E26" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G26" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822464</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L26" t="n">
         <v>1590.888347795206</v>
@@ -6244,28 +6244,28 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R26" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S26" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T26" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V26" t="n">
         <v>3931.294970121731</v>
       </c>
       <c r="W26" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X26" t="n">
         <v>3205.060556590537</v>
@@ -6302,19 +6302,19 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I27" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J27" t="n">
-        <v>263.5382936126482</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="K27" t="n">
-        <v>674.4285624571609</v>
+        <v>508.1073603047985</v>
       </c>
       <c r="L27" t="n">
-        <v>1288.32563221405</v>
+        <v>1122.004430061687</v>
       </c>
       <c r="M27" t="n">
-        <v>2056.693778606511</v>
+        <v>1890.372576454149</v>
       </c>
       <c r="N27" t="n">
         <v>2623.573505376138</v>
@@ -6360,28 +6360,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>416.2699138005285</v>
+        <v>245.130185042679</v>
       </c>
       <c r="C28" t="n">
-        <v>247.3337308726216</v>
+        <v>245.130185042679</v>
       </c>
       <c r="D28" t="n">
-        <v>97.21709146028584</v>
+        <v>245.130185042679</v>
       </c>
       <c r="E28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J28" t="n">
         <v>109.5997839241957</v>
@@ -6414,22 +6414,22 @@
         <v>1498.916270557902</v>
       </c>
       <c r="T28" t="n">
-        <v>1498.916270557902</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U28" t="n">
-        <v>1209.787631771461</v>
+        <v>1017.221394183544</v>
       </c>
       <c r="V28" t="n">
-        <v>955.1031435655738</v>
+        <v>762.5369059776569</v>
       </c>
       <c r="W28" t="n">
-        <v>665.6859735286132</v>
+        <v>473.1197359406963</v>
       </c>
       <c r="X28" t="n">
-        <v>665.6859735286132</v>
+        <v>245.130185042679</v>
       </c>
       <c r="Y28" t="n">
-        <v>597.9183786307682</v>
+        <v>245.130185042679</v>
       </c>
     </row>
     <row r="29">
@@ -6454,40 +6454,40 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G29" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H29" t="n">
         <v>179.8222783822463</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J29" t="n">
         <v>365.8813331823787</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L29" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M29" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O29" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q29" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R29" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S29" t="n">
         <v>4726.561275231264</v>
@@ -6539,19 +6539,19 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I30" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J30" t="n">
-        <v>263.5382936126482</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="K30" t="n">
-        <v>674.4285624571609</v>
+        <v>508.1073603047985</v>
       </c>
       <c r="L30" t="n">
-        <v>1288.32563221405</v>
+        <v>1122.004430061687</v>
       </c>
       <c r="M30" t="n">
-        <v>2056.693778606511</v>
+        <v>1890.372576454149</v>
       </c>
       <c r="N30" t="n">
         <v>2623.573505376138</v>
@@ -6597,28 +6597,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C31" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D31" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E31" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F31" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G31" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H31" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I31" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J31" t="n">
         <v>109.5997839241957</v>
@@ -6654,19 +6654,19 @@
         <v>1075.21084526296</v>
       </c>
       <c r="U31" t="n">
-        <v>1075.21084526296</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V31" t="n">
-        <v>820.5263570570736</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="W31" t="n">
-        <v>531.109187020113</v>
+        <v>241.9805482336712</v>
       </c>
       <c r="X31" t="n">
-        <v>499.6581354340557</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="Y31" t="n">
-        <v>278.8655562905255</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="32">
@@ -6676,34 +6676,34 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C32" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E32" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F32" t="n">
-        <v>904.3190116155899</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805474</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822466</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I32" t="n">
         <v>97.21709146028587</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514079</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L32" t="n">
         <v>1590.888347795206</v>
@@ -6718,34 +6718,34 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R32" t="n">
         <v>4860.854573014293</v>
       </c>
       <c r="S32" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T32" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W32" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y32" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="33">
@@ -6779,16 +6779,16 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J33" t="n">
-        <v>263.5382936126482</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="K33" t="n">
-        <v>674.4285624571609</v>
+        <v>508.1073603047985</v>
       </c>
       <c r="L33" t="n">
-        <v>1288.32563221405</v>
+        <v>1122.004430061687</v>
       </c>
       <c r="M33" t="n">
-        <v>2056.693778606511</v>
+        <v>1890.372576454149</v>
       </c>
       <c r="N33" t="n">
         <v>2623.573505376138</v>
@@ -6864,10 +6864,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L34" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M34" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N34" t="n">
         <v>1049.608084974667</v>
@@ -6885,16 +6885,16 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S34" t="n">
-        <v>1298.996260473455</v>
+        <v>1382.222354598087</v>
       </c>
       <c r="T34" t="n">
-        <v>1075.21084526296</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U34" t="n">
-        <v>786.0822064765186</v>
+        <v>869.3083006011507</v>
       </c>
       <c r="V34" t="n">
-        <v>531.3977182706318</v>
+        <v>614.6238123952638</v>
       </c>
       <c r="W34" t="n">
         <v>325.2066423583032</v>
@@ -6913,73 +6913,73 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C35" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D35" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E35" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F35" t="n">
-        <v>904.3190116155887</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G35" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H35" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J35" t="n">
         <v>365.8813331823787</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L35" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M35" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O35" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R35" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014294</v>
       </c>
       <c r="S35" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T35" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y35" t="n">
         <v>2814.921224614724</v>
@@ -6992,16 +6992,16 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>987.4312590525782</v>
+        <v>987.4312590525784</v>
       </c>
       <c r="C36" t="n">
-        <v>812.9782297714512</v>
+        <v>812.9782297714514</v>
       </c>
       <c r="D36" t="n">
-        <v>664.0438201101999</v>
+        <v>664.0438201102002</v>
       </c>
       <c r="E36" t="n">
-        <v>504.8063651047445</v>
+        <v>504.8063651047446</v>
       </c>
       <c r="F36" t="n">
         <v>358.2718071316295</v>
@@ -7013,10 +7013,10 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I36" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J36" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="K36" t="n">
         <v>508.1073603047985</v>
@@ -7052,7 +7052,7 @@
         <v>2060.647860003077</v>
       </c>
       <c r="V36" t="n">
-        <v>1825.495751771334</v>
+        <v>1825.495751771335</v>
       </c>
       <c r="W36" t="n">
         <v>1571.258395043133</v>
@@ -7071,28 +7071,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="C37" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="D37" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="E37" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="F37" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="G37" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="H37" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="I37" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J37" t="n">
         <v>109.5997839241957</v>
@@ -7128,19 +7128,19 @@
         <v>1075.21084526296</v>
       </c>
       <c r="U37" t="n">
-        <v>786.0822064765186</v>
+        <v>869.3083006011507</v>
       </c>
       <c r="V37" t="n">
-        <v>531.3977182706318</v>
+        <v>614.6238123952638</v>
       </c>
       <c r="W37" t="n">
-        <v>241.9805482336712</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X37" t="n">
-        <v>241.9805482336712</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="Y37" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
     </row>
     <row r="38">
@@ -7150,13 +7150,13 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C38" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D38" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E38" t="n">
         <v>1315.304916405196</v>
@@ -7171,34 +7171,34 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J38" t="n">
         <v>365.8813331823787</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514086</v>
       </c>
       <c r="L38" t="n">
         <v>1590.888347795207</v>
       </c>
       <c r="M38" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O38" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643325</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q38" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R38" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014294</v>
       </c>
       <c r="S38" t="n">
         <v>4726.561275231264</v>
@@ -7207,19 +7207,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y38" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="39">
@@ -7250,16 +7250,16 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I39" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J39" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="K39" t="n">
-        <v>508.1073603047985</v>
+        <v>508.1073603047986</v>
       </c>
       <c r="L39" t="n">
-        <v>1122.004430061687</v>
+        <v>1122.004430061688</v>
       </c>
       <c r="M39" t="n">
         <v>1890.372576454149</v>
@@ -7308,40 +7308,40 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="C40" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="D40" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="E40" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="F40" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="G40" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="H40" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="I40" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J40" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K40" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L40" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799366</v>
       </c>
       <c r="M40" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N40" t="n">
         <v>1049.608084974667</v>
@@ -7350,34 +7350,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P40" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q40" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R40" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S40" t="n">
         <v>1298.996260473455</v>
       </c>
       <c r="T40" t="n">
-        <v>1075.21084526296</v>
+        <v>1075.210845262961</v>
       </c>
       <c r="U40" t="n">
-        <v>786.0822064765186</v>
+        <v>786.0822064765191</v>
       </c>
       <c r="V40" t="n">
-        <v>531.3977182706318</v>
+        <v>614.6238123952638</v>
       </c>
       <c r="W40" t="n">
-        <v>241.9805482336712</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X40" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="Y40" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
     </row>
     <row r="41">
@@ -7387,34 +7387,34 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550604</v>
       </c>
       <c r="C41" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610193</v>
       </c>
       <c r="D41" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003443</v>
       </c>
       <c r="E41" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405199</v>
       </c>
       <c r="F41" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155909</v>
       </c>
       <c r="G41" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H41" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823787</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L41" t="n">
         <v>1590.888347795207</v>
@@ -7426,37 +7426,37 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O41" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q41" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R41" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014294</v>
       </c>
       <c r="S41" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T41" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141869</v>
       </c>
       <c r="U41" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465303</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121732</v>
       </c>
       <c r="W41" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851618</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590538</v>
       </c>
       <c r="Y41" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614726</v>
       </c>
     </row>
     <row r="42">
@@ -7487,16 +7487,16 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I42" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J42" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="K42" t="n">
-        <v>508.1073603047985</v>
+        <v>508.1073603047986</v>
       </c>
       <c r="L42" t="n">
-        <v>1122.004430061687</v>
+        <v>1122.004430061688</v>
       </c>
       <c r="M42" t="n">
         <v>1890.372576454149</v>
@@ -7545,40 +7545,40 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="C43" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="D43" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="E43" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="F43" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="G43" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="H43" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="I43" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J43" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K43" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L43" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799366</v>
       </c>
       <c r="M43" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471196</v>
       </c>
       <c r="N43" t="n">
         <v>1049.608084974667</v>
@@ -7587,34 +7587,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P43" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q43" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R43" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S43" t="n">
-        <v>1187.92115703528</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T43" t="n">
-        <v>964.135741824786</v>
+        <v>1075.210845262961</v>
       </c>
       <c r="U43" t="n">
-        <v>675.0071030383442</v>
+        <v>869.3083006011507</v>
       </c>
       <c r="V43" t="n">
-        <v>420.3226148324574</v>
+        <v>614.6238123952638</v>
       </c>
       <c r="W43" t="n">
-        <v>130.9054447954967</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X43" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="Y43" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
     </row>
     <row r="44">
@@ -7627,31 +7627,31 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C44" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D44" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E44" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F44" t="n">
-        <v>904.3190116155879</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805462</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822457</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J44" t="n">
         <v>365.8813331823785</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514081</v>
       </c>
       <c r="L44" t="n">
         <v>1590.888347795206</v>
@@ -7675,22 +7675,22 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S44" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T44" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U44" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W44" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y44" t="n">
         <v>2814.921224614724</v>
@@ -7836,19 +7836,19 @@
         <v>1298.996260473455</v>
       </c>
       <c r="T46" t="n">
-        <v>1075.21084526296</v>
+        <v>1090.100879744681</v>
       </c>
       <c r="U46" t="n">
-        <v>786.0822064765186</v>
+        <v>1090.100879744681</v>
       </c>
       <c r="V46" t="n">
-        <v>531.3977182706318</v>
+        <v>835.416391538794</v>
       </c>
       <c r="W46" t="n">
-        <v>241.9805482336712</v>
+        <v>545.9992215018333</v>
       </c>
       <c r="X46" t="n">
-        <v>97.21709146028584</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="Y46" t="n">
         <v>97.21709146028584</v>
@@ -8057,7 +8057,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
         <v>264.4652370125786</v>
@@ -8294,7 +8294,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
@@ -8315,7 +8315,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951781</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -9491,10 +9491,10 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N21" t="n">
-        <v>131.3417120833333</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O21" t="n">
-        <v>393.8623192767295</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P21" t="n">
         <v>133.9744074143302</v>
@@ -9898,7 +9898,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R26" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298386</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -10135,7 +10135,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R29" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298386</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10609,7 +10609,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298479</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10901,7 +10901,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
         <v>264.4652370125786</v>
@@ -10925,7 +10925,7 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445214</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11138,7 +11138,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
         <v>264.4652370125786</v>
@@ -11375,7 +11375,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
         <v>264.4652370125786</v>
@@ -11399,7 +11399,7 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23466,7 +23466,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
-        <v>82.39383318338545</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23475,7 +23475,7 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>82.39383318338562</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23655,25 +23655,25 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>1.068245618641157</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23709,16 +23709,16 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>61.34209567542521</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23949,16 +23949,16 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>82.39383318338568</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>48.8408432116525</v>
       </c>
     </row>
     <row r="20">
@@ -24183,7 +24183,7 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>82.39383318338557</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24192,7 +24192,7 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>82.39383318338568</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -24378,7 +24378,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>148.9138283675361</v>
@@ -24411,19 +24411,19 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>163.1458727986147</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -24432,7 +24432,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>171.3064480792179</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24600,16 +24600,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
@@ -24654,10 +24654,10 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>30.90698584635157</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24666,10 +24666,10 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>151.4947344032282</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -24837,7 +24837,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
@@ -24894,7 +24894,7 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -24903,10 +24903,10 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>194.5731143188404</v>
+        <v>82.39383318338571</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -25125,7 +25125,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>82.39383318338567</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25137,7 +25137,7 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>82.39383318338571</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -25368,7 +25368,7 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>82.39383318338568</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25377,10 +25377,10 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>75.26883114644332</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -25608,13 +25608,13 @@
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>82.39383318338528</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>82.39383318338568</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -25833,7 +25833,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -25842,7 +25842,7 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>82.393833183385</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -25851,7 +25851,7 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>192.3581855871784</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -26076,10 +26076,10 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>14.74113413690327</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26088,10 +26088,10 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>82.39383318338568</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26313,46 +26313,46 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>718411.5486312477</v>
+        <v>718411.5486312478</v>
       </c>
       <c r="C2" t="n">
-        <v>718411.5486312477</v>
+        <v>718411.5486312478</v>
       </c>
       <c r="D2" t="n">
-        <v>718411.5486312477</v>
+        <v>718411.5486312478</v>
       </c>
       <c r="E2" t="n">
         <v>684300.8545409905</v>
       </c>
       <c r="F2" t="n">
-        <v>684300.8545409901</v>
+        <v>684300.8545409902</v>
       </c>
       <c r="G2" t="n">
-        <v>684300.8545409904</v>
+        <v>684300.8545409908</v>
       </c>
       <c r="H2" t="n">
         <v>684300.8545409905</v>
       </c>
       <c r="I2" t="n">
-        <v>684300.8545409908</v>
+        <v>684300.8545409907</v>
       </c>
       <c r="J2" t="n">
-        <v>684300.8545409905</v>
+        <v>684300.8545409904</v>
       </c>
       <c r="K2" t="n">
-        <v>684300.8545409905</v>
+        <v>684300.8545409907</v>
       </c>
       <c r="L2" t="n">
-        <v>684300.8545409907</v>
+        <v>684300.8545409904</v>
       </c>
       <c r="M2" t="n">
-        <v>684300.8545409907</v>
+        <v>684300.8545409903</v>
       </c>
       <c r="N2" t="n">
+        <v>684300.8545409903</v>
+      </c>
+      <c r="O2" t="n">
         <v>684300.8545409904</v>
-      </c>
-      <c r="O2" t="n">
-        <v>684300.8545409908</v>
       </c>
       <c r="P2" t="n">
         <v>684300.8545409904</v>
@@ -26365,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145444</v>
+        <v>589967.8792145447</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26374,13 +26374,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.036476896</v>
+        <v>525160.0364768961</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1.767800767993322e-10</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.2191925929</v>
+        <v>176423.2191925931</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26398,10 +26398,10 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.0152338371</v>
+        <v>134801.0152338372</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>2.354388470848789e-10</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26417,31 +26417,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>139059.1391806191</v>
+        <v>139059.139180619</v>
       </c>
       <c r="C4" t="n">
         <v>139059.1391806191</v>
       </c>
       <c r="D4" t="n">
-        <v>139059.139180619</v>
+        <v>139059.1391806191</v>
       </c>
       <c r="E4" t="n">
+        <v>787.7936905759103</v>
+      </c>
+      <c r="F4" t="n">
         <v>787.7936905758695</v>
       </c>
-      <c r="F4" t="n">
-        <v>787.7936905759103</v>
-      </c>
       <c r="G4" t="n">
-        <v>787.7936905758695</v>
+        <v>787.7936905758694</v>
       </c>
       <c r="H4" t="n">
-        <v>787.7936905758694</v>
+        <v>787.7936905759223</v>
       </c>
       <c r="I4" t="n">
-        <v>787.7936905758695</v>
+        <v>787.7936905759236</v>
       </c>
       <c r="J4" t="n">
-        <v>787.7936905758695</v>
+        <v>787.7936905758301</v>
       </c>
       <c r="K4" t="n">
         <v>787.7936905758695</v>
@@ -26450,13 +26450,13 @@
         <v>787.7936905758695</v>
       </c>
       <c r="M4" t="n">
-        <v>787.7936905758694</v>
+        <v>787.7936905758302</v>
       </c>
       <c r="N4" t="n">
-        <v>787.7936905758695</v>
+        <v>787.7936905758063</v>
       </c>
       <c r="O4" t="n">
-        <v>787.7936905758694</v>
+        <v>787.7936905758697</v>
       </c>
       <c r="P4" t="n">
         <v>787.7936905758695</v>
@@ -26469,13 +26469,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>82859.07806340946</v>
+        <v>82859.07806340948</v>
       </c>
       <c r="C5" t="n">
         <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340947</v>
+        <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
         <v>91987.32594871662</v>
@@ -26484,13 +26484,13 @@
         <v>91987.32594871662</v>
       </c>
       <c r="G5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="H5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871661</v>
       </c>
       <c r="I5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871661</v>
       </c>
       <c r="J5" t="n">
         <v>91987.32594871664</v>
@@ -26502,13 +26502,13 @@
         <v>91987.32594871664</v>
       </c>
       <c r="M5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871665</v>
       </c>
       <c r="N5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871667</v>
       </c>
       <c r="O5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871667</v>
       </c>
       <c r="P5" t="n">
         <v>91987.32594871664</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-93474.54782732524</v>
+        <v>-93474.54782732535</v>
       </c>
       <c r="C6" t="n">
-        <v>496493.3313872193</v>
+        <v>496493.3313872194</v>
       </c>
       <c r="D6" t="n">
-        <v>496493.3313872192</v>
+        <v>496493.3313872194</v>
       </c>
       <c r="E6" t="n">
-        <v>65391.10716508039</v>
+        <v>66268.23929882972</v>
       </c>
       <c r="F6" t="n">
-        <v>590551.1436419759</v>
+        <v>591428.2757757256</v>
       </c>
       <c r="G6" t="n">
-        <v>590551.1436419761</v>
+        <v>591428.2757757262</v>
       </c>
       <c r="H6" t="n">
-        <v>590551.1436419764</v>
+        <v>591428.275775726</v>
       </c>
       <c r="I6" t="n">
-        <v>590551.1436419766</v>
+        <v>591428.2757757261</v>
       </c>
       <c r="J6" t="n">
-        <v>414127.9244493835</v>
+        <v>415005.0565831327</v>
       </c>
       <c r="K6" t="n">
-        <v>590551.1436419764</v>
+        <v>591428.2757757261</v>
       </c>
       <c r="L6" t="n">
-        <v>590551.1436419765</v>
+        <v>591428.2757757258</v>
       </c>
       <c r="M6" t="n">
-        <v>455750.1284081395</v>
+        <v>456627.2605418884</v>
       </c>
       <c r="N6" t="n">
-        <v>590551.1436419763</v>
+        <v>591428.2757757255</v>
       </c>
       <c r="O6" t="n">
-        <v>590551.1436419766</v>
+        <v>591428.2757757257</v>
       </c>
       <c r="P6" t="n">
-        <v>590551.1436419763</v>
+        <v>591428.2757757261</v>
       </c>
     </row>
   </sheetData>
@@ -26737,7 +26737,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170868</v>
       </c>
       <c r="C3" t="n">
         <v>377.7436642170866</v>
@@ -26749,34 +26749,34 @@
         <v>830.3824054541002</v>
       </c>
       <c r="F3" t="n">
-        <v>830.3824054541001</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="G3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="H3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="I3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="J3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="K3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="L3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="M3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="N3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541005</v>
       </c>
       <c r="O3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541006</v>
       </c>
       <c r="P3" t="n">
         <v>830.3824054541003</v>
@@ -26789,13 +26789,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="C4" t="n">
         <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="E4" t="n">
         <v>1215.213643253573</v>
@@ -26822,13 +26822,13 @@
         <v>1215.213643253573</v>
       </c>
       <c r="M4" t="n">
-        <v>1215.213643253573</v>
+        <v>1215.213643253574</v>
       </c>
       <c r="N4" t="n">
-        <v>1215.213643253573</v>
+        <v>1215.213643253574</v>
       </c>
       <c r="O4" t="n">
-        <v>1215.213643253573</v>
+        <v>1215.213643253574</v>
       </c>
       <c r="P4" t="n">
         <v>1215.213643253573</v>
@@ -26959,7 +26959,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170868</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26974,7 +26974,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26995,7 +26995,7 @@
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>3.410605131648481e-13</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990174</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545562</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990171</v>
+        <v>540.9263704990177</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990174</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27393,10 +27393,10 @@
         <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>158.0449589293569</v>
       </c>
       <c r="H2" t="n">
-        <v>9.269126437646321</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27435,7 +27435,7 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -27539,10 +27539,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -27551,16 +27551,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>82.85718120047579</v>
+        <v>120.4387434050065</v>
       </c>
       <c r="J4" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27581,10 +27581,10 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491428</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
@@ -27618,7 +27618,7 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -27630,7 +27630,7 @@
         <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>284.5939820565378</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
         <v>323.9227727643571</v>
@@ -27666,13 +27666,13 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>75.45116101857394</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -27773,7 +27773,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
@@ -27794,10 +27794,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27824,25 +27824,25 @@
         <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
         <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
-        <v>263.2864951344908</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>243.2051448974512</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27852,28 +27852,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>244.9404883442852</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27900,28 +27900,28 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S8" t="n">
-        <v>10.52067551358104</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28010,7 +28010,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -28022,7 +28022,7 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>167.3098022590509</v>
@@ -28076,10 +28076,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>165.9828178131687</v>
       </c>
       <c r="Y10" t="n">
-        <v>193.2687479352324</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -28092,7 +28092,7 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>9.003997547551989e-13</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -28389,7 +28389,7 @@
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>9.003997547551989e-13</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -28821,7 +28821,7 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>1.165290086646564e-12</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -29052,7 +29052,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>1.193711796076968e-12</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -29283,7 +29283,7 @@
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>-5.3663749167642e-13</v>
       </c>
       <c r="F26" t="n">
         <v>0</v>
@@ -29997,7 +29997,7 @@
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>-8.682195192673604e-13</v>
       </c>
       <c r="G35" t="n">
         <v>0</v>
@@ -30273,7 +30273,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>-1.392663762089796e-12</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
@@ -31047,43 +31047,43 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554469</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L2" t="n">
-        <v>239.6413398630669</v>
+        <v>239.6413398630671</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N2" t="n">
-        <v>270.9617944338304</v>
+        <v>270.9617944338305</v>
       </c>
       <c r="O2" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119867</v>
       </c>
       <c r="P2" t="n">
         <v>218.3719038954667</v>
       </c>
       <c r="Q2" t="n">
-        <v>163.9882055044137</v>
+        <v>163.9882055044138</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633801</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727384</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473556</v>
       </c>
       <c r="U2" t="n">
-        <v>0.1214853995472036</v>
+        <v>0.1214853995472037</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31120,49 +31120,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141113</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188917</v>
       </c>
       <c r="I3" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396476</v>
+        <v>76.7639270839648</v>
       </c>
       <c r="K3" t="n">
-        <v>131.2017781649102</v>
+        <v>11.76595806653259</v>
       </c>
       <c r="L3" t="n">
-        <v>176.4169820478007</v>
+        <v>176.4169820478008</v>
       </c>
       <c r="M3" t="n">
-        <v>162.4518126576415</v>
+        <v>205.8702969983123</v>
       </c>
       <c r="N3" t="n">
-        <v>211.31907117367</v>
+        <v>211.3190711736701</v>
       </c>
       <c r="O3" t="n">
-        <v>193.3156655923047</v>
+        <v>193.3156655923048</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q3" t="n">
-        <v>103.7155811639065</v>
+        <v>103.7155811639066</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034984</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619155</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,19 +31199,19 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078614</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644445</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813577</v>
+        <v>48.1592209281358</v>
       </c>
       <c r="K4" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302242</v>
       </c>
       <c r="L4" t="n">
         <v>101.2724571246924</v>
@@ -31223,25 +31223,25 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175848</v>
       </c>
       <c r="P4" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383803</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678011</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701165</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T4" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197225</v>
       </c>
       <c r="U4" t="n">
-        <v>0.0371551145131561</v>
+        <v>0.03715511451315612</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31381,7 +31381,7 @@
         <v>211.31907117367</v>
       </c>
       <c r="O6" t="n">
-        <v>73.87984549392695</v>
+        <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
         <v>155.1528646479577</v>
@@ -31606,7 +31606,7 @@
         <v>76.76392708396476</v>
       </c>
       <c r="K9" t="n">
-        <v>131.2017781649102</v>
+        <v>11.76595806653259</v>
       </c>
       <c r="L9" t="n">
         <v>176.4169820478007</v>
@@ -31618,7 +31618,7 @@
         <v>211.31907117367</v>
       </c>
       <c r="O9" t="n">
-        <v>73.87984549392741</v>
+        <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
         <v>155.1528646479577</v>
@@ -31852,10 +31852,10 @@
         <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>380.4309478731437</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O12" t="n">
-        <v>424.9599466855526</v>
+        <v>330.1172231204814</v>
       </c>
       <c r="P12" t="n">
         <v>341.0678223458549</v>
@@ -31864,7 +31864,7 @@
         <v>227.9948068710956</v>
       </c>
       <c r="R12" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S12" t="n">
         <v>33.17612723677464</v>
@@ -31998,40 +31998,40 @@
         <v>128.6967545176651</v>
       </c>
       <c r="J14" t="n">
-        <v>283.3273112961203</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K14" t="n">
-        <v>424.6341946041487</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L14" t="n">
-        <v>526.7962671304439</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M14" t="n">
         <v>586.1623499565518</v>
       </c>
       <c r="N14" t="n">
-        <v>595.6470695927185</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O14" t="n">
-        <v>562.4526372540885</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946991</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q14" t="n">
-        <v>360.4902833647495</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R14" t="n">
-        <v>209.6945076446477</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S14" t="n">
-        <v>76.06970478104647</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T14" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U14" t="n">
-        <v>0.2670576580354892</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32071,10 +32071,10 @@
         <v>1.786105551354102</v>
       </c>
       <c r="H15" t="n">
-        <v>17.25001940386725</v>
+        <v>17.25001940386726</v>
       </c>
       <c r="I15" t="n">
-        <v>61.49530078127063</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J15" t="n">
         <v>0.7465913262578567</v>
@@ -32095,7 +32095,7 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>341.0678223458548</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q15" t="n">
         <v>227.9948068710956</v>
@@ -32107,7 +32107,7 @@
         <v>33.17612723677464</v>
       </c>
       <c r="T15" t="n">
-        <v>7.199258779361488</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U15" t="n">
         <v>0.1175069441680331</v>
@@ -32153,7 +32153,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I16" t="n">
-        <v>45.03122946298629</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J16" t="n">
         <v>105.8669502822383</v>
@@ -32171,7 +32171,7 @@
         <v>229.144705426375</v>
       </c>
       <c r="O16" t="n">
-        <v>211.6522236065631</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P16" t="n">
         <v>181.1050413469073</v>
@@ -32183,10 +32183,10 @@
         <v>67.32903897337668</v>
       </c>
       <c r="S16" t="n">
-        <v>26.095788053369</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892244</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U16" t="n">
         <v>0.08167695791351813</v>
@@ -32226,16 +32226,16 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I17" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J17" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K17" t="n">
         <v>424.6341946041488</v>
@@ -32244,7 +32244,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M17" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N17" t="n">
         <v>595.6470695927186</v>
@@ -32253,7 +32253,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P17" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q17" t="n">
         <v>360.4902833647496</v>
@@ -32262,7 +32262,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S17" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T17" t="n">
         <v>14.61306122562944</v>
@@ -32305,7 +32305,7 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H18" t="n">
         <v>17.25001940386726</v>
@@ -32323,7 +32323,7 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M18" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N18" t="n">
         <v>392.6063366508803</v>
@@ -32341,10 +32341,10 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S18" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T18" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U18" t="n">
         <v>0.1175069441680331</v>
@@ -32405,7 +32405,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N19" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O19" t="n">
         <v>211.6522236065632</v>
@@ -32417,16 +32417,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R19" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S19" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,16 +32463,16 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I20" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J20" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K20" t="n">
         <v>424.6341946041488</v>
@@ -32481,25 +32481,25 @@
         <v>526.796267130444</v>
       </c>
       <c r="M20" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N20" t="n">
         <v>595.6470695927186</v>
       </c>
       <c r="O20" t="n">
-        <v>562.4526372540886</v>
+        <v>562.452637254088</v>
       </c>
       <c r="P20" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q20" t="n">
         <v>360.4902833647496</v>
       </c>
       <c r="R20" t="n">
-        <v>209.6945076446473</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S20" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T20" t="n">
         <v>14.61306122562944</v>
@@ -32542,7 +32542,7 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H21" t="n">
         <v>17.25001940386726</v>
@@ -32551,7 +32551,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J21" t="n">
-        <v>168.7478056215734</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K21" t="n">
         <v>288.4168775622982</v>
@@ -32560,13 +32560,13 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>392.6063366508803</v>
       </c>
       <c r="O21" t="n">
-        <v>321.3397097835</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -32578,10 +32578,10 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S21" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T21" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U21" t="n">
         <v>0.1175069441680331</v>
@@ -32642,7 +32642,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N22" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O22" t="n">
         <v>211.6522236065632</v>
@@ -32654,16 +32654,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R22" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S22" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,16 +32700,16 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I23" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J23" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K23" t="n">
         <v>424.6341946041488</v>
@@ -32718,7 +32718,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M23" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N23" t="n">
         <v>595.6470695927186</v>
@@ -32727,7 +32727,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P23" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q23" t="n">
         <v>360.4902833647496</v>
@@ -32736,7 +32736,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T23" t="n">
         <v>14.61306122562944</v>
@@ -32779,7 +32779,7 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H24" t="n">
         <v>17.25001940386726</v>
@@ -32788,7 +32788,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J24" t="n">
-        <v>168.7478056215734</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K24" t="n">
         <v>288.4168775622982</v>
@@ -32797,10 +32797,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N24" t="n">
-        <v>224.6051223555648</v>
+        <v>392.6063366508803</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
@@ -32815,10 +32815,10 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S24" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T24" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U24" t="n">
         <v>0.1175069441680331</v>
@@ -32879,7 +32879,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N25" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O25" t="n">
         <v>211.6522236065632</v>
@@ -32891,16 +32891,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R25" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S25" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,16 +32937,16 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I26" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J26" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K26" t="n">
         <v>424.6341946041488</v>
@@ -32955,7 +32955,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M26" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N26" t="n">
         <v>595.6470695927186</v>
@@ -32964,7 +32964,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P26" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q26" t="n">
         <v>360.4902833647496</v>
@@ -32973,7 +32973,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S26" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T26" t="n">
         <v>14.61306122562944</v>
@@ -33016,7 +33016,7 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H27" t="n">
         <v>17.25001940386726</v>
@@ -33025,7 +33025,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J27" t="n">
-        <v>168.7478056215734</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K27" t="n">
         <v>288.4168775622982</v>
@@ -33034,10 +33034,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M27" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N27" t="n">
-        <v>224.6051223555648</v>
+        <v>392.6063366508803</v>
       </c>
       <c r="O27" t="n">
         <v>0</v>
@@ -33052,10 +33052,10 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S27" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T27" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U27" t="n">
         <v>0.1175069441680331</v>
@@ -33116,7 +33116,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N28" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O28" t="n">
         <v>211.6522236065632</v>
@@ -33128,16 +33128,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R28" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S28" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,16 +33174,16 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H29" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I29" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J29" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K29" t="n">
         <v>424.6341946041488</v>
@@ -33192,7 +33192,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M29" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N29" t="n">
         <v>595.6470695927186</v>
@@ -33201,16 +33201,16 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P29" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q29" t="n">
-        <v>360.4902833647499</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R29" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S29" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T29" t="n">
         <v>14.61306122562944</v>
@@ -33253,7 +33253,7 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H30" t="n">
         <v>17.25001940386726</v>
@@ -33262,7 +33262,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J30" t="n">
-        <v>168.7478056215734</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K30" t="n">
         <v>288.4168775622982</v>
@@ -33271,10 +33271,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M30" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N30" t="n">
-        <v>224.6051223555648</v>
+        <v>392.6063366508803</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
@@ -33289,10 +33289,10 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S30" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T30" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U30" t="n">
         <v>0.1175069441680331</v>
@@ -33353,7 +33353,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N31" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O31" t="n">
         <v>211.6522236065632</v>
@@ -33365,16 +33365,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R31" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S31" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,16 +33411,16 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H32" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I32" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J32" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K32" t="n">
         <v>424.6341946041488</v>
@@ -33429,7 +33429,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M32" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N32" t="n">
         <v>595.6470695927186</v>
@@ -33438,16 +33438,16 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P32" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q32" t="n">
         <v>360.4902833647496</v>
       </c>
       <c r="R32" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446492</v>
       </c>
       <c r="S32" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T32" t="n">
         <v>14.61306122562944</v>
@@ -33490,7 +33490,7 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H33" t="n">
         <v>17.25001940386726</v>
@@ -33499,7 +33499,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J33" t="n">
-        <v>168.7478056215734</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K33" t="n">
         <v>288.4168775622982</v>
@@ -33508,10 +33508,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M33" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N33" t="n">
-        <v>224.6051223555648</v>
+        <v>392.6063366508803</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
@@ -33526,10 +33526,10 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S33" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T33" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U33" t="n">
         <v>0.1175069441680331</v>
@@ -33590,7 +33590,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N34" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O34" t="n">
         <v>211.6522236065632</v>
@@ -33602,16 +33602,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R34" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S34" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,16 +33648,16 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H35" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I35" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J35" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K35" t="n">
         <v>424.6341946041488</v>
@@ -33666,7 +33666,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M35" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N35" t="n">
         <v>595.6470695927186</v>
@@ -33675,7 +33675,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P35" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q35" t="n">
         <v>360.4902833647496</v>
@@ -33684,7 +33684,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S35" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T35" t="n">
         <v>14.61306122562944</v>
@@ -33727,7 +33727,7 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H36" t="n">
         <v>17.25001940386726</v>
@@ -33745,7 +33745,7 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M36" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N36" t="n">
         <v>392.6063366508803</v>
@@ -33763,10 +33763,10 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S36" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T36" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U36" t="n">
         <v>0.1175069441680331</v>
@@ -33827,7 +33827,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N37" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O37" t="n">
         <v>211.6522236065632</v>
@@ -33839,16 +33839,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R37" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S37" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,10 +33885,10 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443618</v>
       </c>
       <c r="H38" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I38" t="n">
         <v>128.6967545176652</v>
@@ -33897,37 +33897,37 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K38" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L38" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M38" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N38" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927188</v>
       </c>
       <c r="O38" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540888</v>
       </c>
       <c r="P38" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946994</v>
       </c>
       <c r="Q38" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R38" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S38" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T38" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U38" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33970,22 +33970,22 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I39" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J39" t="n">
-        <v>0.7465913262578567</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K39" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L39" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M39" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724848</v>
       </c>
       <c r="N39" t="n">
-        <v>392.6063366508803</v>
+        <v>392.6063366508798</v>
       </c>
       <c r="O39" t="n">
         <v>0</v>
@@ -34003,7 +34003,7 @@
         <v>33.17612723677465</v>
       </c>
       <c r="T39" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361492</v>
       </c>
       <c r="U39" t="n">
         <v>0.1175069441680331</v>
@@ -34043,49 +34043,49 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H40" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I40" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J40" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K40" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L40" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196125</v>
       </c>
       <c r="M40" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N40" t="n">
         <v>229.1447054263751</v>
       </c>
       <c r="O40" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P40" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q40" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R40" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S40" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892248</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351817</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,49 +34122,49 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443618</v>
       </c>
       <c r="H41" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I41" t="n">
         <v>128.6967545176652</v>
       </c>
       <c r="J41" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961206</v>
       </c>
       <c r="K41" t="n">
-        <v>424.6341946041488</v>
+        <v>424.634194604149</v>
       </c>
       <c r="L41" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304442</v>
       </c>
       <c r="M41" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565521</v>
       </c>
       <c r="N41" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927188</v>
       </c>
       <c r="O41" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540888</v>
       </c>
       <c r="P41" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946995</v>
       </c>
       <c r="Q41" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647498</v>
       </c>
       <c r="R41" t="n">
-        <v>209.6945076446473</v>
+        <v>209.6945076446479</v>
       </c>
       <c r="S41" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104652</v>
       </c>
       <c r="T41" t="n">
-        <v>14.61306122562944</v>
+        <v>14.61306122562945</v>
       </c>
       <c r="U41" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34207,22 +34207,22 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I42" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127067</v>
       </c>
       <c r="J42" t="n">
-        <v>0.7465913262578567</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K42" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L42" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358987</v>
       </c>
       <c r="M42" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724848</v>
       </c>
       <c r="N42" t="n">
-        <v>392.6063366508803</v>
+        <v>392.6063366508796</v>
       </c>
       <c r="O42" t="n">
         <v>0</v>
@@ -34237,13 +34237,13 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S42" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677466</v>
       </c>
       <c r="T42" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361493</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1175069441680331</v>
+        <v>0.1175069441680332</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34280,49 +34280,49 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H43" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I43" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298632</v>
       </c>
       <c r="J43" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K43" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L43" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196125</v>
       </c>
       <c r="M43" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N43" t="n">
-        <v>229.1447054263751</v>
+        <v>229.1447054263752</v>
       </c>
       <c r="O43" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P43" t="n">
-        <v>181.1050413469073</v>
+        <v>181.1050413469074</v>
       </c>
       <c r="Q43" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R43" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337673</v>
       </c>
       <c r="S43" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892248</v>
       </c>
       <c r="U43" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351819</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34368,7 +34368,7 @@
         <v>128.6967545176652</v>
       </c>
       <c r="J44" t="n">
-        <v>283.3273112961203</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K44" t="n">
         <v>424.6341946041488</v>
@@ -34447,7 +34447,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J45" t="n">
-        <v>0.7465913262578567</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K45" t="n">
         <v>288.4168775622982</v>
@@ -34471,7 +34471,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S45" t="n">
         <v>33.17612723677465</v>
@@ -34698,28 +34698,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K2" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435303</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492238</v>
       </c>
       <c r="O2" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530453</v>
       </c>
       <c r="P2" t="n">
         <v>308.9376163116798</v>
       </c>
       <c r="Q2" t="n">
-        <v>153.9975062898689</v>
+        <v>153.997506289869</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34777,25 +34777,25 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>76.01733575770695</v>
       </c>
       <c r="K3" t="n">
-        <v>257.8255762031298</v>
+        <v>138.3897561047522</v>
       </c>
       <c r="L3" t="n">
-        <v>408.7029475713857</v>
+        <v>408.7029475713858</v>
       </c>
       <c r="M3" t="n">
-        <v>486.0228424856231</v>
+        <v>529.4413268262939</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q3" t="n">
         <v>173.8110948137341</v>
@@ -34859,7 +34859,7 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713957</v>
       </c>
       <c r="L4" t="n">
         <v>128.8624823850085</v>
@@ -34871,10 +34871,10 @@
         <v>148.370846145888</v>
       </c>
       <c r="O4" t="n">
-        <v>120.8664146557981</v>
+        <v>120.8664146557982</v>
       </c>
       <c r="P4" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873152</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -35014,7 +35014,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
@@ -35029,13 +35029,13 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
-        <v>325.145920326212</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730631</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35254,7 +35254,7 @@
         <v>76.0173357577069</v>
       </c>
       <c r="K9" t="n">
-        <v>257.8255762031298</v>
+        <v>138.3897561047522</v>
       </c>
       <c r="L9" t="n">
         <v>408.7029475713857</v>
@@ -35266,7 +35266,7 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
-        <v>325.1459203262125</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
         <v>339.6412258735646</v>
@@ -35500,10 +35500,10 @@
         <v>323.5710298279816</v>
       </c>
       <c r="N12" t="n">
-        <v>728.431610133364</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O12" t="n">
-        <v>676.2260215178376</v>
+        <v>581.3832979527665</v>
       </c>
       <c r="P12" t="n">
         <v>525.5561835714618</v>
@@ -35512,7 +35512,7 @@
         <v>298.0903205209232</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35646,31 +35646,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>271.3780219415078</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K14" t="n">
-        <v>528.6897561303329</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L14" t="n">
-        <v>708.6910667109071</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M14" t="n">
         <v>805.3296502221116</v>
       </c>
       <c r="N14" t="n">
-        <v>803.5809304081117</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O14" t="n">
-        <v>713.1546070951471</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P14" t="n">
-        <v>570.6060255109122</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q14" t="n">
-        <v>350.4995841502047</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R14" t="n">
-        <v>59.82538970349805</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35804,7 +35804,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.5077701655655</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K16" t="n">
         <v>151.7024285299105</v>
@@ -35813,7 +35813,7 @@
         <v>250.2141868799285</v>
       </c>
       <c r="M16" t="n">
-        <v>274.3098411789724</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N16" t="n">
         <v>273.2768778056036</v>
@@ -35825,7 +35825,7 @@
         <v>178.3836006118007</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187472</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35886,13 +35886,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K17" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L17" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N17" t="n">
         <v>803.5809304081118</v>
@@ -35907,7 +35907,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R17" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35971,7 +35971,7 @@
         <v>620.0980502594834</v>
       </c>
       <c r="M18" t="n">
-        <v>776.1294408004662</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N18" t="n">
         <v>740.6069989111005</v>
@@ -36041,10 +36041,10 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K19" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L19" t="n">
         <v>250.2141868799285</v>
@@ -36056,13 +36056,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O19" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P19" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36123,19 +36123,19 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K20" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L20" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N20" t="n">
         <v>803.5809304081118</v>
       </c>
       <c r="O20" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951466</v>
       </c>
       <c r="P20" t="n">
         <v>570.6060255109123</v>
@@ -36144,7 +36144,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R20" t="n">
-        <v>59.82538970349766</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36199,7 +36199,7 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>168.0012142953155</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
         <v>415.0406756005178</v>
@@ -36208,13 +36208,13 @@
         <v>620.0980502594834</v>
       </c>
       <c r="M21" t="n">
-        <v>776.1294408004662</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>740.6069989111005</v>
       </c>
       <c r="O21" t="n">
-        <v>572.6057846157851</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -36278,10 +36278,10 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K22" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L22" t="n">
         <v>250.2141868799285</v>
@@ -36293,13 +36293,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O22" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P22" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36360,13 +36360,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K23" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L23" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N23" t="n">
         <v>803.5809304081118</v>
@@ -36381,7 +36381,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R23" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36436,7 +36436,7 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>168.0012142953155</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
         <v>415.0406756005178</v>
@@ -36445,10 +36445,10 @@
         <v>620.0980502594834</v>
       </c>
       <c r="M24" t="n">
-        <v>776.1294408004662</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N24" t="n">
-        <v>572.6057846157851</v>
+        <v>740.6069989111005</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
@@ -36515,10 +36515,10 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K25" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L25" t="n">
         <v>250.2141868799285</v>
@@ -36530,13 +36530,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O25" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P25" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36597,13 +36597,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K26" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L26" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N26" t="n">
         <v>803.5809304081118</v>
@@ -36618,7 +36618,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R26" t="n">
-        <v>59.8253897034981</v>
+        <v>59.8253897034995</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36673,7 +36673,7 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>168.0012142953155</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
         <v>415.0406756005178</v>
@@ -36682,10 +36682,10 @@
         <v>620.0980502594834</v>
       </c>
       <c r="M27" t="n">
-        <v>776.1294408004662</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N27" t="n">
-        <v>572.6057846157851</v>
+        <v>740.6069989111005</v>
       </c>
       <c r="O27" t="n">
         <v>0</v>
@@ -36752,10 +36752,10 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K28" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L28" t="n">
         <v>250.2141868799285</v>
@@ -36767,13 +36767,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O28" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P28" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36834,13 +36834,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K29" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L29" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N29" t="n">
         <v>803.5809304081118</v>
@@ -36852,10 +36852,10 @@
         <v>570.6060255109123</v>
       </c>
       <c r="Q29" t="n">
-        <v>350.4995841502051</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R29" t="n">
-        <v>59.8253897034981</v>
+        <v>59.8253897034995</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36910,7 +36910,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>168.0012142953155</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
         <v>415.0406756005178</v>
@@ -36919,10 +36919,10 @@
         <v>620.0980502594834</v>
       </c>
       <c r="M30" t="n">
-        <v>776.1294408004662</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N30" t="n">
-        <v>572.6057846157851</v>
+        <v>740.6069989111005</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
@@ -36989,10 +36989,10 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K31" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L31" t="n">
         <v>250.2141868799285</v>
@@ -37004,13 +37004,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O31" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P31" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q31" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37071,13 +37071,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K32" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L32" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M32" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N32" t="n">
         <v>803.5809304081118</v>
@@ -37092,7 +37092,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R32" t="n">
-        <v>59.8253897034981</v>
+        <v>59.8253897034995</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37147,7 +37147,7 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>168.0012142953155</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
         <v>415.0406756005178</v>
@@ -37156,10 +37156,10 @@
         <v>620.0980502594834</v>
       </c>
       <c r="M33" t="n">
-        <v>776.1294408004662</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N33" t="n">
-        <v>572.6057846157851</v>
+        <v>740.6069989111005</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
@@ -37226,10 +37226,10 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K34" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L34" t="n">
         <v>250.2141868799285</v>
@@ -37241,13 +37241,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O34" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P34" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q34" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37308,13 +37308,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K35" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L35" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N35" t="n">
         <v>803.5809304081118</v>
@@ -37329,7 +37329,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.82538970349766</v>
+        <v>59.82538970350042</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37393,7 +37393,7 @@
         <v>620.0980502594834</v>
       </c>
       <c r="M36" t="n">
-        <v>776.1294408004662</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N36" t="n">
         <v>740.6069989111005</v>
@@ -37463,10 +37463,10 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K37" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L37" t="n">
         <v>250.2141868799285</v>
@@ -37478,13 +37478,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O37" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P37" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q37" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37542,31 +37542,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>271.3780219415079</v>
+        <v>271.378021941508</v>
       </c>
       <c r="K38" t="n">
         <v>528.6897561303331</v>
       </c>
       <c r="L38" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N38" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081121</v>
       </c>
       <c r="O38" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951474</v>
       </c>
       <c r="P38" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109126</v>
       </c>
       <c r="Q38" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R38" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349816</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37624,16 +37624,16 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L39" t="n">
-        <v>620.0980502594834</v>
+        <v>620.0980502594837</v>
       </c>
       <c r="M39" t="n">
-        <v>776.1294408004662</v>
+        <v>776.1294408004663</v>
       </c>
       <c r="N39" t="n">
-        <v>740.6069989111005</v>
+        <v>740.6069989111</v>
       </c>
       <c r="O39" t="n">
         <v>0</v>
@@ -37700,19 +37700,19 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556556</v>
       </c>
       <c r="K40" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L40" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M40" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789726</v>
       </c>
       <c r="N40" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O40" t="n">
         <v>236.2373515206029</v>
@@ -37721,7 +37721,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q40" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187479</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37779,31 +37779,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415081</v>
       </c>
       <c r="K41" t="n">
-        <v>528.6897561303331</v>
+        <v>528.6897561303332</v>
       </c>
       <c r="L41" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109074</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221119</v>
       </c>
       <c r="N41" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081121</v>
       </c>
       <c r="O41" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951474</v>
       </c>
       <c r="P41" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109126</v>
       </c>
       <c r="Q41" t="n">
-        <v>350.4995841502048</v>
+        <v>350.499584150205</v>
       </c>
       <c r="R41" t="n">
-        <v>59.82538970349766</v>
+        <v>59.82538970349819</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37861,16 +37861,16 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L42" t="n">
-        <v>620.0980502594834</v>
+        <v>620.0980502594837</v>
       </c>
       <c r="M42" t="n">
-        <v>776.1294408004662</v>
+        <v>776.1294408004665</v>
       </c>
       <c r="N42" t="n">
-        <v>740.6069989111005</v>
+        <v>740.6069989110998</v>
       </c>
       <c r="O42" t="n">
         <v>0</v>
@@ -37937,28 +37937,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556557</v>
       </c>
       <c r="K43" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L43" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M43" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789726</v>
       </c>
       <c r="N43" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056038</v>
       </c>
       <c r="O43" t="n">
-        <v>236.2373515206029</v>
+        <v>236.237351520603</v>
       </c>
       <c r="P43" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118009</v>
       </c>
       <c r="Q43" t="n">
-        <v>39.22569997187476</v>
+        <v>39.2256999718748</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38016,7 +38016,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>271.3780219415078</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K44" t="n">
         <v>528.6897561303331</v>
